--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\New folder (2)\eps-1.4.3-canada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddfincannon/Projects/eps-canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5552F3D-CB32-1E4C-9688-32FD7BBF6DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -22,8 +23,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$322</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K140" authorId="0" shapeId="0">
+    <comment ref="K140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K142" authorId="0" shapeId="0">
+    <comment ref="K142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,11 +99,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\OuputGraphSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\PolicyLeverSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -3890,9 +3899,6 @@
     <t>Output Change in Cash Flow for Specific Industries[biomass and biofuel suppliers]; Output Change in Cash Flow for Specific Industries[petroleum and natural gas suppliers]; Output Change in Cash Flow for Specific Industries[coal and mineral suppliers]; Output Change in Cash Flow for Specific Industries[electricity suppliers]; Output Change in Cash Flow for Specific Industries[capital equipment suppliers]; Output Change in Consumer Cash Flow; Output Change in Industry Cash Flow; Output Change in Government Cash Flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Youth Policy Design Winner </t>
-  </si>
-  <si>
     <t>Scenario_Youth_Policy_Design.cin</t>
   </si>
   <si>
@@ -3983,11 +3989,14 @@
       <t xml:space="preserve">For an understanding of the methodological differences, visit our online guide. </t>
     </r>
   </si>
+  <si>
+    <t>Youth Policy Design Winner</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3996,7 +4005,7 @@
     <numFmt numFmtId="167" formatCode="###0;###0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5088,6 +5097,9 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5097,24 +5109,21 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="2x indented GHG Textfiels" xfId="10"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="11"/>
-    <cellStyle name="AggCels" xfId="12"/>
-    <cellStyle name="AggGreen_bld" xfId="15"/>
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggCels" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="AggGreen_bld" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma" xfId="52" builtinId="3"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Constants" xfId="8"/>
-    <cellStyle name="CustomizationCells" xfId="17"/>
-    <cellStyle name="Empty_B_border" xfId="16"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Constants" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="CustomizationCells" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Empty_B_border" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
@@ -5153,16 +5162,16 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
-    <cellStyle name="Headline" xfId="7"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Headline" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="9"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="9" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="13"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -5876,80 +5885,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.86328125" style="10"/>
+    <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <f>MAX(PolicyLevers!H:H)</f>
         <v>208</v>
@@ -5957,7 +5966,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -5970,7 +5979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T327"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5978,29 +5987,29 @@
       <selection pane="bottomLeft" activeCell="P128" sqref="P128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.86328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="23.1328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="21.265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.265625" style="53" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="23.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="79" customWidth="1"/>
     <col min="12" max="12" width="19" style="4" customWidth="1"/>
-    <col min="13" max="14" width="19.1328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.3984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="117.265625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="52.3984375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="43.3984375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.86328125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="37.265625" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="4"/>
+    <col min="13" max="14" width="19.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="117.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="52.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="43.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.83203125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="37.33203125" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5">
+    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6112,7 +6121,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="str">
         <f>A$2</f>
         <v>Transportation</v>
@@ -6173,7 +6182,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="str">
         <f t="shared" ref="A4:A7" si="2">A$2</f>
         <v>Transportation</v>
@@ -6234,7 +6243,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6295,7 +6304,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6356,7 +6365,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6417,7 +6426,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -6467,7 +6476,7 @@
       <c r="S8" s="84"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -6525,7 +6534,7 @@
       <c r="S9" s="84"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -6594,7 +6603,7 @@
       <c r="S10" s="84"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="58" t="str">
         <f t="shared" ref="A11:A20" si="5">A$9</f>
         <v>Transportation</v>
@@ -6663,7 +6672,7 @@
       <c r="S11" s="84"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6732,7 +6741,7 @@
       <c r="S12" s="84"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6779,7 +6788,7 @@
       <c r="S13" s="84"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6826,7 +6835,7 @@
       <c r="S14" s="84"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6873,7 +6882,7 @@
       <c r="S15" s="84"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6920,7 +6929,7 @@
       <c r="S16" s="84"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6967,7 +6976,7 @@
       <c r="S17" s="84"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7014,7 +7023,7 @@
       <c r="S18" s="84"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7083,7 +7092,7 @@
       <c r="S19" s="84"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7130,7 +7139,7 @@
       <c r="S20" s="84"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
@@ -7188,7 +7197,7 @@
       <c r="S21" s="84"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:20" s="79" customFormat="1">
+    <row r="22" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="str">
         <f t="shared" ref="A22:C32" si="7">A$21</f>
         <v>Transportation</v>
@@ -7235,7 +7244,7 @@
       <c r="S22" s="85"/>
       <c r="T22" s="99"/>
     </row>
-    <row r="23" spans="1:20" s="79" customFormat="1">
+    <row r="23" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7282,7 +7291,7 @@
       <c r="S23" s="85"/>
       <c r="T23" s="99"/>
     </row>
-    <row r="24" spans="1:20" s="79" customFormat="1" ht="57">
+    <row r="24" spans="1:20" s="79" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7351,7 +7360,7 @@
       <c r="S24" s="85"/>
       <c r="T24" s="99"/>
     </row>
-    <row r="25" spans="1:20" s="79" customFormat="1">
+    <row r="25" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7398,7 +7407,7 @@
       <c r="S25" s="85"/>
       <c r="T25" s="99"/>
     </row>
-    <row r="26" spans="1:20" s="79" customFormat="1">
+    <row r="26" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7445,7 +7454,7 @@
       <c r="S26" s="85"/>
       <c r="T26" s="99"/>
     </row>
-    <row r="27" spans="1:20" s="79" customFormat="1">
+    <row r="27" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7492,7 +7501,7 @@
       <c r="S27" s="85"/>
       <c r="T27" s="99"/>
     </row>
-    <row r="28" spans="1:20" s="79" customFormat="1">
+    <row r="28" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7539,7 +7548,7 @@
       <c r="S28" s="85"/>
       <c r="T28" s="99"/>
     </row>
-    <row r="29" spans="1:20" s="79" customFormat="1">
+    <row r="29" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7586,7 +7595,7 @@
       <c r="S29" s="85"/>
       <c r="T29" s="99"/>
     </row>
-    <row r="30" spans="1:20" s="79" customFormat="1">
+    <row r="30" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7633,7 +7642,7 @@
       <c r="S30" s="85"/>
       <c r="T30" s="99"/>
     </row>
-    <row r="31" spans="1:20" s="79" customFormat="1">
+    <row r="31" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7680,7 +7689,7 @@
       <c r="S31" s="85"/>
       <c r="T31" s="99"/>
     </row>
-    <row r="32" spans="1:20" s="79" customFormat="1">
+    <row r="32" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7727,7 +7736,7 @@
       <c r="S32" s="85"/>
       <c r="T32" s="99"/>
     </row>
-    <row r="33" spans="1:20" ht="85.5">
+    <row r="33" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
         <v>4</v>
       </c>
@@ -7781,7 +7790,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="28.5">
+    <row r="34" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
         <v>4</v>
       </c>
@@ -7818,7 +7827,7 @@
       <c r="R34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="28.5">
+    <row r="35" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="str">
         <f t="shared" ref="A35:C50" si="9">A$34</f>
         <v>Transportation</v>
@@ -7865,7 +7874,7 @@
       <c r="S35" s="81"/>
       <c r="T35" s="56"/>
     </row>
-    <row r="36" spans="1:20" ht="71.25">
+    <row r="36" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7933,7 +7942,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.5">
+    <row r="37" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7980,7 +7989,7 @@
       <c r="S37" s="81"/>
       <c r="T37" s="56"/>
     </row>
-    <row r="38" spans="1:20" ht="28.5">
+    <row r="38" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8027,7 +8036,7 @@
       <c r="S38" s="81"/>
       <c r="T38" s="56"/>
     </row>
-    <row r="39" spans="1:20" ht="28.5">
+    <row r="39" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8074,7 +8083,7 @@
       <c r="S39" s="81"/>
       <c r="T39" s="56"/>
     </row>
-    <row r="40" spans="1:20" ht="28.5">
+    <row r="40" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="58" t="str">
         <f>A$34</f>
         <v>Transportation</v>
@@ -8116,7 +8125,7 @@
       <c r="R40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="28.5">
+    <row r="41" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8163,7 +8172,7 @@
       <c r="S41" s="81"/>
       <c r="T41" s="56"/>
     </row>
-    <row r="42" spans="1:20" ht="28.5">
+    <row r="42" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8210,7 +8219,7 @@
       <c r="S42" s="81"/>
       <c r="T42" s="56"/>
     </row>
-    <row r="43" spans="1:20" ht="85.5">
+    <row r="43" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8283,7 +8292,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="28.5">
+    <row r="44" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8330,7 +8339,7 @@
       <c r="S44" s="81"/>
       <c r="T44" s="56"/>
     </row>
-    <row r="45" spans="1:20" ht="28.5">
+    <row r="45" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8377,7 +8386,7 @@
       <c r="S45" s="81"/>
       <c r="T45" s="56"/>
     </row>
-    <row r="46" spans="1:20" ht="28.5">
+    <row r="46" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8419,7 +8428,7 @@
       <c r="R46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="28.5">
+    <row r="47" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8466,7 +8475,7 @@
       <c r="S47" s="81"/>
       <c r="T47" s="56"/>
     </row>
-    <row r="48" spans="1:20" ht="28.5">
+    <row r="48" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8513,7 +8522,7 @@
       <c r="S48" s="81"/>
       <c r="T48" s="56"/>
     </row>
-    <row r="49" spans="1:20" ht="28.5">
+    <row r="49" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8560,7 +8569,7 @@
       <c r="S49" s="81"/>
       <c r="T49" s="56"/>
     </row>
-    <row r="50" spans="1:20" ht="28.5">
+    <row r="50" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8607,7 +8616,7 @@
       <c r="S50" s="81"/>
       <c r="T50" s="56"/>
     </row>
-    <row r="51" spans="1:20" ht="99.75">
+    <row r="51" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="str">
         <f t="shared" ref="A51:C69" si="11">A$34</f>
         <v>Transportation</v>
@@ -8680,7 +8689,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="28.5">
+    <row r="52" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8722,7 +8731,7 @@
       <c r="R52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="28.5">
+    <row r="53" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8769,7 +8778,7 @@
       <c r="S53" s="81"/>
       <c r="T53" s="56"/>
     </row>
-    <row r="54" spans="1:20" ht="28.5">
+    <row r="54" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8816,7 +8825,7 @@
       <c r="S54" s="81"/>
       <c r="T54" s="56"/>
     </row>
-    <row r="55" spans="1:20" ht="28.5">
+    <row r="55" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8863,7 +8872,7 @@
       <c r="S55" s="81"/>
       <c r="T55" s="56"/>
     </row>
-    <row r="56" spans="1:20" ht="28.5">
+    <row r="56" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8910,7 +8919,7 @@
       <c r="S56" s="81"/>
       <c r="T56" s="56"/>
     </row>
-    <row r="57" spans="1:20" ht="71.25">
+    <row r="57" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8983,7 +8992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="28.5">
+    <row r="58" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9025,7 +9034,7 @@
       <c r="R58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="28.5">
+    <row r="59" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9072,7 +9081,7 @@
       <c r="S59" s="81"/>
       <c r="T59" s="56"/>
     </row>
-    <row r="60" spans="1:20" ht="28.5">
+    <row r="60" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9119,7 +9128,7 @@
       <c r="S60" s="81"/>
       <c r="T60" s="56"/>
     </row>
-    <row r="61" spans="1:20" ht="28.5">
+    <row r="61" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9166,7 +9175,7 @@
       <c r="S61" s="81"/>
       <c r="T61" s="56"/>
     </row>
-    <row r="62" spans="1:20" ht="28.5">
+    <row r="62" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9213,7 +9222,7 @@
       <c r="S62" s="81"/>
       <c r="T62" s="56"/>
     </row>
-    <row r="63" spans="1:20" ht="99.75">
+    <row r="63" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A63" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9286,7 +9295,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="28.5">
+    <row r="64" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9328,7 +9337,7 @@
       <c r="R64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="28.5">
+    <row r="65" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9375,7 +9384,7 @@
       <c r="S65" s="81"/>
       <c r="T65" s="56"/>
     </row>
-    <row r="66" spans="1:20" ht="99.75">
+    <row r="66" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A66" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9448,7 +9457,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="28.5">
+    <row r="67" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9495,7 +9504,7 @@
       <c r="S67" s="81"/>
       <c r="T67" s="56"/>
     </row>
-    <row r="68" spans="1:20" ht="28.5">
+    <row r="68" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9542,7 +9551,7 @@
       <c r="S68" s="81"/>
       <c r="T68" s="56"/>
     </row>
-    <row r="69" spans="1:20" ht="28.5">
+    <row r="69" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9589,7 +9598,7 @@
       <c r="S69" s="81"/>
       <c r="T69" s="56"/>
     </row>
-    <row r="70" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="70" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>4</v>
       </c>
@@ -9639,7 +9648,7 @@
       <c r="S70" s="87"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" ht="85.5">
+    <row r="71" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="s">
         <v>4</v>
       </c>
@@ -9695,7 +9704,7 @@
       </c>
       <c r="T71" s="56"/>
     </row>
-    <row r="72" spans="1:20" ht="57">
+    <row r="72" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="str">
         <f>A$71</f>
         <v>Transportation</v>
@@ -9763,7 +9772,7 @@
       </c>
       <c r="T72" s="56"/>
     </row>
-    <row r="73" spans="1:20" ht="57">
+    <row r="73" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="s">
         <v>82</v>
       </c>
@@ -9817,7 +9826,7 @@
       <c r="S73" s="81"/>
       <c r="T73" s="56"/>
     </row>
-    <row r="74" spans="1:20" ht="57">
+    <row r="74" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="58" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -9882,7 +9891,7 @@
       <c r="S74" s="83"/>
       <c r="T74" s="61"/>
     </row>
-    <row r="75" spans="1:20" ht="57">
+    <row r="75" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="58" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -9947,7 +9956,7 @@
       <c r="S75" s="83"/>
       <c r="T75" s="61"/>
     </row>
-    <row r="76" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="76" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="s">
         <v>82</v>
       </c>
@@ -10009,7 +10018,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="77" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A77" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10087,7 +10096,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="78" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A78" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10165,7 +10174,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="79" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10243,7 +10252,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="80" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A80" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10321,7 +10330,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="81" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A81" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10399,7 +10408,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="82" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A82" s="58" t="str">
         <f t="shared" ref="A82:C93" si="19">A$76</f>
         <v>Buildings and Appliances</v>
@@ -10478,7 +10487,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="83" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A83" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10557,7 +10566,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="84" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A84" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10636,7 +10645,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="85" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A85" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10715,7 +10724,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A86" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10794,7 +10803,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="87" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10873,7 +10882,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="88" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A88" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10952,7 +10961,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="89" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A89" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11031,7 +11040,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="90" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A90" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11110,7 +11119,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="91" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A91" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11189,7 +11198,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="92" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11268,7 +11277,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="93" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A93" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11347,7 +11356,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="94" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="s">
         <v>82</v>
       </c>
@@ -11399,7 +11408,7 @@
       </c>
       <c r="T94" s="58"/>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="95" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="s">
         <v>82</v>
       </c>
@@ -11454,7 +11463,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="96" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="s">
         <v>82</v>
       </c>
@@ -11504,7 +11513,7 @@
       <c r="S96" s="87"/>
       <c r="T96" s="58"/>
     </row>
-    <row r="97" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="97" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
         <v>82</v>
       </c>
@@ -11556,7 +11565,7 @@
       </c>
       <c r="T97" s="58"/>
     </row>
-    <row r="98" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="98" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="s">
         <v>82</v>
       </c>
@@ -11615,7 +11624,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A99" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11681,7 +11690,7 @@
       </c>
       <c r="T99" s="58"/>
     </row>
-    <row r="100" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="100" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A100" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11747,7 +11756,7 @@
       </c>
       <c r="T100" s="58"/>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="101" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11813,7 +11822,7 @@
       </c>
       <c r="T101" s="58"/>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="102" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A102" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11879,7 +11888,7 @@
       </c>
       <c r="T102" s="58"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A103" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11945,7 +11954,7 @@
       </c>
       <c r="T103" s="58"/>
     </row>
-    <row r="104" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="104" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="s">
         <v>82</v>
       </c>
@@ -12001,7 +12010,7 @@
       </c>
       <c r="T104" s="58"/>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="105" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12066,7 +12075,7 @@
       </c>
       <c r="T105" s="58"/>
     </row>
-    <row r="106" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="106" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12111,7 +12120,7 @@
       <c r="S106" s="86"/>
       <c r="T106" s="58"/>
     </row>
-    <row r="107" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="107" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12156,7 +12165,7 @@
       <c r="S107" s="86"/>
       <c r="T107" s="58"/>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="108" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12221,7 +12230,7 @@
       </c>
       <c r="T108" s="58"/>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="109" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12266,7 +12275,7 @@
       <c r="S109" s="86"/>
       <c r="T109" s="58"/>
     </row>
-    <row r="110" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="110" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>8</v>
       </c>
@@ -12320,7 +12329,7 @@
       <c r="S110" s="87"/>
       <c r="T110" s="11"/>
     </row>
-    <row r="111" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="111" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="58" t="str">
         <f>A$110</f>
         <v>Electricity Supply</v>
@@ -12385,7 +12394,7 @@
       <c r="S111" s="86"/>
       <c r="T111" s="58"/>
     </row>
-    <row r="112" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="112" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="58" t="str">
         <f t="shared" ref="A112:C121" si="27">A$110</f>
         <v>Electricity Supply</v>
@@ -12450,7 +12459,7 @@
       <c r="S112" s="86"/>
       <c r="T112" s="58"/>
     </row>
-    <row r="113" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="113" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12515,7 +12524,7 @@
       <c r="S113" s="86"/>
       <c r="T113" s="58"/>
     </row>
-    <row r="114" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="114" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12558,7 +12567,7 @@
       <c r="S114" s="86"/>
       <c r="T114" s="58"/>
     </row>
-    <row r="115" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="115" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12601,7 +12610,7 @@
       <c r="S115" s="86"/>
       <c r="T115" s="58"/>
     </row>
-    <row r="116" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="116" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12644,7 +12653,7 @@
       <c r="S116" s="86"/>
       <c r="T116" s="58"/>
     </row>
-    <row r="117" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="117" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12687,7 +12696,7 @@
       <c r="S117" s="86"/>
       <c r="T117" s="58"/>
     </row>
-    <row r="118" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="118" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12730,7 +12739,7 @@
       <c r="S118" s="86"/>
       <c r="T118" s="58"/>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="119" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12773,7 +12782,7 @@
       <c r="S119" s="86"/>
       <c r="T119" s="58"/>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="120" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12836,7 +12845,7 @@
       <c r="S120" s="86"/>
       <c r="T120" s="58"/>
     </row>
-    <row r="121" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="121" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12879,7 +12888,7 @@
       <c r="S121" s="86"/>
       <c r="T121" s="58"/>
     </row>
-    <row r="122" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="122" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>8</v>
       </c>
@@ -12929,7 +12938,7 @@
       <c r="S122" s="87"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="123" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>8</v>
       </c>
@@ -12979,7 +12988,7 @@
       <c r="S123" s="87"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20" ht="28.5">
+    <row r="124" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="56" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +13024,7 @@
       <c r="S124" s="81"/>
       <c r="T124" s="56"/>
     </row>
-    <row r="125" spans="1:20" ht="57">
+    <row r="125" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="56" t="s">
         <v>8</v>
       </c>
@@ -13067,7 +13076,7 @@
       </c>
       <c r="T125" s="56"/>
     </row>
-    <row r="126" spans="1:20" ht="114">
+    <row r="126" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A126" s="56" t="s">
         <v>8</v>
       </c>
@@ -13125,7 +13134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="42.75">
+    <row r="127" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="58" t="str">
         <f t="shared" ref="A127:C137" si="29">A$126</f>
         <v>Electricity Supply</v>
@@ -13170,7 +13179,7 @@
       <c r="S127" s="81"/>
       <c r="T127" s="56"/>
     </row>
-    <row r="128" spans="1:20" ht="42.75">
+    <row r="128" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13235,7 +13244,7 @@
       </c>
       <c r="T128" s="56"/>
     </row>
-    <row r="129" spans="1:20" ht="42.75">
+    <row r="129" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13280,7 +13289,7 @@
       <c r="S129" s="81"/>
       <c r="T129" s="56"/>
     </row>
-    <row r="130" spans="1:20" ht="42.75">
+    <row r="130" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13325,7 +13334,7 @@
       <c r="S130" s="81"/>
       <c r="T130" s="56"/>
     </row>
-    <row r="131" spans="1:20" ht="42.75">
+    <row r="131" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13370,7 +13379,7 @@
       <c r="S131" s="81"/>
       <c r="T131" s="56"/>
     </row>
-    <row r="132" spans="1:20" ht="42.75">
+    <row r="132" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13415,7 +13424,7 @@
       <c r="S132" s="81"/>
       <c r="T132" s="56"/>
     </row>
-    <row r="133" spans="1:20" ht="42.75">
+    <row r="133" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13460,7 +13469,7 @@
       <c r="S133" s="81"/>
       <c r="T133" s="56"/>
     </row>
-    <row r="134" spans="1:20" ht="42.75">
+    <row r="134" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13503,7 +13512,7 @@
       <c r="S134" s="81"/>
       <c r="T134" s="56"/>
     </row>
-    <row r="135" spans="1:20" ht="42.75">
+    <row r="135" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13546,7 +13555,7 @@
       <c r="S135" s="81"/>
       <c r="T135" s="56"/>
     </row>
-    <row r="136" spans="1:20" ht="42.75">
+    <row r="136" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13589,7 +13598,7 @@
       <c r="S136" s="81"/>
       <c r="T136" s="56"/>
     </row>
-    <row r="137" spans="1:20" ht="42.75">
+    <row r="137" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13632,7 +13641,7 @@
       <c r="S137" s="81"/>
       <c r="T137" s="56"/>
     </row>
-    <row r="138" spans="1:20" ht="85.5">
+    <row r="138" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A138" s="56" t="s">
         <v>8</v>
       </c>
@@ -13686,7 +13695,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="57">
+    <row r="139" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="56" t="s">
         <v>8</v>
       </c>
@@ -13740,7 +13749,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="140" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="56" t="s">
         <v>8</v>
       </c>
@@ -13784,7 +13793,7 @@
       <c r="S140" s="86"/>
       <c r="T140" s="58"/>
     </row>
-    <row r="141" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="141" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="56" t="s">
         <v>8</v>
       </c>
@@ -13820,7 +13829,7 @@
       <c r="S141" s="86"/>
       <c r="T141" s="58"/>
     </row>
-    <row r="142" spans="1:20" s="5" customFormat="1" ht="85.5">
+    <row r="142" spans="1:20" s="5" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A142" s="56" t="s">
         <v>8</v>
       </c>
@@ -13872,7 +13881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="143" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>8</v>
       </c>
@@ -13910,7 +13919,7 @@
       <c r="S143" s="87"/>
       <c r="T143" s="11"/>
     </row>
-    <row r="144" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="144" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="60" t="str">
         <f t="shared" ref="A144:C173" si="31">A$143</f>
         <v>Electricity Supply</v>
@@ -13953,7 +13962,7 @@
       <c r="S144" s="87"/>
       <c r="T144" s="11"/>
     </row>
-    <row r="145" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="145" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -13996,7 +14005,7 @@
       <c r="S145" s="87"/>
       <c r="T145" s="11"/>
     </row>
-    <row r="146" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="146" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A146" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14061,7 +14070,7 @@
       </c>
       <c r="T146" s="11"/>
     </row>
-    <row r="147" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="147" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14104,7 +14113,7 @@
       <c r="S147" s="87"/>
       <c r="T147" s="11"/>
     </row>
-    <row r="148" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="148" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14147,7 +14156,7 @@
       <c r="S148" s="87"/>
       <c r="T148" s="11"/>
     </row>
-    <row r="149" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="149" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14190,7 +14199,7 @@
       <c r="S149" s="87"/>
       <c r="T149" s="11"/>
     </row>
-    <row r="150" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="150" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14233,7 +14242,7 @@
       <c r="S150" s="87"/>
       <c r="T150" s="11"/>
     </row>
-    <row r="151" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="151" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14276,7 +14285,7 @@
       <c r="S151" s="87"/>
       <c r="T151" s="11"/>
     </row>
-    <row r="152" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="152" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14319,7 +14328,7 @@
       <c r="S152" s="87"/>
       <c r="T152" s="11"/>
     </row>
-    <row r="153" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="153" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14362,7 +14371,7 @@
       <c r="S153" s="87"/>
       <c r="T153" s="11"/>
     </row>
-    <row r="154" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="154" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14405,7 +14414,7 @@
       <c r="S154" s="87"/>
       <c r="T154" s="11"/>
     </row>
-    <row r="155" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="155" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14448,7 +14457,7 @@
       <c r="S155" s="87"/>
       <c r="T155" s="11"/>
     </row>
-    <row r="156" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="156" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14491,7 +14500,7 @@
       <c r="S156" s="87"/>
       <c r="T156" s="11"/>
     </row>
-    <row r="157" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="157" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14556,7 +14565,7 @@
       </c>
       <c r="T157" s="11"/>
     </row>
-    <row r="158" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="158" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14599,7 +14608,7 @@
       <c r="S158" s="87"/>
       <c r="T158" s="11"/>
     </row>
-    <row r="159" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="159" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14642,7 +14651,7 @@
       <c r="S159" s="87"/>
       <c r="T159" s="11"/>
     </row>
-    <row r="160" spans="1:20" s="3" customFormat="1" ht="71.25">
+    <row r="160" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A160" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14707,7 +14716,7 @@
       </c>
       <c r="T160" s="11"/>
     </row>
-    <row r="161" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="161" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14750,7 +14759,7 @@
       <c r="S161" s="87"/>
       <c r="T161" s="11"/>
     </row>
-    <row r="162" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="162" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14793,7 +14802,7 @@
       <c r="S162" s="87"/>
       <c r="T162" s="11"/>
     </row>
-    <row r="163" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="163" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14836,7 +14845,7 @@
       <c r="S163" s="87"/>
       <c r="T163" s="11"/>
     </row>
-    <row r="164" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="164" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14879,7 +14888,7 @@
       <c r="S164" s="87"/>
       <c r="T164" s="11"/>
     </row>
-    <row r="165" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="165" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14922,7 +14931,7 @@
       <c r="S165" s="87"/>
       <c r="T165" s="11"/>
     </row>
-    <row r="166" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="166" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14965,7 +14974,7 @@
       <c r="S166" s="87"/>
       <c r="T166" s="11"/>
     </row>
-    <row r="167" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="167" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15008,7 +15017,7 @@
       <c r="S167" s="87"/>
       <c r="T167" s="11"/>
     </row>
-    <row r="168" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="168" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15051,7 +15060,7 @@
       <c r="S168" s="87"/>
       <c r="T168" s="11"/>
     </row>
-    <row r="169" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="169" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15094,7 +15103,7 @@
       <c r="S169" s="87"/>
       <c r="T169" s="11"/>
     </row>
-    <row r="170" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="170" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15137,7 +15146,7 @@
       <c r="S170" s="87"/>
       <c r="T170" s="11"/>
     </row>
-    <row r="171" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="171" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15180,7 +15189,7 @@
       <c r="S171" s="87"/>
       <c r="T171" s="11"/>
     </row>
-    <row r="172" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="172" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15223,7 +15232,7 @@
       <c r="S172" s="87"/>
       <c r="T172" s="11"/>
     </row>
-    <row r="173" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="173" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15266,7 +15275,7 @@
       <c r="S173" s="87"/>
       <c r="T173" s="11"/>
     </row>
-    <row r="174" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="174" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="60" t="str">
         <f t="shared" ref="A174:C178" si="33">A$143</f>
         <v>Electricity Supply</v>
@@ -15309,7 +15318,7 @@
       <c r="S174" s="87"/>
       <c r="T174" s="11"/>
     </row>
-    <row r="175" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="175" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15352,7 +15361,7 @@
       <c r="S175" s="87"/>
       <c r="T175" s="11"/>
     </row>
-    <row r="176" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="176" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15395,7 +15404,7 @@
       <c r="S176" s="87"/>
       <c r="T176" s="11"/>
     </row>
-    <row r="177" spans="1:20" s="3" customFormat="1" ht="28.5">
+    <row r="177" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15438,7 +15447,7 @@
       <c r="S177" s="87"/>
       <c r="T177" s="11"/>
     </row>
-    <row r="178" spans="1:20" s="3" customFormat="1" ht="85.5">
+    <row r="178" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A178" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15503,7 +15512,7 @@
       </c>
       <c r="T178" s="11"/>
     </row>
-    <row r="179" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="179" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
         <v>8</v>
       </c>
@@ -15557,7 +15566,7 @@
       <c r="S179" s="87"/>
       <c r="T179" s="11"/>
     </row>
-    <row r="180" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="180" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" s="60" t="str">
         <f>A$179</f>
         <v>Electricity Supply</v>
@@ -15622,7 +15631,7 @@
       <c r="S180" s="87"/>
       <c r="T180" s="11"/>
     </row>
-    <row r="181" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="181" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" s="60" t="str">
         <f>A$179</f>
         <v>Electricity Supply</v>
@@ -15687,7 +15696,7 @@
       <c r="S181" s="87"/>
       <c r="T181" s="11"/>
     </row>
-    <row r="182" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="182" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>8</v>
       </c>
@@ -15739,7 +15748,7 @@
       </c>
       <c r="T182" s="11"/>
     </row>
-    <row r="183" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="183" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="56" t="s">
         <v>8</v>
       </c>
@@ -15787,7 +15796,7 @@
       <c r="S183" s="87"/>
       <c r="T183" s="56"/>
     </row>
-    <row r="184" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="184" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="56" t="s">
         <v>8</v>
       </c>
@@ -15827,7 +15836,7 @@
       <c r="S184" s="87"/>
       <c r="T184" s="58"/>
     </row>
-    <row r="185" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="185" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="58" t="str">
         <f t="shared" ref="A185:C194" si="36">A$184</f>
         <v>Electricity Supply</v>
@@ -15872,7 +15881,7 @@
       <c r="S185" s="87"/>
       <c r="T185" s="58"/>
     </row>
-    <row r="186" spans="1:20" s="5" customFormat="1" ht="128.25">
+    <row r="186" spans="1:20" s="5" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A186" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -15933,7 +15942,7 @@
       </c>
       <c r="T186" s="56"/>
     </row>
-    <row r="187" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="187" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -15976,7 +15985,7 @@
       <c r="S187" s="86"/>
       <c r="T187" s="58"/>
     </row>
-    <row r="188" spans="1:20" ht="128.25">
+    <row r="188" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A188" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16042,7 +16051,7 @@
       </c>
       <c r="T188" s="56"/>
     </row>
-    <row r="189" spans="1:20" ht="128.25">
+    <row r="189" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A189" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16108,7 +16117,7 @@
       </c>
       <c r="T189" s="56"/>
     </row>
-    <row r="190" spans="1:20" ht="128.25">
+    <row r="190" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A190" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16174,7 +16183,7 @@
       </c>
       <c r="T190" s="56"/>
     </row>
-    <row r="191" spans="1:20" ht="128.25">
+    <row r="191" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A191" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16240,7 +16249,7 @@
       </c>
       <c r="T191" s="56"/>
     </row>
-    <row r="192" spans="1:20" ht="28.5">
+    <row r="192" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16283,7 +16292,7 @@
       <c r="S192" s="86"/>
       <c r="T192" s="56"/>
     </row>
-    <row r="193" spans="1:20" ht="128.25">
+    <row r="193" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A193" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16349,7 +16358,7 @@
       </c>
       <c r="T193" s="56"/>
     </row>
-    <row r="194" spans="1:20" s="120" customFormat="1" ht="128.25">
+    <row r="194" spans="1:20" s="120" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A194" s="115" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16412,7 +16421,7 @@
       </c>
       <c r="T194" s="119"/>
     </row>
-    <row r="195" spans="1:20" ht="42.75">
+    <row r="195" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="56" t="s">
         <v>9</v>
       </c>
@@ -16464,7 +16473,7 @@
       </c>
       <c r="T195" s="56"/>
     </row>
-    <row r="196" spans="1:20" s="5" customFormat="1" ht="42.75">
+    <row r="196" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="56" t="s">
         <v>9</v>
       </c>
@@ -16516,7 +16525,7 @@
       </c>
       <c r="T196" s="58"/>
     </row>
-    <row r="197" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="197" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A197" s="56" t="s">
         <v>9</v>
       </c>
@@ -16568,7 +16577,7 @@
       </c>
       <c r="T197" s="58"/>
     </row>
-    <row r="198" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="198" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A198" s="56" t="s">
         <v>9</v>
       </c>
@@ -16627,7 +16636,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="199" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A199" s="58" t="str">
         <f>A$198</f>
         <v>Industry</v>
@@ -16696,7 +16705,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="200" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A200" s="58" t="str">
         <f t="shared" ref="A200:A205" si="42">A$198</f>
         <v>Industry</v>
@@ -16765,7 +16774,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="201" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A201" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16834,7 +16843,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="202" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A202" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16903,7 +16912,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="203" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A203" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16972,7 +16981,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="71.25">
+    <row r="204" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A204" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -17041,7 +17050,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="205" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A205" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -17110,7 +17119,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="5" customFormat="1" ht="71.25">
+    <row r="206" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A206" s="139" t="s">
         <v>9</v>
       </c>
@@ -17160,7 +17169,7 @@
       </c>
       <c r="T206" s="145"/>
     </row>
-    <row r="207" spans="1:20" ht="85.5">
+    <row r="207" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A207" s="152" t="s">
         <v>9</v>
       </c>
@@ -17210,7 +17219,7 @@
       <c r="S207" s="158"/>
       <c r="T207" s="152"/>
     </row>
-    <row r="208" spans="1:20" ht="99.75">
+    <row r="208" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A208" s="152" t="s">
         <v>9</v>
       </c>
@@ -17260,7 +17269,7 @@
       <c r="S208" s="158"/>
       <c r="T208" s="152"/>
     </row>
-    <row r="209" spans="1:20" ht="57">
+    <row r="209" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" s="56" t="s">
         <v>9</v>
       </c>
@@ -17312,7 +17321,7 @@
       </c>
       <c r="T209" s="56"/>
     </row>
-    <row r="210" spans="1:20" ht="42.75">
+    <row r="210" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A210" s="56" t="s">
         <v>9</v>
       </c>
@@ -17364,7 +17373,7 @@
       </c>
       <c r="T210" s="56"/>
     </row>
-    <row r="211" spans="1:20" ht="42.75">
+    <row r="211" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="56" t="s">
         <v>9</v>
       </c>
@@ -17416,7 +17425,7 @@
       </c>
       <c r="T211" s="56"/>
     </row>
-    <row r="212" spans="1:20" ht="42.75">
+    <row r="212" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="56" t="s">
         <v>9</v>
       </c>
@@ -17468,7 +17477,7 @@
       </c>
       <c r="T212" s="56"/>
     </row>
-    <row r="213" spans="1:20" ht="71.25">
+    <row r="213" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A213" s="56" t="s">
         <v>167</v>
       </c>
@@ -17522,7 +17531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="28.5">
+    <row r="214" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="56" t="s">
         <v>167</v>
       </c>
@@ -17572,7 +17581,7 @@
       <c r="S214" s="81"/>
       <c r="T214" s="56"/>
     </row>
-    <row r="215" spans="1:20" ht="28.5">
+    <row r="215" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="56" t="s">
         <v>167</v>
       </c>
@@ -17608,7 +17617,7 @@
       <c r="S215" s="81"/>
       <c r="T215" s="56"/>
     </row>
-    <row r="216" spans="1:20" ht="28.5">
+    <row r="216" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="56" t="s">
         <v>167</v>
       </c>
@@ -17660,7 +17669,7 @@
       </c>
       <c r="T216" s="56"/>
     </row>
-    <row r="217" spans="1:20" ht="57">
+    <row r="217" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" s="56" t="s">
         <v>167</v>
       </c>
@@ -17712,7 +17721,7 @@
       </c>
       <c r="T217" s="56"/>
     </row>
-    <row r="218" spans="1:20" ht="42.75">
+    <row r="218" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A218" s="56" t="s">
         <v>167</v>
       </c>
@@ -17764,7 +17773,7 @@
       </c>
       <c r="T218" s="56"/>
     </row>
-    <row r="219" spans="1:20" ht="42.75">
+    <row r="219" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" s="56" t="s">
         <v>167</v>
       </c>
@@ -17816,7 +17825,7 @@
       </c>
       <c r="T219" s="56"/>
     </row>
-    <row r="220" spans="1:20" ht="28.5">
+    <row r="220" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="56" t="s">
         <v>167</v>
       </c>
@@ -17852,7 +17861,7 @@
       <c r="S220" s="81"/>
       <c r="T220" s="56"/>
     </row>
-    <row r="221" spans="1:20" ht="42.75">
+    <row r="221" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="56" t="s">
         <v>167</v>
       </c>
@@ -17904,7 +17913,7 @@
       </c>
       <c r="T221" s="56"/>
     </row>
-    <row r="222" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="222" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
         <v>436</v>
       </c>
@@ -17956,7 +17965,7 @@
       </c>
       <c r="T222" s="11"/>
     </row>
-    <row r="223" spans="1:20" s="3" customFormat="1" ht="42.75">
+    <row r="223" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
         <v>436</v>
       </c>
@@ -18008,7 +18017,7 @@
       </c>
       <c r="T223" s="11"/>
     </row>
-    <row r="224" spans="1:20" ht="42.75">
+    <row r="224" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A224" s="56" t="s">
         <v>10</v>
       </c>
@@ -18060,7 +18069,7 @@
       </c>
       <c r="T224" s="56"/>
     </row>
-    <row r="225" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="225" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A225" s="56" t="s">
         <v>10</v>
       </c>
@@ -18118,7 +18127,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="226" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" s="58" t="str">
         <f>A$225</f>
         <v>Cross-Sector</v>
@@ -18183,7 +18192,7 @@
       <c r="S226" s="87"/>
       <c r="T226" s="58"/>
     </row>
-    <row r="227" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="227" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="58" t="str">
         <f t="shared" ref="A227:C231" si="46">A$225</f>
         <v>Cross-Sector</v>
@@ -18248,7 +18257,7 @@
       <c r="S227" s="87"/>
       <c r="T227" s="58"/>
     </row>
-    <row r="228" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="228" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A228" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18313,7 +18322,7 @@
       <c r="S228" s="87"/>
       <c r="T228" s="58"/>
     </row>
-    <row r="229" spans="1:20" s="5" customFormat="1" ht="57">
+    <row r="229" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A229" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18378,7 +18387,7 @@
       <c r="S229" s="87"/>
       <c r="T229" s="58"/>
     </row>
-    <row r="230" spans="1:20" s="5" customFormat="1">
+    <row r="230" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18421,7 +18430,7 @@
       <c r="S230" s="87"/>
       <c r="T230" s="58"/>
     </row>
-    <row r="231" spans="1:20" s="5" customFormat="1">
+    <row r="231" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18464,7 +18473,7 @@
       <c r="S231" s="87"/>
       <c r="T231" s="58"/>
     </row>
-    <row r="232" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="232" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="56" t="s">
         <v>10</v>
       </c>
@@ -18504,7 +18513,7 @@
       <c r="S232" s="86"/>
       <c r="T232" s="58"/>
     </row>
-    <row r="233" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="233" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="58" t="str">
         <f>A$232</f>
         <v>Cross-Sector</v>
@@ -18565,7 +18574,7 @@
       </c>
       <c r="T233" s="58"/>
     </row>
-    <row r="234" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="234" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="58" t="str">
         <f t="shared" ref="A234:A247" si="49">A$232</f>
         <v>Cross-Sector</v>
@@ -18630,7 +18639,7 @@
       </c>
       <c r="T234" s="58"/>
     </row>
-    <row r="235" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="235" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18695,7 +18704,7 @@
       </c>
       <c r="T235" s="58"/>
     </row>
-    <row r="236" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="236" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18740,7 +18749,7 @@
       <c r="S236" s="81"/>
       <c r="T236" s="58"/>
     </row>
-    <row r="237" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="237" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18785,7 +18794,7 @@
       <c r="S237" s="81"/>
       <c r="T237" s="58"/>
     </row>
-    <row r="238" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="238" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18850,7 +18859,7 @@
       </c>
       <c r="T238" s="58"/>
     </row>
-    <row r="239" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="239" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18895,7 +18904,7 @@
       <c r="S239" s="86"/>
       <c r="T239" s="58"/>
     </row>
-    <row r="240" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="240" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18960,7 +18969,7 @@
       </c>
       <c r="T240" s="58"/>
     </row>
-    <row r="241" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="241" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19025,7 +19034,7 @@
       </c>
       <c r="T241" s="58"/>
     </row>
-    <row r="242" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="242" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19070,7 +19079,7 @@
       <c r="S242" s="86"/>
       <c r="T242" s="58"/>
     </row>
-    <row r="243" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="243" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19115,7 +19124,7 @@
       <c r="S243" s="86"/>
       <c r="T243" s="58"/>
     </row>
-    <row r="244" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="244" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19178,7 +19187,7 @@
       <c r="S244" s="81"/>
       <c r="T244" s="58"/>
     </row>
-    <row r="245" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="245" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19223,7 +19232,7 @@
       <c r="S245" s="86"/>
       <c r="T245" s="58"/>
     </row>
-    <row r="246" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="246" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19266,7 +19275,7 @@
       <c r="S246" s="86"/>
       <c r="T246" s="58"/>
     </row>
-    <row r="247" spans="1:20" s="5" customFormat="1" ht="28.5">
+    <row r="247" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19309,7 +19318,7 @@
       <c r="S247" s="86"/>
       <c r="T247" s="58"/>
     </row>
-    <row r="248" spans="1:20" s="3" customFormat="1" ht="57">
+    <row r="248" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
         <v>10</v>
       </c>
@@ -19343,7 +19352,7 @@
       <c r="S248" s="81"/>
       <c r="T248" s="11"/>
     </row>
-    <row r="249" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="249" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A249" s="56" t="s">
         <v>10</v>
       </c>
@@ -19399,7 +19408,7 @@
       </c>
       <c r="T249" s="58"/>
     </row>
-    <row r="250" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="250" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A250" s="61" t="str">
         <f t="shared" ref="A250:C263" si="53">A$249</f>
         <v>Cross-Sector</v>
@@ -19465,7 +19474,7 @@
       </c>
       <c r="T250" s="58"/>
     </row>
-    <row r="251" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="251" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A251" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19531,7 +19540,7 @@
       </c>
       <c r="T251" s="58"/>
     </row>
-    <row r="252" spans="1:20" s="5" customFormat="1">
+    <row r="252" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19576,7 +19585,7 @@
       <c r="S252" s="86"/>
       <c r="T252" s="58"/>
     </row>
-    <row r="253" spans="1:20" s="5" customFormat="1">
+    <row r="253" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19621,7 +19630,7 @@
       <c r="S253" s="86"/>
       <c r="T253" s="58"/>
     </row>
-    <row r="254" spans="1:20" s="5" customFormat="1">
+    <row r="254" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19666,7 +19675,7 @@
       <c r="S254" s="86"/>
       <c r="T254" s="58"/>
     </row>
-    <row r="255" spans="1:20" s="5" customFormat="1">
+    <row r="255" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19711,7 +19720,7 @@
       <c r="S255" s="86"/>
       <c r="T255" s="58"/>
     </row>
-    <row r="256" spans="1:20" s="5" customFormat="1">
+    <row r="256" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19756,7 +19765,7 @@
       <c r="S256" s="86"/>
       <c r="T256" s="58"/>
     </row>
-    <row r="257" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="257" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A257" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19822,7 +19831,7 @@
       </c>
       <c r="T257" s="58"/>
     </row>
-    <row r="258" spans="1:20" s="5" customFormat="1" ht="99.75">
+    <row r="258" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A258" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19888,7 +19897,7 @@
       </c>
       <c r="T258" s="58"/>
     </row>
-    <row r="259" spans="1:20" s="5" customFormat="1">
+    <row r="259" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19933,7 +19942,7 @@
       <c r="S259" s="86"/>
       <c r="T259" s="58"/>
     </row>
-    <row r="260" spans="1:20" s="5" customFormat="1">
+    <row r="260" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19978,7 +19987,7 @@
       <c r="S260" s="86"/>
       <c r="T260" s="58"/>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20021,7 +20030,7 @@
       <c r="S261" s="86"/>
       <c r="T261" s="56"/>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20066,7 +20075,7 @@
       <c r="S262" s="81"/>
       <c r="T262" s="56"/>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20109,7 +20118,7 @@
       <c r="S263" s="81"/>
       <c r="T263" s="56"/>
     </row>
-    <row r="264" spans="1:20" ht="85.5">
+    <row r="264" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A264" s="56" t="s">
         <v>31</v>
       </c>
@@ -20165,7 +20174,7 @@
       </c>
       <c r="T264" s="56"/>
     </row>
-    <row r="265" spans="1:20" ht="85.5">
+    <row r="265" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A265" s="58" t="str">
         <f t="shared" ref="A265:C271" si="55">A$264</f>
         <v>R&amp;D</v>
@@ -20230,7 +20239,7 @@
       </c>
       <c r="T265" s="56"/>
     </row>
-    <row r="266" spans="1:20" ht="85.5">
+    <row r="266" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A266" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20295,7 +20304,7 @@
       </c>
       <c r="T266" s="56"/>
     </row>
-    <row r="267" spans="1:20" ht="85.5">
+    <row r="267" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A267" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20360,7 +20369,7 @@
       </c>
       <c r="T267" s="56"/>
     </row>
-    <row r="268" spans="1:20" ht="85.5">
+    <row r="268" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A268" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20425,7 +20434,7 @@
       </c>
       <c r="T268" s="56"/>
     </row>
-    <row r="269" spans="1:20" ht="99.75">
+    <row r="269" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A269" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20490,7 +20499,7 @@
       </c>
       <c r="T269" s="56"/>
     </row>
-    <row r="270" spans="1:20" ht="99.75">
+    <row r="270" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A270" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20547,7 +20556,7 @@
       </c>
       <c r="T270" s="56"/>
     </row>
-    <row r="271" spans="1:20" ht="85.5">
+    <row r="271" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A271" s="56" t="s">
         <v>31</v>
       </c>
@@ -20605,7 +20614,7 @@
       </c>
       <c r="T271" s="56"/>
     </row>
-    <row r="272" spans="1:20" ht="85.5">
+    <row r="272" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A272" s="58" t="str">
         <f>A$271</f>
         <v>R&amp;D</v>
@@ -20670,7 +20679,7 @@
       </c>
       <c r="T272" s="56"/>
     </row>
-    <row r="273" spans="1:20" ht="85.5">
+    <row r="273" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A273" s="58" t="str">
         <f t="shared" ref="A273:C281" si="59">A$271</f>
         <v>R&amp;D</v>
@@ -20735,7 +20744,7 @@
       </c>
       <c r="T273" s="56"/>
     </row>
-    <row r="274" spans="1:20" ht="85.5">
+    <row r="274" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A274" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20800,7 +20809,7 @@
       </c>
       <c r="T274" s="56"/>
     </row>
-    <row r="275" spans="1:20" ht="85.5">
+    <row r="275" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A275" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20865,7 +20874,7 @@
       </c>
       <c r="T275" s="56"/>
     </row>
-    <row r="276" spans="1:20" ht="85.5">
+    <row r="276" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A276" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20930,7 +20939,7 @@
       </c>
       <c r="T276" s="56"/>
     </row>
-    <row r="277" spans="1:20" ht="85.5">
+    <row r="277" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A277" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20995,7 +21004,7 @@
       </c>
       <c r="T277" s="56"/>
     </row>
-    <row r="278" spans="1:20" ht="85.5">
+    <row r="278" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A278" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21060,7 +21069,7 @@
       </c>
       <c r="T278" s="56"/>
     </row>
-    <row r="279" spans="1:20" ht="85.5">
+    <row r="279" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A279" s="58" t="str">
         <f>A$271</f>
         <v>R&amp;D</v>
@@ -21125,7 +21134,7 @@
       </c>
       <c r="T279" s="56"/>
     </row>
-    <row r="280" spans="1:20" ht="85.5">
+    <row r="280" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A280" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21190,7 +21199,7 @@
       </c>
       <c r="T280" s="56"/>
     </row>
-    <row r="281" spans="1:20" ht="85.5">
+    <row r="281" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A281" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21255,7 +21264,7 @@
       </c>
       <c r="T281" s="56"/>
     </row>
-    <row r="282" spans="1:20" ht="85.5">
+    <row r="282" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A282" s="56" t="s">
         <v>31</v>
       </c>
@@ -21313,7 +21322,7 @@
       </c>
       <c r="T282" s="56"/>
     </row>
-    <row r="283" spans="1:20" ht="99.75">
+    <row r="283" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A283" s="58" t="str">
         <f>A$282</f>
         <v>R&amp;D</v>
@@ -21378,7 +21387,7 @@
       </c>
       <c r="T283" s="56"/>
     </row>
-    <row r="284" spans="1:20" ht="99.75">
+    <row r="284" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A284" s="58" t="str">
         <f t="shared" ref="A284:A289" si="62">A$282</f>
         <v>R&amp;D</v>
@@ -21443,7 +21452,7 @@
       </c>
       <c r="T284" s="56"/>
     </row>
-    <row r="285" spans="1:20" ht="99.75">
+    <row r="285" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A285" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21508,7 +21517,7 @@
       </c>
       <c r="T285" s="56"/>
     </row>
-    <row r="286" spans="1:20" ht="85.5">
+    <row r="286" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A286" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21573,7 +21582,7 @@
       </c>
       <c r="T286" s="56"/>
     </row>
-    <row r="287" spans="1:20" ht="99.75">
+    <row r="287" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A287" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21638,7 +21647,7 @@
       </c>
       <c r="T287" s="56"/>
     </row>
-    <row r="288" spans="1:20" ht="99.75">
+    <row r="288" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A288" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21703,7 +21712,7 @@
       </c>
       <c r="T288" s="56"/>
     </row>
-    <row r="289" spans="1:20" ht="85.5">
+    <row r="289" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A289" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21768,7 +21777,7 @@
       </c>
       <c r="T289" s="56"/>
     </row>
-    <row r="290" spans="1:20" ht="85.5">
+    <row r="290" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A290" s="11" t="s">
         <v>31</v>
       </c>
@@ -21826,7 +21835,7 @@
       </c>
       <c r="T290" s="56"/>
     </row>
-    <row r="291" spans="1:20" ht="85.5">
+    <row r="291" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A291" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -21891,7 +21900,7 @@
       </c>
       <c r="T291" s="56"/>
     </row>
-    <row r="292" spans="1:20" ht="99.75">
+    <row r="292" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A292" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -21956,7 +21965,7 @@
       </c>
       <c r="T292" s="56"/>
     </row>
-    <row r="293" spans="1:20" ht="99.75">
+    <row r="293" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A293" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22021,7 +22030,7 @@
       </c>
       <c r="T293" s="56"/>
     </row>
-    <row r="294" spans="1:20" ht="85.5">
+    <row r="294" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A294" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22086,7 +22095,7 @@
       </c>
       <c r="T294" s="56"/>
     </row>
-    <row r="295" spans="1:20" ht="85.5">
+    <row r="295" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A295" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22151,7 +22160,7 @@
       </c>
       <c r="T295" s="56"/>
     </row>
-    <row r="296" spans="1:20" ht="85.5">
+    <row r="296" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A296" s="56" t="s">
         <v>31</v>
       </c>
@@ -22207,7 +22216,7 @@
       </c>
       <c r="T296" s="56"/>
     </row>
-    <row r="297" spans="1:20" ht="85.5">
+    <row r="297" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A297" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22272,7 +22281,7 @@
       </c>
       <c r="T297" s="56"/>
     </row>
-    <row r="298" spans="1:20" ht="28.5">
+    <row r="298" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22315,7 +22324,7 @@
       <c r="S298" s="81"/>
       <c r="T298" s="56"/>
     </row>
-    <row r="299" spans="1:20" ht="85.5">
+    <row r="299" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A299" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22380,7 +22389,7 @@
       </c>
       <c r="T299" s="56"/>
     </row>
-    <row r="300" spans="1:20" ht="85.5">
+    <row r="300" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A300" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22445,7 +22454,7 @@
       </c>
       <c r="T300" s="56"/>
     </row>
-    <row r="301" spans="1:20" ht="85.5">
+    <row r="301" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A301" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22510,7 +22519,7 @@
       </c>
       <c r="T301" s="56"/>
     </row>
-    <row r="302" spans="1:20" ht="99.75">
+    <row r="302" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A302" s="56" t="s">
         <v>31</v>
       </c>
@@ -22566,7 +22575,7 @@
       </c>
       <c r="T302" s="56"/>
     </row>
-    <row r="303" spans="1:20" ht="85.5">
+    <row r="303" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A303" s="56" t="s">
         <v>31</v>
       </c>
@@ -22624,7 +22633,7 @@
       </c>
       <c r="T303" s="56"/>
     </row>
-    <row r="304" spans="1:20" ht="85.5">
+    <row r="304" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A304" s="58" t="str">
         <f>A$303</f>
         <v>R&amp;D</v>
@@ -22689,7 +22698,7 @@
       </c>
       <c r="T304" s="56"/>
     </row>
-    <row r="305" spans="1:20" ht="85.5">
+    <row r="305" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A305" s="58" t="str">
         <f t="shared" ref="A305:C313" si="69">A$303</f>
         <v>R&amp;D</v>
@@ -22754,7 +22763,7 @@
       </c>
       <c r="T305" s="56"/>
     </row>
-    <row r="306" spans="1:20" ht="28.5">
+    <row r="306" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22799,7 +22808,7 @@
       <c r="S306" s="81"/>
       <c r="T306" s="56"/>
     </row>
-    <row r="307" spans="1:20" ht="28.5">
+    <row r="307" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A307" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22844,7 +22853,7 @@
       <c r="S307" s="81"/>
       <c r="T307" s="56"/>
     </row>
-    <row r="308" spans="1:20" ht="28.5">
+    <row r="308" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22889,7 +22898,7 @@
       <c r="S308" s="81"/>
       <c r="T308" s="56"/>
     </row>
-    <row r="309" spans="1:20" ht="28.5">
+    <row r="309" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22934,7 +22943,7 @@
       <c r="S309" s="81"/>
       <c r="T309" s="56"/>
     </row>
-    <row r="310" spans="1:20" ht="85.5">
+    <row r="310" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A310" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22999,7 +23008,7 @@
       </c>
       <c r="T310" s="56"/>
     </row>
-    <row r="311" spans="1:20" ht="85.5">
+    <row r="311" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A311" s="58" t="str">
         <f>A$303</f>
         <v>R&amp;D</v>
@@ -23064,7 +23073,7 @@
       </c>
       <c r="T311" s="56"/>
     </row>
-    <row r="312" spans="1:20" ht="85.5">
+    <row r="312" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A312" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -23129,7 +23138,7 @@
       </c>
       <c r="T312" s="56"/>
     </row>
-    <row r="313" spans="1:20" ht="28.5">
+    <row r="313" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -23172,7 +23181,7 @@
       <c r="S313" s="81"/>
       <c r="T313" s="56"/>
     </row>
-    <row r="314" spans="1:20" ht="99.75">
+    <row r="314" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A314" s="56" t="s">
         <v>31</v>
       </c>
@@ -23230,7 +23239,7 @@
       </c>
       <c r="T314" s="56"/>
     </row>
-    <row r="315" spans="1:20" ht="99.75">
+    <row r="315" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A315" s="58" t="str">
         <f>A$314</f>
         <v>R&amp;D</v>
@@ -23295,7 +23304,7 @@
       </c>
       <c r="T315" s="56"/>
     </row>
-    <row r="316" spans="1:20" ht="99.75">
+    <row r="316" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A316" s="58" t="str">
         <f t="shared" ref="A316:A321" si="72">A$314</f>
         <v>R&amp;D</v>
@@ -23360,7 +23369,7 @@
       </c>
       <c r="T316" s="56"/>
     </row>
-    <row r="317" spans="1:20" ht="99.75">
+    <row r="317" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A317" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23425,7 +23434,7 @@
       </c>
       <c r="T317" s="56"/>
     </row>
-    <row r="318" spans="1:20" ht="99.75">
+    <row r="318" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A318" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23490,7 +23499,7 @@
       </c>
       <c r="T318" s="56"/>
     </row>
-    <row r="319" spans="1:20" ht="99.75">
+    <row r="319" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A319" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23555,7 +23564,7 @@
       </c>
       <c r="T319" s="56"/>
     </row>
-    <row r="320" spans="1:20" ht="99.75">
+    <row r="320" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A320" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23620,7 +23629,7 @@
       </c>
       <c r="T320" s="56"/>
     </row>
-    <row r="321" spans="1:20" ht="99.75">
+    <row r="321" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A321" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23685,7 +23694,7 @@
       </c>
       <c r="T321" s="56"/>
     </row>
-    <row r="322" spans="1:20" ht="85.5">
+    <row r="322" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A322" s="56" t="s">
         <v>31</v>
       </c>
@@ -23743,7 +23752,7 @@
       </c>
       <c r="T322" s="56"/>
     </row>
-    <row r="323" spans="1:20" ht="85.5">
+    <row r="323" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A323" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23808,7 +23817,7 @@
       </c>
       <c r="T323" s="56"/>
     </row>
-    <row r="324" spans="1:20" ht="99.75">
+    <row r="324" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A324" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23873,7 +23882,7 @@
       </c>
       <c r="T324" s="56"/>
     </row>
-    <row r="325" spans="1:20" ht="99.75">
+    <row r="325" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A325" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23938,7 +23947,7 @@
       </c>
       <c r="T325" s="56"/>
     </row>
-    <row r="326" spans="1:20" ht="85.5">
+    <row r="326" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A326" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -24003,7 +24012,7 @@
       </c>
       <c r="T326" s="56"/>
     </row>
-    <row r="327" spans="1:20" ht="85.5">
+    <row r="327" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A327" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -24069,7 +24078,7 @@
       <c r="T327" s="56"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I35:I39 I43 I51 I57 I63 I280:I310 I312 I21:I33 I66:I178 I314:I1048576 I1 I182:I205 I8:I9 I207:I278">
@@ -24163,7 +24172,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T213" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1"/>
+    <hyperlink ref="T213" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -24177,24 +24186,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView topLeftCell="B35" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1328125" customWidth="1"/>
-    <col min="2" max="2" width="71.265625" customWidth="1"/>
-    <col min="5" max="5" width="24.1328125" customWidth="1"/>
-    <col min="6" max="6" width="57.1328125" customWidth="1"/>
-    <col min="7" max="7" width="39.3984375" customWidth="1"/>
-    <col min="8" max="8" width="24.1328125" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75">
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
         <v>789</v>
       </c>
@@ -24220,7 +24229,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>820</v>
       </c>
@@ -24242,7 +24251,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>820</v>
       </c>
@@ -24264,7 +24273,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="85.5">
+    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>820</v>
       </c>
@@ -24290,7 +24299,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>820</v>
       </c>
@@ -24316,7 +24325,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75">
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>820</v>
       </c>
@@ -24342,7 +24351,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>826</v>
       </c>
@@ -24364,7 +24373,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>826</v>
       </c>
@@ -24386,7 +24395,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>826</v>
       </c>
@@ -24408,7 +24417,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>826</v>
       </c>
@@ -24430,7 +24439,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>826</v>
       </c>
@@ -24452,7 +24461,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>826</v>
       </c>
@@ -24474,7 +24483,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>826</v>
       </c>
@@ -24496,7 +24505,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>826</v>
       </c>
@@ -24518,7 +24527,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>826</v>
       </c>
@@ -24540,7 +24549,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>826</v>
       </c>
@@ -24562,7 +24571,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>826</v>
       </c>
@@ -24584,7 +24593,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>826</v>
       </c>
@@ -24606,7 +24615,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="85.5">
+    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>827</v>
       </c>
@@ -24632,7 +24641,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="114">
+    <row r="20" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>827</v>
       </c>
@@ -24658,7 +24667,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.75">
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="159" t="s">
         <v>827</v>
       </c>
@@ -24684,7 +24693,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>451</v>
       </c>
@@ -24704,7 +24713,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="57">
+    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>452</v>
       </c>
@@ -24726,7 +24735,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="57">
+    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>452</v>
       </c>
@@ -24748,7 +24757,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="57">
+    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>452</v>
       </c>
@@ -24770,7 +24779,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="57">
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>452</v>
       </c>
@@ -24792,7 +24801,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="57">
+    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>832</v>
       </c>
@@ -24818,7 +24827,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="57">
+    <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>832</v>
       </c>
@@ -24844,7 +24853,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42.75">
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>832</v>
       </c>
@@ -24870,7 +24879,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42.75">
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>832</v>
       </c>
@@ -24896,7 +24905,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="114">
+    <row r="31" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>832</v>
       </c>
@@ -24922,7 +24931,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>836</v>
       </c>
@@ -24944,7 +24953,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>836</v>
       </c>
@@ -24966,7 +24975,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="185.25">
+    <row r="34" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
         <v>839</v>
       </c>
@@ -24983,16 +24992,16 @@
         <v>449</v>
       </c>
       <c r="F34" s="108" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G34" s="113" t="s">
         <v>1185</v>
       </c>
-      <c r="G34" s="113" t="s">
+      <c r="H34" s="108" t="s">
         <v>1186</v>
       </c>
-      <c r="H34" s="108" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="213.75">
+    </row>
+    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>839</v>
       </c>
@@ -25009,16 +25018,16 @@
         <v>449</v>
       </c>
       <c r="F35" s="108" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G35" s="113" t="s">
         <v>1188</v>
       </c>
-      <c r="G35" s="113" t="s">
+      <c r="H35" s="108" t="s">
         <v>1189</v>
       </c>
-      <c r="H35" s="108" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="171">
+    </row>
+    <row r="36" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>839</v>
       </c>
@@ -25035,16 +25044,16 @@
         <v>450</v>
       </c>
       <c r="F36" s="108" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G36" s="113" t="s">
         <v>1191</v>
       </c>
-      <c r="G36" s="113" t="s">
+      <c r="H36" s="108" t="s">
         <v>1192</v>
       </c>
-      <c r="H36" s="108" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="199.5">
+    </row>
+    <row r="37" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>839</v>
       </c>
@@ -25061,16 +25070,16 @@
         <v>450</v>
       </c>
       <c r="F37" s="108" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G37" s="113" t="s">
         <v>1194</v>
       </c>
-      <c r="G37" s="113" t="s">
+      <c r="H37" s="108" t="s">
         <v>1195</v>
       </c>
-      <c r="H37" s="108" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="156.75">
+    </row>
+    <row r="38" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>844</v>
       </c>
@@ -25096,7 +25105,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42.75">
+    <row r="39" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>844</v>
       </c>
@@ -25122,7 +25131,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="71.25">
+    <row r="40" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>847</v>
       </c>
@@ -25148,7 +25157,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="71.25">
+    <row r="41" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>847</v>
       </c>
@@ -25174,7 +25183,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="85.5">
+    <row r="42" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>850</v>
       </c>
@@ -25200,7 +25209,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="85.5">
+    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>850</v>
       </c>
@@ -25226,7 +25235,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="71.25">
+    <row r="44" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>850</v>
       </c>
@@ -25252,7 +25261,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="85.5">
+    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>850</v>
       </c>
@@ -25278,7 +25287,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42.75">
+    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>850</v>
       </c>
@@ -25304,7 +25313,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="71.25">
+    <row r="47" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>855</v>
       </c>
@@ -25330,7 +25339,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="57">
+    <row r="48" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="101" t="s">
         <v>855</v>
       </c>
@@ -25356,7 +25365,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="71.25">
+    <row r="49" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="101" t="s">
         <v>855</v>
       </c>
@@ -25382,7 +25391,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="71.25">
+    <row r="50" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="101" t="s">
         <v>855</v>
       </c>
@@ -25408,7 +25417,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="42.75">
+    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="101" t="s">
         <v>855</v>
       </c>
@@ -25434,7 +25443,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="199.5">
+    <row r="52" spans="1:8" ht="224" x14ac:dyDescent="0.2">
       <c r="A52" s="100" t="s">
         <v>875</v>
       </c>
@@ -25460,7 +25469,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="99.75">
+    <row r="53" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A53" s="100" t="s">
         <v>875</v>
       </c>
@@ -25486,7 +25495,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="185.25">
+    <row r="54" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A54" s="100" t="s">
         <v>875</v>
       </c>
@@ -25512,7 +25521,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="99.75">
+    <row r="55" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25538,7 +25547,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="57">
+    <row r="56" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25564,7 +25573,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="85.5">
+    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25590,7 +25599,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="57">
+    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25616,7 +25625,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="99.75">
+    <row r="59" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A59" s="101" t="s">
         <v>858</v>
       </c>
@@ -25642,7 +25651,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="71.25">
+    <row r="60" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="101" t="s">
         <v>858</v>
       </c>
@@ -25668,7 +25677,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="71.25">
+    <row r="61" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="101" t="s">
         <v>861</v>
       </c>
@@ -25694,7 +25703,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42.75">
+    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="101" t="s">
         <v>861</v>
       </c>
@@ -25720,7 +25729,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="85.5">
+    <row r="63" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A63" s="101" t="s">
         <v>861</v>
       </c>
@@ -25746,7 +25755,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="114">
+    <row r="64" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A64" s="100" t="s">
         <v>865</v>
       </c>
@@ -25772,7 +25781,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="57">
+    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="100" t="s">
         <v>865</v>
       </c>
@@ -25798,7 +25807,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="100" t="s">
         <v>545</v>
       </c>
@@ -25820,7 +25829,7 @@
       <c r="G66" s="79"/>
       <c r="H66" s="99"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="100" t="s">
         <v>545</v>
       </c>
@@ -25842,7 +25851,7 @@
       <c r="G67" s="79"/>
       <c r="H67" s="99"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="100" t="s">
         <v>545</v>
       </c>
@@ -25864,7 +25873,7 @@
       <c r="G68" s="79"/>
       <c r="H68" s="99"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="100" t="s">
         <v>545</v>
       </c>
@@ -25886,7 +25895,7 @@
       <c r="G69" s="79"/>
       <c r="H69" s="99"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="100" t="s">
         <v>545</v>
       </c>
@@ -25908,7 +25917,7 @@
       <c r="G70" s="79"/>
       <c r="H70" s="99"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="100" t="s">
         <v>545</v>
       </c>
@@ -25930,7 +25939,7 @@
       <c r="G71" s="79"/>
       <c r="H71" s="99"/>
     </row>
-    <row r="72" spans="1:8" ht="71.25">
+    <row r="72" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="101" t="s">
         <v>868</v>
       </c>
@@ -25956,7 +25965,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="57">
+    <row r="73" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="101" t="s">
         <v>868</v>
       </c>
@@ -25982,7 +25991,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="99.75">
+    <row r="74" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A74" s="101" t="s">
         <v>868</v>
       </c>
@@ -26008,7 +26017,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.5">
+    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="101" t="s">
         <v>868</v>
       </c>
@@ -26034,7 +26043,7 @@
         <v>969696</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="114">
+    <row r="76" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A76" s="101" t="s">
         <v>868</v>
       </c>
@@ -26060,7 +26069,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="85.5">
+    <row r="77" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="101" t="s">
         <v>868</v>
       </c>
@@ -26086,7 +26095,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.5">
+    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="101" t="s">
         <v>869</v>
       </c>
@@ -26108,7 +26117,7 @@
       <c r="G78" s="79"/>
       <c r="H78" s="99"/>
     </row>
-    <row r="79" spans="1:8" ht="42.75">
+    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="101" t="s">
         <v>869</v>
       </c>
@@ -26134,7 +26143,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.5">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="101" t="s">
         <v>869</v>
       </c>
@@ -26156,7 +26165,7 @@
       <c r="G80" s="79"/>
       <c r="H80" s="99"/>
     </row>
-    <row r="81" spans="1:8" ht="28.5">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="101" t="s">
         <v>869</v>
       </c>
@@ -26178,7 +26187,7 @@
       <c r="G81" s="79"/>
       <c r="H81" s="99"/>
     </row>
-    <row r="82" spans="1:8" ht="28.5">
+    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="101" t="s">
         <v>869</v>
       </c>
@@ -26211,21 +26220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.1328125" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.86328125" style="10"/>
+    <col min="2" max="2" width="34.1640625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
@@ -26233,7 +26242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -26241,7 +26250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1029</v>
       </c>
@@ -26249,7 +26258,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>1031</v>
       </c>
@@ -26257,12 +26266,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>1183</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -26277,24 +26286,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.1328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="65.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
     <col min="4" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="73.3984375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.86328125" style="10"/>
+    <col min="5" max="5" width="73.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="28.5">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>416</v>
       </c>
@@ -26311,7 +26320,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="71.25">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1033</v>
       </c>
@@ -26327,10 +26336,10 @@
         <v>557.53187855361591</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="85.5">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1034</v>
       </c>
@@ -26346,44 +26355,44 @@
         <v>159.2948224438903</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>1039</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>1068</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="112" t="s">
         <v>1067</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="112"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="134" t="s">
         <v>1083</v>
       </c>
@@ -26392,7 +26401,7 @@
       <c r="D10" s="133"/>
       <c r="E10" s="131"/>
     </row>
-    <row r="11" spans="1:5" ht="28.5">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="112" t="s">
         <v>1071</v>
       </c>
@@ -26409,7 +26418,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>738.3</v>
       </c>
@@ -26429,7 +26438,7 @@
         <v>73.83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="121" t="s">
         <v>1035</v>
       </c>
@@ -26446,14 +26455,14 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="135" t="s">
         <v>1084</v>
       </c>
@@ -26462,7 +26471,7 @@
       <c r="D15" s="131"/>
       <c r="E15" s="132"/>
     </row>
-    <row r="16" spans="1:5" ht="28.5">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
         <v>1072</v>
       </c>
@@ -26479,7 +26488,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="128">
         <f>A12*(B17/B12)</f>
         <v>796.4741122194514</v>
@@ -26500,7 +26509,7 @@
         <v>79.647411221945148</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="42.75">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="127" t="s">
         <v>1082</v>
       </c>
@@ -26517,16 +26526,16 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1">
+    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E19" s="130"/>
     </row>
-    <row r="20" spans="1:5" s="149" customFormat="1">
+    <row r="20" spans="1:5" s="149" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="148" t="s">
         <v>1127</v>
       </c>
       <c r="E20" s="150"/>
     </row>
-    <row r="21" spans="1:5" customFormat="1" ht="57">
+    <row r="21" spans="1:5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="146" t="s">
         <v>1065</v>
       </c>
@@ -26543,7 +26552,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" customFormat="1" ht="71.25">
+    <row r="22" spans="1:5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="146" t="s">
         <v>1066</v>
       </c>
@@ -26560,1063 +26569,1063 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" customFormat="1"/>
-    <row r="24" spans="1:5" customFormat="1"/>
-    <row r="25" spans="1:5" customFormat="1"/>
-    <row r="26" spans="1:5" customFormat="1"/>
-    <row r="27" spans="1:5" customFormat="1"/>
-    <row r="28" spans="1:5" customFormat="1"/>
-    <row r="29" spans="1:5" customFormat="1"/>
-    <row r="30" spans="1:5" customFormat="1"/>
-    <row r="31" spans="1:5" customFormat="1"/>
-    <row r="32" spans="1:5" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1"/>
-    <row r="90" customFormat="1"/>
-    <row r="91" customFormat="1"/>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" customFormat="1"/>
-    <row r="95" customFormat="1"/>
-    <row r="96" customFormat="1"/>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
-    <row r="113" customFormat="1"/>
-    <row r="114" customFormat="1"/>
-    <row r="115" customFormat="1"/>
-    <row r="116" customFormat="1"/>
-    <row r="117" customFormat="1"/>
-    <row r="118" customFormat="1"/>
-    <row r="119" customFormat="1"/>
-    <row r="120" customFormat="1"/>
-    <row r="121" customFormat="1"/>
-    <row r="122" customFormat="1"/>
-    <row r="123" customFormat="1"/>
-    <row r="124" customFormat="1"/>
-    <row r="125" customFormat="1"/>
-    <row r="126" customFormat="1"/>
-    <row r="127" customFormat="1"/>
-    <row r="128" customFormat="1"/>
-    <row r="129" customFormat="1"/>
-    <row r="130" customFormat="1"/>
-    <row r="131" customFormat="1"/>
-    <row r="132" customFormat="1"/>
-    <row r="133" customFormat="1"/>
-    <row r="134" customFormat="1"/>
-    <row r="135" customFormat="1"/>
-    <row r="136" customFormat="1"/>
-    <row r="137" customFormat="1"/>
-    <row r="138" customFormat="1"/>
-    <row r="139" customFormat="1"/>
-    <row r="140" customFormat="1"/>
-    <row r="141" customFormat="1"/>
-    <row r="142" customFormat="1"/>
-    <row r="143" customFormat="1"/>
-    <row r="144" customFormat="1"/>
-    <row r="145" customFormat="1"/>
-    <row r="146" customFormat="1"/>
-    <row r="147" customFormat="1"/>
-    <row r="148" customFormat="1"/>
-    <row r="149" customFormat="1"/>
-    <row r="150" customFormat="1"/>
-    <row r="151" customFormat="1"/>
-    <row r="152" customFormat="1"/>
-    <row r="153" customFormat="1"/>
-    <row r="154" customFormat="1"/>
-    <row r="155" customFormat="1"/>
-    <row r="156" customFormat="1"/>
-    <row r="157" customFormat="1"/>
-    <row r="158" customFormat="1"/>
-    <row r="159" customFormat="1"/>
-    <row r="160" customFormat="1"/>
-    <row r="161" customFormat="1"/>
-    <row r="162" customFormat="1"/>
-    <row r="163" customFormat="1"/>
-    <row r="164" customFormat="1"/>
-    <row r="165" customFormat="1"/>
-    <row r="166" customFormat="1"/>
-    <row r="167" customFormat="1"/>
-    <row r="168" customFormat="1"/>
-    <row r="169" customFormat="1"/>
-    <row r="170" customFormat="1"/>
-    <row r="171" customFormat="1"/>
-    <row r="172" customFormat="1"/>
-    <row r="173" customFormat="1"/>
-    <row r="174" customFormat="1"/>
-    <row r="175" customFormat="1"/>
-    <row r="176" customFormat="1"/>
-    <row r="177" customFormat="1"/>
-    <row r="178" customFormat="1"/>
-    <row r="179" customFormat="1"/>
-    <row r="180" customFormat="1"/>
-    <row r="181" customFormat="1"/>
-    <row r="182" customFormat="1"/>
-    <row r="183" customFormat="1"/>
-    <row r="184" customFormat="1"/>
-    <row r="185" customFormat="1"/>
-    <row r="186" customFormat="1"/>
-    <row r="187" customFormat="1"/>
-    <row r="188" customFormat="1"/>
-    <row r="189" customFormat="1"/>
-    <row r="190" customFormat="1"/>
-    <row r="191" customFormat="1"/>
-    <row r="192" customFormat="1"/>
-    <row r="193" customFormat="1"/>
-    <row r="194" customFormat="1"/>
-    <row r="195" customFormat="1"/>
-    <row r="196" customFormat="1"/>
-    <row r="197" customFormat="1"/>
-    <row r="198" customFormat="1"/>
-    <row r="199" customFormat="1"/>
-    <row r="200" customFormat="1"/>
-    <row r="201" customFormat="1"/>
-    <row r="202" customFormat="1"/>
-    <row r="203" customFormat="1"/>
-    <row r="204" customFormat="1"/>
-    <row r="205" customFormat="1"/>
-    <row r="206" customFormat="1"/>
-    <row r="207" customFormat="1"/>
-    <row r="208" customFormat="1"/>
-    <row r="209" customFormat="1"/>
-    <row r="210" customFormat="1"/>
-    <row r="211" customFormat="1"/>
-    <row r="212" customFormat="1"/>
-    <row r="213" customFormat="1"/>
-    <row r="214" customFormat="1"/>
-    <row r="215" customFormat="1"/>
-    <row r="216" customFormat="1"/>
-    <row r="217" customFormat="1"/>
-    <row r="218" customFormat="1"/>
-    <row r="219" customFormat="1"/>
-    <row r="220" customFormat="1"/>
-    <row r="221" customFormat="1"/>
-    <row r="222" customFormat="1"/>
-    <row r="223" customFormat="1"/>
-    <row r="224" customFormat="1"/>
-    <row r="225" customFormat="1"/>
-    <row r="226" customFormat="1"/>
-    <row r="227" customFormat="1"/>
-    <row r="228" customFormat="1"/>
-    <row r="229" customFormat="1"/>
-    <row r="230" customFormat="1"/>
-    <row r="231" customFormat="1"/>
-    <row r="232" customFormat="1"/>
-    <row r="233" customFormat="1"/>
-    <row r="234" customFormat="1"/>
-    <row r="235" customFormat="1"/>
-    <row r="236" customFormat="1"/>
-    <row r="237" customFormat="1"/>
-    <row r="238" customFormat="1"/>
-    <row r="239" customFormat="1"/>
-    <row r="240" customFormat="1"/>
-    <row r="241" customFormat="1"/>
-    <row r="242" customFormat="1"/>
-    <row r="243" customFormat="1"/>
-    <row r="244" customFormat="1"/>
-    <row r="245" customFormat="1"/>
-    <row r="246" customFormat="1"/>
-    <row r="247" customFormat="1"/>
-    <row r="248" customFormat="1"/>
-    <row r="249" customFormat="1"/>
-    <row r="250" customFormat="1"/>
-    <row r="251" customFormat="1"/>
-    <row r="252" customFormat="1"/>
-    <row r="253" customFormat="1"/>
-    <row r="254" customFormat="1"/>
-    <row r="255" customFormat="1"/>
-    <row r="256" customFormat="1"/>
-    <row r="257" customFormat="1"/>
-    <row r="258" customFormat="1"/>
-    <row r="259" customFormat="1"/>
-    <row r="260" customFormat="1"/>
-    <row r="261" customFormat="1"/>
-    <row r="262" customFormat="1"/>
-    <row r="263" customFormat="1"/>
-    <row r="264" customFormat="1"/>
-    <row r="265" customFormat="1"/>
-    <row r="266" customFormat="1"/>
-    <row r="267" customFormat="1"/>
-    <row r="268" customFormat="1"/>
-    <row r="269" customFormat="1"/>
-    <row r="270" customFormat="1"/>
-    <row r="271" customFormat="1"/>
-    <row r="272" customFormat="1"/>
-    <row r="273" customFormat="1"/>
-    <row r="274" customFormat="1"/>
-    <row r="275" customFormat="1"/>
-    <row r="276" customFormat="1"/>
-    <row r="277" customFormat="1"/>
-    <row r="278" customFormat="1"/>
-    <row r="279" customFormat="1"/>
-    <row r="280" customFormat="1"/>
-    <row r="281" customFormat="1"/>
-    <row r="282" customFormat="1"/>
-    <row r="283" customFormat="1"/>
-    <row r="284" customFormat="1"/>
-    <row r="285" customFormat="1"/>
-    <row r="286" customFormat="1"/>
-    <row r="287" customFormat="1"/>
-    <row r="288" customFormat="1"/>
-    <row r="289" customFormat="1"/>
-    <row r="290" customFormat="1"/>
-    <row r="291" customFormat="1"/>
-    <row r="292" customFormat="1"/>
-    <row r="293" customFormat="1"/>
-    <row r="294" customFormat="1"/>
-    <row r="295" customFormat="1"/>
-    <row r="296" customFormat="1"/>
-    <row r="297" customFormat="1"/>
-    <row r="298" customFormat="1"/>
-    <row r="299" customFormat="1"/>
-    <row r="300" customFormat="1"/>
-    <row r="301" customFormat="1"/>
-    <row r="302" customFormat="1"/>
-    <row r="303" customFormat="1"/>
-    <row r="304" customFormat="1"/>
-    <row r="305" customFormat="1"/>
-    <row r="306" customFormat="1"/>
-    <row r="307" customFormat="1"/>
-    <row r="308" customFormat="1"/>
-    <row r="309" customFormat="1"/>
-    <row r="310" customFormat="1"/>
-    <row r="311" customFormat="1"/>
-    <row r="312" customFormat="1"/>
-    <row r="313" customFormat="1"/>
-    <row r="314" customFormat="1"/>
-    <row r="315" customFormat="1"/>
-    <row r="316" customFormat="1"/>
-    <row r="317" customFormat="1"/>
-    <row r="318" customFormat="1"/>
-    <row r="319" customFormat="1"/>
-    <row r="320" customFormat="1"/>
-    <row r="321" customFormat="1"/>
-    <row r="322" customFormat="1"/>
-    <row r="323" customFormat="1"/>
-    <row r="324" customFormat="1"/>
-    <row r="325" customFormat="1"/>
-    <row r="326" customFormat="1"/>
-    <row r="327" customFormat="1"/>
-    <row r="328" customFormat="1"/>
-    <row r="329" customFormat="1"/>
-    <row r="330" customFormat="1"/>
-    <row r="331" customFormat="1"/>
-    <row r="332" customFormat="1"/>
-    <row r="333" customFormat="1"/>
-    <row r="334" customFormat="1"/>
-    <row r="335" customFormat="1"/>
-    <row r="336" customFormat="1"/>
-    <row r="337" customFormat="1"/>
-    <row r="338" customFormat="1"/>
-    <row r="339" customFormat="1"/>
-    <row r="340" customFormat="1"/>
-    <row r="341" customFormat="1"/>
-    <row r="342" customFormat="1"/>
-    <row r="343" customFormat="1"/>
-    <row r="344" customFormat="1"/>
-    <row r="345" customFormat="1"/>
-    <row r="346" customFormat="1"/>
-    <row r="347" customFormat="1"/>
-    <row r="348" customFormat="1"/>
-    <row r="349" customFormat="1"/>
-    <row r="350" customFormat="1"/>
-    <row r="351" customFormat="1"/>
-    <row r="352" customFormat="1"/>
-    <row r="353" customFormat="1"/>
-    <row r="354" customFormat="1"/>
-    <row r="355" customFormat="1"/>
-    <row r="356" customFormat="1"/>
-    <row r="357" customFormat="1"/>
-    <row r="358" customFormat="1"/>
-    <row r="359" customFormat="1"/>
-    <row r="360" customFormat="1"/>
-    <row r="361" customFormat="1"/>
-    <row r="362" customFormat="1"/>
-    <row r="363" customFormat="1"/>
-    <row r="364" customFormat="1"/>
-    <row r="365" customFormat="1"/>
-    <row r="366" customFormat="1"/>
-    <row r="367" customFormat="1"/>
-    <row r="368" customFormat="1"/>
-    <row r="369" customFormat="1"/>
-    <row r="370" customFormat="1"/>
-    <row r="371" customFormat="1"/>
-    <row r="372" customFormat="1"/>
-    <row r="373" customFormat="1"/>
-    <row r="374" customFormat="1"/>
-    <row r="375" customFormat="1"/>
-    <row r="376" customFormat="1"/>
-    <row r="377" customFormat="1"/>
-    <row r="378" customFormat="1"/>
-    <row r="379" customFormat="1"/>
-    <row r="380" customFormat="1"/>
-    <row r="381" customFormat="1"/>
-    <row r="382" customFormat="1"/>
-    <row r="383" customFormat="1"/>
-    <row r="384" customFormat="1"/>
-    <row r="385" customFormat="1"/>
-    <row r="386" customFormat="1"/>
-    <row r="387" customFormat="1"/>
-    <row r="388" customFormat="1"/>
-    <row r="389" customFormat="1"/>
-    <row r="390" customFormat="1"/>
-    <row r="391" customFormat="1"/>
-    <row r="392" customFormat="1"/>
-    <row r="393" customFormat="1"/>
-    <row r="394" customFormat="1"/>
-    <row r="395" customFormat="1"/>
-    <row r="396" customFormat="1"/>
-    <row r="397" customFormat="1"/>
-    <row r="398" customFormat="1"/>
-    <row r="399" customFormat="1"/>
-    <row r="400" customFormat="1"/>
-    <row r="401" customFormat="1"/>
-    <row r="402" customFormat="1"/>
-    <row r="403" customFormat="1"/>
-    <row r="404" customFormat="1"/>
-    <row r="405" customFormat="1"/>
-    <row r="406" customFormat="1"/>
-    <row r="407" customFormat="1"/>
-    <row r="408" customFormat="1"/>
-    <row r="409" customFormat="1"/>
-    <row r="410" customFormat="1"/>
-    <row r="411" customFormat="1"/>
-    <row r="412" customFormat="1"/>
-    <row r="413" customFormat="1"/>
-    <row r="414" customFormat="1"/>
-    <row r="415" customFormat="1"/>
-    <row r="416" customFormat="1"/>
-    <row r="417" customFormat="1"/>
-    <row r="418" customFormat="1"/>
-    <row r="419" customFormat="1"/>
-    <row r="420" customFormat="1"/>
-    <row r="421" customFormat="1"/>
-    <row r="422" customFormat="1"/>
-    <row r="423" customFormat="1"/>
-    <row r="424" customFormat="1"/>
-    <row r="425" customFormat="1"/>
-    <row r="426" customFormat="1"/>
-    <row r="427" customFormat="1"/>
-    <row r="428" customFormat="1"/>
-    <row r="429" customFormat="1"/>
-    <row r="430" customFormat="1"/>
-    <row r="431" customFormat="1"/>
-    <row r="432" customFormat="1"/>
-    <row r="433" customFormat="1"/>
-    <row r="434" customFormat="1"/>
-    <row r="435" customFormat="1"/>
-    <row r="436" customFormat="1"/>
-    <row r="437" customFormat="1"/>
-    <row r="438" customFormat="1"/>
-    <row r="439" customFormat="1"/>
-    <row r="440" customFormat="1"/>
-    <row r="441" customFormat="1"/>
-    <row r="442" customFormat="1"/>
-    <row r="443" customFormat="1"/>
-    <row r="444" customFormat="1"/>
-    <row r="445" customFormat="1"/>
-    <row r="446" customFormat="1"/>
-    <row r="447" customFormat="1"/>
-    <row r="448" customFormat="1"/>
-    <row r="449" customFormat="1"/>
-    <row r="450" customFormat="1"/>
-    <row r="451" customFormat="1"/>
-    <row r="452" customFormat="1"/>
-    <row r="453" customFormat="1"/>
-    <row r="454" customFormat="1"/>
-    <row r="455" customFormat="1"/>
-    <row r="456" customFormat="1"/>
-    <row r="457" customFormat="1"/>
-    <row r="458" customFormat="1"/>
-    <row r="459" customFormat="1"/>
-    <row r="460" customFormat="1"/>
-    <row r="461" customFormat="1"/>
-    <row r="462" customFormat="1"/>
-    <row r="463" customFormat="1"/>
-    <row r="464" customFormat="1"/>
-    <row r="465" customFormat="1"/>
-    <row r="466" customFormat="1"/>
-    <row r="467" customFormat="1"/>
-    <row r="468" customFormat="1"/>
-    <row r="469" customFormat="1"/>
-    <row r="470" customFormat="1"/>
-    <row r="471" customFormat="1"/>
-    <row r="472" customFormat="1"/>
-    <row r="473" customFormat="1"/>
-    <row r="474" customFormat="1"/>
-    <row r="475" customFormat="1"/>
-    <row r="476" customFormat="1"/>
-    <row r="477" customFormat="1"/>
-    <row r="478" customFormat="1"/>
-    <row r="479" customFormat="1"/>
-    <row r="480" customFormat="1"/>
-    <row r="481" customFormat="1"/>
-    <row r="482" customFormat="1"/>
-    <row r="483" customFormat="1"/>
-    <row r="484" customFormat="1"/>
-    <row r="485" customFormat="1"/>
-    <row r="486" customFormat="1"/>
-    <row r="487" customFormat="1"/>
-    <row r="488" customFormat="1"/>
-    <row r="489" customFormat="1"/>
-    <row r="490" customFormat="1"/>
-    <row r="491" customFormat="1"/>
-    <row r="492" customFormat="1"/>
-    <row r="493" customFormat="1"/>
-    <row r="494" customFormat="1"/>
-    <row r="495" customFormat="1"/>
-    <row r="496" customFormat="1"/>
-    <row r="497" customFormat="1"/>
-    <row r="498" customFormat="1"/>
-    <row r="499" customFormat="1"/>
-    <row r="500" customFormat="1"/>
-    <row r="501" customFormat="1"/>
-    <row r="502" customFormat="1"/>
-    <row r="503" customFormat="1"/>
-    <row r="504" customFormat="1"/>
-    <row r="505" customFormat="1"/>
-    <row r="506" customFormat="1"/>
-    <row r="507" customFormat="1"/>
-    <row r="508" customFormat="1"/>
-    <row r="509" customFormat="1"/>
-    <row r="510" customFormat="1"/>
-    <row r="511" customFormat="1"/>
-    <row r="512" customFormat="1"/>
-    <row r="513" customFormat="1"/>
-    <row r="514" customFormat="1"/>
-    <row r="515" customFormat="1"/>
-    <row r="516" customFormat="1"/>
-    <row r="517" customFormat="1"/>
-    <row r="518" customFormat="1"/>
-    <row r="519" customFormat="1"/>
-    <row r="520" customFormat="1"/>
-    <row r="521" customFormat="1"/>
-    <row r="522" customFormat="1"/>
-    <row r="523" customFormat="1"/>
-    <row r="524" customFormat="1"/>
-    <row r="525" customFormat="1"/>
-    <row r="526" customFormat="1"/>
-    <row r="527" customFormat="1"/>
-    <row r="528" customFormat="1"/>
-    <row r="529" customFormat="1"/>
-    <row r="530" customFormat="1"/>
-    <row r="531" customFormat="1"/>
-    <row r="532" customFormat="1"/>
-    <row r="533" customFormat="1"/>
-    <row r="534" customFormat="1"/>
-    <row r="535" customFormat="1"/>
-    <row r="536" customFormat="1"/>
-    <row r="537" customFormat="1"/>
-    <row r="538" customFormat="1"/>
-    <row r="539" customFormat="1"/>
-    <row r="540" customFormat="1"/>
-    <row r="541" customFormat="1"/>
-    <row r="542" customFormat="1"/>
-    <row r="543" customFormat="1"/>
-    <row r="544" customFormat="1"/>
-    <row r="545" customFormat="1"/>
-    <row r="546" customFormat="1"/>
-    <row r="547" customFormat="1"/>
-    <row r="548" customFormat="1"/>
-    <row r="549" customFormat="1"/>
-    <row r="550" customFormat="1"/>
-    <row r="551" customFormat="1"/>
-    <row r="552" customFormat="1"/>
-    <row r="553" customFormat="1"/>
-    <row r="554" customFormat="1"/>
-    <row r="555" customFormat="1"/>
-    <row r="556" customFormat="1"/>
-    <row r="557" customFormat="1"/>
-    <row r="558" customFormat="1"/>
-    <row r="559" customFormat="1"/>
-    <row r="560" customFormat="1"/>
-    <row r="561" customFormat="1"/>
-    <row r="562" customFormat="1"/>
-    <row r="563" customFormat="1"/>
-    <row r="564" customFormat="1"/>
-    <row r="565" customFormat="1"/>
-    <row r="566" customFormat="1"/>
-    <row r="567" customFormat="1"/>
-    <row r="568" customFormat="1"/>
-    <row r="569" customFormat="1"/>
-    <row r="570" customFormat="1"/>
-    <row r="571" customFormat="1"/>
-    <row r="572" customFormat="1"/>
-    <row r="573" customFormat="1"/>
-    <row r="574" customFormat="1"/>
-    <row r="575" customFormat="1"/>
-    <row r="576" customFormat="1"/>
-    <row r="577" customFormat="1"/>
-    <row r="578" customFormat="1"/>
-    <row r="579" customFormat="1"/>
-    <row r="580" customFormat="1"/>
-    <row r="581" customFormat="1"/>
-    <row r="582" customFormat="1"/>
-    <row r="583" customFormat="1"/>
-    <row r="584" customFormat="1"/>
-    <row r="585" customFormat="1"/>
-    <row r="586" customFormat="1"/>
-    <row r="587" customFormat="1"/>
-    <row r="588" customFormat="1"/>
-    <row r="589" customFormat="1"/>
-    <row r="590" customFormat="1"/>
-    <row r="591" customFormat="1"/>
-    <row r="592" customFormat="1"/>
-    <row r="593" customFormat="1"/>
-    <row r="594" customFormat="1"/>
-    <row r="595" customFormat="1"/>
-    <row r="596" customFormat="1"/>
-    <row r="597" customFormat="1"/>
-    <row r="598" customFormat="1"/>
-    <row r="599" customFormat="1"/>
-    <row r="600" customFormat="1"/>
-    <row r="601" customFormat="1"/>
-    <row r="602" customFormat="1"/>
-    <row r="603" customFormat="1"/>
-    <row r="604" customFormat="1"/>
-    <row r="605" customFormat="1"/>
-    <row r="606" customFormat="1"/>
-    <row r="607" customFormat="1"/>
-    <row r="608" customFormat="1"/>
-    <row r="609" customFormat="1"/>
-    <row r="610" customFormat="1"/>
-    <row r="611" customFormat="1"/>
-    <row r="612" customFormat="1"/>
-    <row r="613" customFormat="1"/>
-    <row r="614" customFormat="1"/>
-    <row r="615" customFormat="1"/>
-    <row r="616" customFormat="1"/>
-    <row r="617" customFormat="1"/>
-    <row r="618" customFormat="1"/>
-    <row r="619" customFormat="1"/>
-    <row r="620" customFormat="1"/>
-    <row r="621" customFormat="1"/>
-    <row r="622" customFormat="1"/>
-    <row r="623" customFormat="1"/>
-    <row r="624" customFormat="1"/>
-    <row r="625" customFormat="1"/>
-    <row r="626" customFormat="1"/>
-    <row r="627" customFormat="1"/>
-    <row r="628" customFormat="1"/>
-    <row r="629" customFormat="1"/>
-    <row r="630" customFormat="1"/>
-    <row r="631" customFormat="1"/>
-    <row r="632" customFormat="1"/>
-    <row r="633" customFormat="1"/>
-    <row r="634" customFormat="1"/>
-    <row r="635" customFormat="1"/>
-    <row r="636" customFormat="1"/>
-    <row r="637" customFormat="1"/>
-    <row r="638" customFormat="1"/>
-    <row r="639" customFormat="1"/>
-    <row r="640" customFormat="1"/>
-    <row r="641" customFormat="1"/>
-    <row r="642" customFormat="1"/>
-    <row r="643" customFormat="1"/>
-    <row r="644" customFormat="1"/>
-    <row r="645" customFormat="1"/>
-    <row r="646" customFormat="1"/>
-    <row r="647" customFormat="1"/>
-    <row r="648" customFormat="1"/>
-    <row r="649" customFormat="1"/>
-    <row r="650" customFormat="1"/>
-    <row r="651" customFormat="1"/>
-    <row r="652" customFormat="1"/>
-    <row r="653" customFormat="1"/>
-    <row r="654" customFormat="1"/>
-    <row r="655" customFormat="1"/>
-    <row r="656" customFormat="1"/>
-    <row r="657" customFormat="1"/>
-    <row r="658" customFormat="1"/>
-    <row r="659" customFormat="1"/>
-    <row r="660" customFormat="1"/>
-    <row r="661" customFormat="1"/>
-    <row r="662" customFormat="1"/>
-    <row r="663" customFormat="1"/>
-    <row r="664" customFormat="1"/>
-    <row r="665" customFormat="1"/>
-    <row r="666" customFormat="1"/>
-    <row r="667" customFormat="1"/>
-    <row r="668" customFormat="1"/>
-    <row r="669" customFormat="1"/>
-    <row r="670" customFormat="1"/>
-    <row r="671" customFormat="1"/>
-    <row r="672" customFormat="1"/>
-    <row r="673" customFormat="1"/>
-    <row r="674" customFormat="1"/>
-    <row r="675" customFormat="1"/>
-    <row r="676" customFormat="1"/>
-    <row r="677" customFormat="1"/>
-    <row r="678" customFormat="1"/>
-    <row r="679" customFormat="1"/>
-    <row r="680" customFormat="1"/>
-    <row r="681" customFormat="1"/>
-    <row r="682" customFormat="1"/>
-    <row r="683" customFormat="1"/>
-    <row r="684" customFormat="1"/>
-    <row r="685" customFormat="1"/>
-    <row r="686" customFormat="1"/>
-    <row r="687" customFormat="1"/>
-    <row r="688" customFormat="1"/>
-    <row r="689" customFormat="1"/>
-    <row r="690" customFormat="1"/>
-    <row r="691" customFormat="1"/>
-    <row r="692" customFormat="1"/>
-    <row r="693" customFormat="1"/>
-    <row r="694" customFormat="1"/>
-    <row r="695" customFormat="1"/>
-    <row r="696" customFormat="1"/>
-    <row r="697" customFormat="1"/>
-    <row r="698" customFormat="1"/>
-    <row r="699" customFormat="1"/>
-    <row r="700" customFormat="1"/>
-    <row r="701" customFormat="1"/>
-    <row r="702" customFormat="1"/>
-    <row r="703" customFormat="1"/>
-    <row r="704" customFormat="1"/>
-    <row r="705" customFormat="1"/>
-    <row r="706" customFormat="1"/>
-    <row r="707" customFormat="1"/>
-    <row r="708" customFormat="1"/>
-    <row r="709" customFormat="1"/>
-    <row r="710" customFormat="1"/>
-    <row r="711" customFormat="1"/>
-    <row r="712" customFormat="1"/>
-    <row r="713" customFormat="1"/>
-    <row r="714" customFormat="1"/>
-    <row r="715" customFormat="1"/>
-    <row r="716" customFormat="1"/>
-    <row r="717" customFormat="1"/>
-    <row r="718" customFormat="1"/>
-    <row r="719" customFormat="1"/>
-    <row r="720" customFormat="1"/>
-    <row r="721" customFormat="1"/>
-    <row r="722" customFormat="1"/>
-    <row r="723" customFormat="1"/>
-    <row r="724" customFormat="1"/>
-    <row r="725" customFormat="1"/>
-    <row r="726" customFormat="1"/>
-    <row r="727" customFormat="1"/>
-    <row r="728" customFormat="1"/>
-    <row r="729" customFormat="1"/>
-    <row r="730" customFormat="1"/>
-    <row r="731" customFormat="1"/>
-    <row r="732" customFormat="1"/>
-    <row r="733" customFormat="1"/>
-    <row r="734" customFormat="1"/>
-    <row r="735" customFormat="1"/>
-    <row r="736" customFormat="1"/>
-    <row r="737" customFormat="1"/>
-    <row r="738" customFormat="1"/>
-    <row r="739" customFormat="1"/>
-    <row r="740" customFormat="1"/>
-    <row r="741" customFormat="1"/>
-    <row r="742" customFormat="1"/>
-    <row r="743" customFormat="1"/>
-    <row r="744" customFormat="1"/>
-    <row r="745" customFormat="1"/>
-    <row r="746" customFormat="1"/>
-    <row r="747" customFormat="1"/>
-    <row r="748" customFormat="1"/>
-    <row r="749" customFormat="1"/>
-    <row r="750" customFormat="1"/>
-    <row r="751" customFormat="1"/>
-    <row r="752" customFormat="1"/>
-    <row r="753" customFormat="1"/>
-    <row r="754" customFormat="1"/>
-    <row r="755" customFormat="1"/>
-    <row r="756" customFormat="1"/>
-    <row r="757" customFormat="1"/>
-    <row r="758" customFormat="1"/>
-    <row r="759" customFormat="1"/>
-    <row r="760" customFormat="1"/>
-    <row r="761" customFormat="1"/>
-    <row r="762" customFormat="1"/>
-    <row r="763" customFormat="1"/>
-    <row r="764" customFormat="1"/>
-    <row r="765" customFormat="1"/>
-    <row r="766" customFormat="1"/>
-    <row r="767" customFormat="1"/>
-    <row r="768" customFormat="1"/>
-    <row r="769" customFormat="1"/>
-    <row r="770" customFormat="1"/>
-    <row r="771" customFormat="1"/>
-    <row r="772" customFormat="1"/>
-    <row r="773" customFormat="1"/>
-    <row r="774" customFormat="1"/>
-    <row r="775" customFormat="1"/>
-    <row r="776" customFormat="1"/>
-    <row r="777" customFormat="1"/>
-    <row r="778" customFormat="1"/>
-    <row r="779" customFormat="1"/>
-    <row r="780" customFormat="1"/>
-    <row r="781" customFormat="1"/>
-    <row r="782" customFormat="1"/>
-    <row r="783" customFormat="1"/>
-    <row r="784" customFormat="1"/>
-    <row r="785" customFormat="1"/>
-    <row r="786" customFormat="1"/>
-    <row r="787" customFormat="1"/>
-    <row r="788" customFormat="1"/>
-    <row r="789" customFormat="1"/>
-    <row r="790" customFormat="1"/>
-    <row r="791" customFormat="1"/>
-    <row r="792" customFormat="1"/>
-    <row r="793" customFormat="1"/>
-    <row r="794" customFormat="1"/>
-    <row r="795" customFormat="1"/>
-    <row r="796" customFormat="1"/>
-    <row r="797" customFormat="1"/>
-    <row r="798" customFormat="1"/>
-    <row r="799" customFormat="1"/>
-    <row r="800" customFormat="1"/>
-    <row r="801" customFormat="1"/>
-    <row r="802" customFormat="1"/>
-    <row r="803" customFormat="1"/>
-    <row r="804" customFormat="1"/>
-    <row r="805" customFormat="1"/>
-    <row r="806" customFormat="1"/>
-    <row r="807" customFormat="1"/>
-    <row r="808" customFormat="1"/>
-    <row r="809" customFormat="1"/>
-    <row r="810" customFormat="1"/>
-    <row r="811" customFormat="1"/>
-    <row r="812" customFormat="1"/>
-    <row r="813" customFormat="1"/>
-    <row r="814" customFormat="1"/>
-    <row r="815" customFormat="1"/>
-    <row r="816" customFormat="1"/>
-    <row r="817" customFormat="1"/>
-    <row r="818" customFormat="1"/>
-    <row r="819" customFormat="1"/>
-    <row r="820" customFormat="1"/>
-    <row r="821" customFormat="1"/>
-    <row r="822" customFormat="1"/>
-    <row r="823" customFormat="1"/>
-    <row r="824" customFormat="1"/>
-    <row r="825" customFormat="1"/>
-    <row r="826" customFormat="1"/>
-    <row r="827" customFormat="1"/>
-    <row r="828" customFormat="1"/>
-    <row r="829" customFormat="1"/>
-    <row r="830" customFormat="1"/>
-    <row r="831" customFormat="1"/>
-    <row r="832" customFormat="1"/>
-    <row r="833" customFormat="1"/>
-    <row r="834" customFormat="1"/>
-    <row r="835" customFormat="1"/>
-    <row r="836" customFormat="1"/>
-    <row r="837" customFormat="1"/>
-    <row r="838" customFormat="1"/>
-    <row r="839" customFormat="1"/>
-    <row r="840" customFormat="1"/>
-    <row r="841" customFormat="1"/>
-    <row r="842" customFormat="1"/>
-    <row r="843" customFormat="1"/>
-    <row r="844" customFormat="1"/>
-    <row r="845" customFormat="1"/>
-    <row r="846" customFormat="1"/>
-    <row r="847" customFormat="1"/>
-    <row r="848" customFormat="1"/>
-    <row r="849" customFormat="1"/>
-    <row r="850" customFormat="1"/>
-    <row r="851" customFormat="1"/>
-    <row r="852" customFormat="1"/>
-    <row r="853" customFormat="1"/>
-    <row r="854" customFormat="1"/>
-    <row r="855" customFormat="1"/>
-    <row r="856" customFormat="1"/>
-    <row r="857" customFormat="1"/>
-    <row r="858" customFormat="1"/>
-    <row r="859" customFormat="1"/>
-    <row r="860" customFormat="1"/>
-    <row r="861" customFormat="1"/>
-    <row r="862" customFormat="1"/>
-    <row r="863" customFormat="1"/>
-    <row r="864" customFormat="1"/>
-    <row r="865" customFormat="1"/>
-    <row r="866" customFormat="1"/>
-    <row r="867" customFormat="1"/>
-    <row r="868" customFormat="1"/>
-    <row r="869" customFormat="1"/>
-    <row r="870" customFormat="1"/>
-    <row r="871" customFormat="1"/>
-    <row r="872" customFormat="1"/>
-    <row r="873" customFormat="1"/>
-    <row r="874" customFormat="1"/>
-    <row r="875" customFormat="1"/>
-    <row r="876" customFormat="1"/>
-    <row r="877" customFormat="1"/>
-    <row r="878" customFormat="1"/>
-    <row r="879" customFormat="1"/>
-    <row r="880" customFormat="1"/>
-    <row r="881" customFormat="1"/>
-    <row r="882" customFormat="1"/>
-    <row r="883" customFormat="1"/>
-    <row r="884" customFormat="1"/>
-    <row r="885" customFormat="1"/>
-    <row r="886" customFormat="1"/>
-    <row r="887" customFormat="1"/>
-    <row r="888" customFormat="1"/>
-    <row r="889" customFormat="1"/>
-    <row r="890" customFormat="1"/>
-    <row r="891" customFormat="1"/>
-    <row r="892" customFormat="1"/>
-    <row r="893" customFormat="1"/>
-    <row r="894" customFormat="1"/>
-    <row r="895" customFormat="1"/>
-    <row r="896" customFormat="1"/>
-    <row r="897" customFormat="1"/>
-    <row r="898" customFormat="1"/>
-    <row r="899" customFormat="1"/>
-    <row r="900" customFormat="1"/>
-    <row r="901" customFormat="1"/>
-    <row r="902" customFormat="1"/>
-    <row r="903" customFormat="1"/>
-    <row r="904" customFormat="1"/>
-    <row r="905" customFormat="1"/>
-    <row r="906" customFormat="1"/>
-    <row r="907" customFormat="1"/>
-    <row r="908" customFormat="1"/>
-    <row r="909" customFormat="1"/>
-    <row r="910" customFormat="1"/>
-    <row r="911" customFormat="1"/>
-    <row r="912" customFormat="1"/>
-    <row r="913" customFormat="1"/>
-    <row r="914" customFormat="1"/>
-    <row r="915" customFormat="1"/>
-    <row r="916" customFormat="1"/>
-    <row r="917" customFormat="1"/>
-    <row r="918" customFormat="1"/>
-    <row r="919" customFormat="1"/>
-    <row r="920" customFormat="1"/>
-    <row r="921" customFormat="1"/>
-    <row r="922" customFormat="1"/>
-    <row r="923" customFormat="1"/>
-    <row r="924" customFormat="1"/>
-    <row r="925" customFormat="1"/>
-    <row r="926" customFormat="1"/>
-    <row r="927" customFormat="1"/>
-    <row r="928" customFormat="1"/>
-    <row r="929" customFormat="1"/>
-    <row r="930" customFormat="1"/>
-    <row r="931" customFormat="1"/>
-    <row r="932" customFormat="1"/>
-    <row r="933" customFormat="1"/>
-    <row r="934" customFormat="1"/>
-    <row r="935" customFormat="1"/>
-    <row r="936" customFormat="1"/>
-    <row r="937" customFormat="1"/>
-    <row r="938" customFormat="1"/>
-    <row r="939" customFormat="1"/>
-    <row r="940" customFormat="1"/>
-    <row r="941" customFormat="1"/>
-    <row r="942" customFormat="1"/>
-    <row r="943" customFormat="1"/>
-    <row r="944" customFormat="1"/>
-    <row r="945" customFormat="1"/>
-    <row r="946" customFormat="1"/>
-    <row r="947" customFormat="1"/>
-    <row r="948" customFormat="1"/>
-    <row r="949" customFormat="1"/>
-    <row r="950" customFormat="1"/>
-    <row r="951" customFormat="1"/>
-    <row r="952" customFormat="1"/>
-    <row r="953" customFormat="1"/>
-    <row r="954" customFormat="1"/>
-    <row r="955" customFormat="1"/>
-    <row r="956" customFormat="1"/>
-    <row r="957" customFormat="1"/>
-    <row r="958" customFormat="1"/>
-    <row r="959" customFormat="1"/>
-    <row r="960" customFormat="1"/>
-    <row r="961" customFormat="1"/>
-    <row r="962" customFormat="1"/>
-    <row r="963" customFormat="1"/>
-    <row r="964" customFormat="1"/>
-    <row r="965" customFormat="1"/>
-    <row r="966" customFormat="1"/>
-    <row r="967" customFormat="1"/>
-    <row r="968" customFormat="1"/>
-    <row r="969" customFormat="1"/>
-    <row r="970" customFormat="1"/>
-    <row r="971" customFormat="1"/>
-    <row r="972" customFormat="1"/>
-    <row r="973" customFormat="1"/>
-    <row r="974" customFormat="1"/>
-    <row r="975" customFormat="1"/>
-    <row r="976" customFormat="1"/>
-    <row r="977" customFormat="1"/>
-    <row r="978" customFormat="1"/>
-    <row r="979" customFormat="1"/>
-    <row r="980" customFormat="1"/>
-    <row r="981" customFormat="1"/>
-    <row r="982" customFormat="1"/>
-    <row r="983" customFormat="1"/>
-    <row r="984" customFormat="1"/>
-    <row r="985" customFormat="1"/>
-    <row r="986" customFormat="1"/>
-    <row r="987" customFormat="1"/>
-    <row r="988" customFormat="1"/>
-    <row r="989" customFormat="1"/>
-    <row r="990" customFormat="1"/>
-    <row r="991" customFormat="1"/>
-    <row r="992" customFormat="1"/>
-    <row r="993" customFormat="1"/>
-    <row r="994" customFormat="1"/>
-    <row r="995" customFormat="1"/>
-    <row r="996" customFormat="1"/>
-    <row r="997" customFormat="1"/>
-    <row r="998" customFormat="1"/>
-    <row r="999" customFormat="1"/>
-    <row r="1000" customFormat="1"/>
-    <row r="1001" customFormat="1"/>
-    <row r="1002" customFormat="1"/>
-    <row r="1003" customFormat="1"/>
-    <row r="1004" customFormat="1"/>
-    <row r="1005" customFormat="1"/>
-    <row r="1006" customFormat="1"/>
-    <row r="1007" customFormat="1"/>
-    <row r="1008" customFormat="1"/>
-    <row r="1009" customFormat="1"/>
-    <row r="1010" customFormat="1"/>
-    <row r="1011" customFormat="1"/>
-    <row r="1012" customFormat="1"/>
-    <row r="1013" customFormat="1"/>
-    <row r="1014" customFormat="1"/>
-    <row r="1015" customFormat="1"/>
-    <row r="1016" customFormat="1"/>
-    <row r="1017" customFormat="1"/>
-    <row r="1018" customFormat="1"/>
-    <row r="1019" customFormat="1"/>
-    <row r="1020" customFormat="1"/>
-    <row r="1021" customFormat="1"/>
-    <row r="1022" customFormat="1"/>
-    <row r="1023" customFormat="1"/>
-    <row r="1024" customFormat="1"/>
-    <row r="1025" customFormat="1"/>
-    <row r="1026" customFormat="1"/>
-    <row r="1027" customFormat="1"/>
-    <row r="1028" customFormat="1"/>
-    <row r="1029" customFormat="1"/>
-    <row r="1030" customFormat="1"/>
-    <row r="1031" customFormat="1"/>
-    <row r="1032" customFormat="1"/>
-    <row r="1033" customFormat="1"/>
-    <row r="1034" customFormat="1"/>
-    <row r="1035" customFormat="1"/>
-    <row r="1036" customFormat="1"/>
-    <row r="1037" customFormat="1"/>
-    <row r="1038" customFormat="1"/>
-    <row r="1039" customFormat="1"/>
-    <row r="1040" customFormat="1"/>
-    <row r="1041" customFormat="1"/>
-    <row r="1042" customFormat="1"/>
-    <row r="1043" customFormat="1"/>
-    <row r="1044" customFormat="1"/>
-    <row r="1045" customFormat="1"/>
-    <row r="1046" customFormat="1"/>
-    <row r="1047" customFormat="1"/>
-    <row r="1048" customFormat="1"/>
-    <row r="1049" customFormat="1"/>
-    <row r="1050" customFormat="1"/>
-    <row r="1051" customFormat="1"/>
-    <row r="1052" customFormat="1"/>
-    <row r="1053" customFormat="1"/>
-    <row r="1054" customFormat="1"/>
-    <row r="1055" customFormat="1"/>
-    <row r="1056" customFormat="1"/>
-    <row r="1057" customFormat="1"/>
-    <row r="1058" customFormat="1"/>
-    <row r="1059" customFormat="1"/>
-    <row r="1060" customFormat="1"/>
-    <row r="1061" customFormat="1"/>
-    <row r="1062" customFormat="1"/>
-    <row r="1063" customFormat="1"/>
-    <row r="1064" customFormat="1"/>
-    <row r="1065" customFormat="1"/>
-    <row r="1066" customFormat="1"/>
-    <row r="1067" customFormat="1"/>
-    <row r="1068" customFormat="1"/>
-    <row r="1069" customFormat="1"/>
-    <row r="1070" customFormat="1"/>
-    <row r="1071" customFormat="1"/>
-    <row r="1072" customFormat="1"/>
-    <row r="1073" customFormat="1"/>
-    <row r="1074" customFormat="1"/>
-    <row r="1075" customFormat="1"/>
-    <row r="1076" customFormat="1"/>
-    <row r="1077" customFormat="1"/>
-    <row r="1078" customFormat="1"/>
-    <row r="1079" customFormat="1"/>
+    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="819" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="820" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="821" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="822" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="823" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="824" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="825" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="826" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="827" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="828" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="829" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="830" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="831" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="832" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="833" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="834" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="835" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="836" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="837" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="838" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="839" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="840" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="841" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="842" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="843" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="844" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="845" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="846" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="847" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="848" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="849" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="850" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="851" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="852" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="853" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="854" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="855" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="856" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="857" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="858" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="859" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="860" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="861" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="862" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="863" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="864" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="865" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="866" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="867" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="868" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="869" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="870" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="871" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="872" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="873" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="874" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="875" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="876" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="877" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="878" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="879" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="880" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="881" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="882" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="883" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="884" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="885" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="886" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="887" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="888" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="889" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="890" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="891" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="892" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="893" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="894" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="895" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="896" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="897" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="898" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="899" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="900" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="901" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="902" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="903" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="904" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="905" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="906" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="907" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="908" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="909" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="910" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="911" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="912" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="913" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="914" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="915" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="916" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="917" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="918" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="919" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="920" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="921" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="922" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="923" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="924" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="925" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="926" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="927" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="928" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="929" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="930" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="931" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="932" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="933" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="934" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="935" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="936" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="937" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="938" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="939" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="940" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="941" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="942" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="943" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="944" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="945" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="946" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="947" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="948" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="949" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="950" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="951" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="952" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="953" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="954" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="955" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="956" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="957" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="958" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="959" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="960" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="961" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="962" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="963" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="964" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="965" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="966" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="967" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="968" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="969" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="970" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="971" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="972" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="973" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="974" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="975" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="976" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="977" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="978" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="979" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="980" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="981" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="982" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="983" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="984" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="985" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="986" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="987" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="988" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="989" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="990" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="991" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="992" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="993" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="994" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="995" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="996" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="997" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="998" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="999" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1020" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1021" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1022" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1023" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1024" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1025" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1026" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1027" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1028" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1029" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1030" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1031" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1032" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1033" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1034" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1035" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1036" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1037" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1038" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1039" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1040" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1041" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1042" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1043" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1044" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1045" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1046" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1047" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1048" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1049" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1050" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1051" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1052" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1053" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1054" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1055" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1056" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1057" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1058" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1059" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1060" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1061" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1062" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1063" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1064" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1065" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1066" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1067" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1068" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1069" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1070" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1071" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1072" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1073" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1074" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1075" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1076" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1077" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1078" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1079" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -27629,45 +27638,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.73046875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="22" style="10" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="26.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.3984375" style="10" customWidth="1"/>
-    <col min="11" max="16" width="9.1328125" style="10"/>
-    <col min="17" max="17" width="25.86328125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.3984375" style="10" customWidth="1"/>
-    <col min="19" max="19" width="19.86328125" style="10" customWidth="1"/>
-    <col min="20" max="21" width="12.3984375" style="10" customWidth="1"/>
-    <col min="22" max="23" width="16.265625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="10.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="10"/>
+    <col min="5" max="5" width="19.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="10" customWidth="1"/>
+    <col min="11" max="16" width="9.1640625" style="10"/>
+    <col min="17" max="17" width="25.83203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="10" customWidth="1"/>
+    <col min="20" max="21" width="12.33203125" style="10" customWidth="1"/>
+    <col min="22" max="23" width="16.33203125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="166" t="s">
         <v>194</v>
       </c>
@@ -27676,12 +27685,12 @@
       <c r="D2" s="166"/>
       <c r="E2" s="166"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>155400</v>
       </c>
@@ -27689,7 +27698,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="166" t="s">
         <v>197</v>
       </c>
@@ -27698,12 +27707,12 @@
       <c r="D21" s="166"/>
       <c r="E21" s="166"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>100800</v>
       </c>
@@ -27711,7 +27720,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="166" t="s">
         <v>198</v>
       </c>
@@ -27720,12 +27729,12 @@
       <c r="D40" s="166"/>
       <c r="E40" s="166"/>
     </row>
-    <row r="57" spans="1:5" ht="14.65" thickBot="1">
+    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.65" thickBot="1">
+    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>194000</v>
       </c>
@@ -27733,16 +27742,16 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="165" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-    </row>
-    <row r="85" spans="1:39" s="13" customFormat="1">
+      <c r="B60" s="162"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
+    </row>
+    <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>455</v>
       </c>
@@ -27789,7 +27798,7 @@
       <c r="AL85" s="10"/>
       <c r="AM85" s="10"/>
     </row>
-    <row r="86" spans="1:39" s="13" customFormat="1">
+    <row r="86" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>457</v>
       </c>
@@ -27834,8 +27843,8 @@
       <c r="AL86" s="10"/>
       <c r="AM86" s="10"/>
     </row>
-    <row r="87" spans="1:39" ht="14.65" thickBot="1"/>
-    <row r="88" spans="1:39" ht="14.65" thickBot="1">
+    <row r="87" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>458</v>
       </c>
@@ -27844,16 +27853,16 @@
         <v>1.0254083484573502</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
-      <c r="A89" s="165" t="s">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A89" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
-    </row>
-    <row r="90" spans="1:39">
+      <c r="B89" s="162"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>6.6290250000000004</v>
       </c>
@@ -27864,7 +27873,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <f>1/A90</f>
         <v>0.15085174667466181</v>
@@ -27876,7 +27885,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>0.5</v>
       </c>
@@ -27887,7 +27896,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <f>A92*A91</f>
         <v>7.5425873337330904E-2</v>
@@ -27899,7 +27908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <f>1/A93</f>
         <v>13.258050000000001</v>
@@ -27912,7 +27921,7 @@
       </c>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="1:39" ht="14.65" thickBot="1">
+    <row r="95" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>8.0274920000000005</v>
       </c>
@@ -27924,7 +27933,7 @@
       </c>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="1:39" ht="14.65" thickBot="1">
+    <row r="96" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -27937,16 +27946,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="165" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="165"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="165"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="B98" s="162"/>
+      <c r="C98" s="162"/>
+      <c r="D98" s="162"/>
+      <c r="E98" s="162"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <v>0.3</v>
       </c>
@@ -27954,7 +27963,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>63.5</v>
       </c>
@@ -27962,7 +27971,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <f>1/A100</f>
         <v>1.5748031496062992E-2</v>
@@ -27971,7 +27980,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <f>A101*(1-A99)</f>
         <v>1.1023622047244094E-2</v>
@@ -27980,7 +27989,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <f>1/A102</f>
         <v>90.714285714285722</v>
@@ -27989,7 +27998,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <v>0.35</v>
       </c>
@@ -27997,7 +28006,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <f>A102*(1-A104)</f>
         <v>7.1653543307086615E-3</v>
@@ -28006,7 +28015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.65" thickBot="1">
+    <row r="106" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -28015,7 +28024,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.65" thickBot="1">
+    <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -28024,20 +28033,20 @@
         <v>479</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="165" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="162" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="165"/>
-      <c r="C109" s="165"/>
-      <c r="D109" s="165"/>
-      <c r="E109" s="165"/>
-    </row>
-    <row r="110" spans="1:5" ht="14.65" thickBot="1"/>
-    <row r="111" spans="1:5" ht="14.65" thickBot="1">
+      <c r="B109" s="162"/>
+      <c r="C109" s="162"/>
+      <c r="D109" s="162"/>
+      <c r="E109" s="162"/>
+    </row>
+    <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -28046,16 +28055,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="165" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="162" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="165"/>
-      <c r="C113" s="165"/>
-      <c r="D113" s="165"/>
-      <c r="E113" s="165"/>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="B113" s="162"/>
+      <c r="C113" s="162"/>
+      <c r="D113" s="162"/>
+      <c r="E113" s="162"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <v>0.2</v>
       </c>
@@ -28063,7 +28072,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>1.95</v>
       </c>
@@ -28071,7 +28080,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <f>1/A115</f>
         <v>0.51282051282051289</v>
@@ -28080,7 +28089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <f>A116*(1-A114)</f>
         <v>0.41025641025641035</v>
@@ -28089,7 +28098,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <f>1/A117</f>
         <v>2.4374999999999996</v>
@@ -28098,7 +28107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <v>0.17</v>
       </c>
@@ -28106,7 +28115,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
         <f>A117*(1-A119)</f>
         <v>0.34051282051282056</v>
@@ -28115,7 +28124,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="14.65" thickBot="1">
+    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -28124,7 +28133,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="14.65" thickBot="1">
+    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -28133,17 +28142,17 @@
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="165" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="162" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="165"/>
-      <c r="C124" s="165"/>
-      <c r="D124" s="165"/>
-      <c r="E124" s="165"/>
+      <c r="B124" s="162"/>
+      <c r="C124" s="162"/>
+      <c r="D124" s="162"/>
+      <c r="E124" s="162"/>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="23">
         <v>4.4824543659231753E-4</v>
       </c>
@@ -28153,7 +28162,7 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
         <v>1.27</v>
       </c>
@@ -28165,7 +28174,7 @@
       <c r="M126" s="23"/>
       <c r="N126" s="23"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
         <f>(1/CONVERT(A125/A126,"mi","km")*0.00105505585)</f>
         <v>1.857438352962903</v>
@@ -28177,7 +28186,7 @@
       <c r="M127" s="23"/>
       <c r="N127" s="23"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <f>1/A127</f>
         <v>0.53837587578874124</v>
@@ -28189,7 +28198,7 @@
       <c r="M128" s="18"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
         <v>1.07</v>
       </c>
@@ -28200,7 +28209,7 @@
       <c r="M129" s="18"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="1:14" ht="14.65" thickBot="1">
+    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -28212,7 +28221,7 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="1:14" ht="14.65" thickBot="1">
+    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -28222,24 +28231,24 @@
       </c>
       <c r="F131" s="25"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J132" s="27"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="22"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="165" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="165"/>
-      <c r="C134" s="165"/>
-      <c r="D134" s="165"/>
-      <c r="E134" s="165"/>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="B134" s="162"/>
+      <c r="C134" s="162"/>
+      <c r="D134" s="162"/>
+      <c r="E134" s="162"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="28" t="s">
         <v>501</v>
       </c>
@@ -28250,31 +28259,31 @@
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="30"/>
-      <c r="B136" s="162" t="s">
+      <c r="B136" s="163" t="s">
         <v>502</v>
       </c>
-      <c r="C136" s="163"/>
-      <c r="D136" s="163"/>
-      <c r="E136" s="164"/>
+      <c r="C136" s="164"/>
+      <c r="D136" s="164"/>
+      <c r="E136" s="165"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="31"/>
-      <c r="B137" s="162" t="s">
+      <c r="B137" s="163" t="s">
         <v>503</v>
       </c>
-      <c r="C137" s="164"/>
-      <c r="D137" s="162" t="s">
+      <c r="C137" s="165"/>
+      <c r="D137" s="163" t="s">
         <v>504</v>
       </c>
-      <c r="E137" s="164"/>
+      <c r="E137" s="165"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
         <v>505</v>
       </c>
@@ -28295,7 +28304,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="35" t="s">
         <v>509</v>
       </c>
@@ -28319,7 +28328,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="38" t="s">
         <v>510</v>
       </c>
@@ -28343,7 +28352,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="38" t="s">
         <v>511</v>
       </c>
@@ -28367,7 +28376,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="38" t="s">
         <v>512</v>
       </c>
@@ -28391,7 +28400,7 @@
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="38" t="s">
         <v>513</v>
       </c>
@@ -28415,7 +28424,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="38" t="s">
         <v>514</v>
       </c>
@@ -28439,7 +28448,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="38" t="s">
         <v>515</v>
       </c>
@@ -28463,7 +28472,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="38" t="s">
         <v>517</v>
       </c>
@@ -28487,7 +28496,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="38" t="s">
         <v>518</v>
       </c>
@@ -28511,7 +28520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="38" t="s">
         <v>519</v>
       </c>
@@ -28535,7 +28544,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="38" t="s">
         <v>520</v>
       </c>
@@ -28559,7 +28568,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="38" t="s">
         <v>521</v>
       </c>
@@ -28583,7 +28592,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="38" t="s">
         <v>522</v>
       </c>
@@ -28607,7 +28616,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="38" t="s">
         <v>523</v>
       </c>
@@ -28631,7 +28640,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="38" t="s">
         <v>524</v>
       </c>
@@ -28655,7 +28664,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="38" t="s">
         <v>525</v>
       </c>
@@ -28680,7 +28689,7 @@
       </c>
       <c r="I154" s="42"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="38" t="s">
         <v>526</v>
       </c>
@@ -28704,7 +28713,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="43" t="s">
         <v>527</v>
       </c>
@@ -28728,7 +28737,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -28737,7 +28746,7 @@
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -28746,7 +28755,7 @@
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="29" t="s">
         <v>141</v>
       </c>
@@ -28760,7 +28769,7 @@
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="29" t="s">
         <v>516</v>
       </c>
@@ -28774,7 +28783,7 @@
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="29" t="s">
         <v>140</v>
       </c>
@@ -28788,7 +28797,7 @@
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="29" t="s">
         <v>137</v>
       </c>
@@ -28802,7 +28811,7 @@
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="29" t="s">
         <v>138</v>
       </c>
@@ -28816,16 +28825,16 @@
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="165" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="165"/>
-      <c r="C165" s="165"/>
-      <c r="D165" s="165"/>
-      <c r="E165" s="165"/>
-    </row>
-    <row r="166" spans="1:7" ht="14.65" thickBot="1">
+      <c r="B165" s="162"/>
+      <c r="C165" s="162"/>
+      <c r="D165" s="162"/>
+      <c r="E165" s="162"/>
+    </row>
+    <row r="166" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
         <v>208</v>
       </c>
@@ -28833,7 +28842,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="14.65" thickBot="1">
+    <row r="167" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>209</v>
       </c>
@@ -28842,16 +28851,16 @@
         <v>3.4219694129380196E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B168" s="47"/>
     </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="165" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="162" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="165"/>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="B169" s="162"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="24" t="s">
         <v>491</v>
       </c>
@@ -28859,7 +28868,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="14.65" thickBot="1">
+    <row r="171" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>492</v>
       </c>
@@ -28868,7 +28877,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="14.65" thickBot="1">
+    <row r="172" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>493</v>
       </c>
@@ -28877,19 +28886,19 @@
         <v>0.23581749418153608</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B173" s="47"/>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="165" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="165"/>
-      <c r="C174" s="165"/>
-      <c r="D174" s="165"/>
-      <c r="E174" s="165"/>
-    </row>
-    <row r="175" spans="1:7" ht="14.65" thickBot="1">
+      <c r="B174" s="162"/>
+      <c r="C174" s="162"/>
+      <c r="D174" s="162"/>
+      <c r="E174" s="162"/>
+    </row>
+    <row r="175" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
         <v>500</v>
       </c>
@@ -28897,7 +28906,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="14.65" thickBot="1">
+    <row r="176" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="s">
         <v>495</v>
       </c>
@@ -28906,16 +28915,16 @@
         <v>0.87539999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="165" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="165"/>
-      <c r="C178" s="165"/>
-      <c r="D178" s="165"/>
-      <c r="E178" s="165"/>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="B178" s="162"/>
+      <c r="C178" s="162"/>
+      <c r="D178" s="162"/>
+      <c r="E178" s="162"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="26" t="s">
         <v>497</v>
       </c>
@@ -28923,7 +28932,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.65" thickBot="1">
+    <row r="180" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>498</v>
       </c>
@@ -28931,7 +28940,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.65" thickBot="1">
+    <row r="181" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>211</v>
       </c>
@@ -28940,16 +28949,16 @@
         <v>1.1257142857142857</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="165" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="165"/>
-      <c r="C183" s="165"/>
-      <c r="D183" s="165"/>
-      <c r="E183" s="165"/>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="B183" s="162"/>
+      <c r="C183" s="162"/>
+      <c r="D183" s="162"/>
+      <c r="E183" s="162"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="24" t="s">
         <v>627</v>
       </c>
@@ -28957,7 +28966,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="24" t="s">
         <v>628</v>
       </c>
@@ -28965,7 +28974,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="24" t="s">
         <v>629</v>
       </c>
@@ -28974,7 +28983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="24" t="s">
         <v>630</v>
       </c>
@@ -28983,7 +28992,7 @@
         <v>0.67139665221009714</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.65" thickBot="1">
+    <row r="188" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
         <v>631</v>
       </c>
@@ -28992,7 +29001,7 @@
         <v>0.44858421050781644</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.65" thickBot="1">
+    <row r="189" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="s">
         <v>632</v>
       </c>
@@ -29001,16 +29010,16 @@
         <v>0.33186409400289502</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="165" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="162" t="s">
         <v>228</v>
       </c>
-      <c r="B191" s="165"/>
-      <c r="C191" s="165"/>
-      <c r="D191" s="165"/>
-      <c r="E191" s="165"/>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="B191" s="162"/>
+      <c r="C191" s="162"/>
+      <c r="D191" s="162"/>
+      <c r="E191" s="162"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
         <v>220</v>
       </c>
@@ -29019,7 +29028,7 @@
       </c>
       <c r="C192" s="22"/>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>222</v>
       </c>
@@ -29030,7 +29039,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>224</v>
       </c>
@@ -29040,7 +29049,7 @@
       </c>
       <c r="C194" s="50"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>225</v>
       </c>
@@ -29048,7 +29057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14.65" thickBot="1">
+    <row r="196" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>226</v>
       </c>
@@ -29057,7 +29066,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.65" thickBot="1">
+    <row r="197" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>227</v>
       </c>
@@ -29068,12 +29077,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -29088,6 +29091,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddfincannon/Projects/eps-canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5552F3D-CB32-1E4C-9688-32FD7BBF6DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F11596-5EA1-9B4B-AF42-09FD5FBC48F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1200">
   <si>
     <t>Short Name</t>
   </si>
@@ -3992,6 +3992,9 @@
   <si>
     <t>Youth Policy Design Winner</t>
   </si>
+  <si>
+    <t>Scenario_BAU.cin</t>
+  </si>
 </sst>
 </file>
 
@@ -4005,7 +4008,7 @@
     <numFmt numFmtId="167" formatCode="###0;###0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5097,9 +5100,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5108,6 +5108,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5890,75 +5893,75 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="50"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="10">
         <f>MAX(PolicyLevers!H:H)</f>
         <v>208</v>
@@ -5987,7 +5990,7 @@
       <selection pane="bottomLeft" activeCell="P128" sqref="P128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
@@ -6009,7 +6012,7 @@
     <col min="21" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="32">
       <c r="A1" s="54" t="s">
         <v>3</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A3" s="5" t="str">
         <f>A$2</f>
         <v>Transportation</v>
@@ -6182,7 +6185,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A4" s="5" t="str">
         <f t="shared" ref="A4:A7" si="2">A$2</f>
         <v>Transportation</v>
@@ -6243,7 +6246,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A5" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6304,7 +6307,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6365,7 +6368,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Transportation</v>
@@ -6426,7 +6429,7 @@
         <v>conventional-pollutant-standards.html</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -6476,7 +6479,7 @@
       <c r="S8" s="84"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -6534,7 +6537,7 @@
       <c r="S9" s="84"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A10" s="58" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -6603,7 +6606,7 @@
       <c r="S10" s="84"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A11" s="58" t="str">
         <f t="shared" ref="A11:A20" si="5">A$9</f>
         <v>Transportation</v>
@@ -6672,7 +6675,7 @@
       <c r="S11" s="84"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A12" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6741,7 +6744,7 @@
       <c r="S12" s="84"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A13" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6788,7 +6791,7 @@
       <c r="S13" s="84"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A14" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6835,7 +6838,7 @@
       <c r="S14" s="84"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A15" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6882,7 +6885,7 @@
       <c r="S15" s="84"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A16" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6929,7 +6932,7 @@
       <c r="S16" s="84"/>
       <c r="T16" s="11"/>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A17" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -6976,7 +6979,7 @@
       <c r="S17" s="84"/>
       <c r="T17" s="11"/>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A18" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7023,7 +7026,7 @@
       <c r="S18" s="84"/>
       <c r="T18" s="11"/>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A19" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7092,7 +7095,7 @@
       <c r="S19" s="84"/>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A20" s="58" t="str">
         <f t="shared" si="5"/>
         <v>Transportation</v>
@@ -7139,7 +7142,7 @@
       <c r="S20" s="84"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="48">
       <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
@@ -7197,7 +7200,7 @@
       <c r="S21" s="84"/>
       <c r="T21" s="11"/>
     </row>
-    <row r="22" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A22" s="58" t="str">
         <f t="shared" ref="A22:C32" si="7">A$21</f>
         <v>Transportation</v>
@@ -7244,7 +7247,7 @@
       <c r="S22" s="85"/>
       <c r="T22" s="99"/>
     </row>
-    <row r="23" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A23" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7291,7 +7294,7 @@
       <c r="S23" s="85"/>
       <c r="T23" s="99"/>
     </row>
-    <row r="24" spans="1:20" s="79" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="79" customFormat="1" ht="48">
       <c r="A24" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7360,7 +7363,7 @@
       <c r="S24" s="85"/>
       <c r="T24" s="99"/>
     </row>
-    <row r="25" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A25" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7407,7 +7410,7 @@
       <c r="S25" s="85"/>
       <c r="T25" s="99"/>
     </row>
-    <row r="26" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A26" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7454,7 +7457,7 @@
       <c r="S26" s="85"/>
       <c r="T26" s="99"/>
     </row>
-    <row r="27" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A27" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7501,7 +7504,7 @@
       <c r="S27" s="85"/>
       <c r="T27" s="99"/>
     </row>
-    <row r="28" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A28" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7548,7 +7551,7 @@
       <c r="S28" s="85"/>
       <c r="T28" s="99"/>
     </row>
-    <row r="29" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A29" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7595,7 +7598,7 @@
       <c r="S29" s="85"/>
       <c r="T29" s="99"/>
     </row>
-    <row r="30" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A30" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7642,7 +7645,7 @@
       <c r="S30" s="85"/>
       <c r="T30" s="99"/>
     </row>
-    <row r="31" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A31" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7689,7 +7692,7 @@
       <c r="S31" s="85"/>
       <c r="T31" s="99"/>
     </row>
-    <row r="32" spans="1:20" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="79" customFormat="1" ht="16">
       <c r="A32" s="58" t="str">
         <f t="shared" si="7"/>
         <v>Transportation</v>
@@ -7736,7 +7739,7 @@
       <c r="S32" s="85"/>
       <c r="T32" s="99"/>
     </row>
-    <row r="33" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="80">
       <c r="A33" s="56" t="s">
         <v>4</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="32">
       <c r="A34" s="56" t="s">
         <v>4</v>
       </c>
@@ -7827,7 +7830,7 @@
       <c r="R34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="32">
       <c r="A35" s="58" t="str">
         <f t="shared" ref="A35:C50" si="9">A$34</f>
         <v>Transportation</v>
@@ -7874,7 +7877,7 @@
       <c r="S35" s="81"/>
       <c r="T35" s="56"/>
     </row>
-    <row r="36" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="80">
       <c r="A36" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7942,7 +7945,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="32">
       <c r="A37" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7989,7 +7992,7 @@
       <c r="S37" s="81"/>
       <c r="T37" s="56"/>
     </row>
-    <row r="38" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="32">
       <c r="A38" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8036,7 +8039,7 @@
       <c r="S38" s="81"/>
       <c r="T38" s="56"/>
     </row>
-    <row r="39" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="32">
       <c r="A39" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8083,7 +8086,7 @@
       <c r="S39" s="81"/>
       <c r="T39" s="56"/>
     </row>
-    <row r="40" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="32">
       <c r="A40" s="58" t="str">
         <f>A$34</f>
         <v>Transportation</v>
@@ -8125,7 +8128,7 @@
       <c r="R40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="32">
       <c r="A41" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8172,7 +8175,7 @@
       <c r="S41" s="81"/>
       <c r="T41" s="56"/>
     </row>
-    <row r="42" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="32">
       <c r="A42" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8219,7 +8222,7 @@
       <c r="S42" s="81"/>
       <c r="T42" s="56"/>
     </row>
-    <row r="43" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="96">
       <c r="A43" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8292,7 +8295,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="32">
       <c r="A44" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8339,7 +8342,7 @@
       <c r="S44" s="81"/>
       <c r="T44" s="56"/>
     </row>
-    <row r="45" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="32">
       <c r="A45" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8386,7 +8389,7 @@
       <c r="S45" s="81"/>
       <c r="T45" s="56"/>
     </row>
-    <row r="46" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="32">
       <c r="A46" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8428,7 +8431,7 @@
       <c r="R46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="32">
       <c r="A47" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8475,7 +8478,7 @@
       <c r="S47" s="81"/>
       <c r="T47" s="56"/>
     </row>
-    <row r="48" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="32">
       <c r="A48" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8522,7 +8525,7 @@
       <c r="S48" s="81"/>
       <c r="T48" s="56"/>
     </row>
-    <row r="49" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="32">
       <c r="A49" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8569,7 +8572,7 @@
       <c r="S49" s="81"/>
       <c r="T49" s="56"/>
     </row>
-    <row r="50" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="32">
       <c r="A50" s="58" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -8616,7 +8619,7 @@
       <c r="S50" s="81"/>
       <c r="T50" s="56"/>
     </row>
-    <row r="51" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="112">
       <c r="A51" s="58" t="str">
         <f t="shared" ref="A51:C69" si="11">A$34</f>
         <v>Transportation</v>
@@ -8689,7 +8692,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="32">
       <c r="A52" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8731,7 +8734,7 @@
       <c r="R52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="32">
       <c r="A53" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8778,7 +8781,7 @@
       <c r="S53" s="81"/>
       <c r="T53" s="56"/>
     </row>
-    <row r="54" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="32">
       <c r="A54" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8825,7 +8828,7 @@
       <c r="S54" s="81"/>
       <c r="T54" s="56"/>
     </row>
-    <row r="55" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="32">
       <c r="A55" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8872,7 +8875,7 @@
       <c r="S55" s="81"/>
       <c r="T55" s="56"/>
     </row>
-    <row r="56" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="32">
       <c r="A56" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8919,7 +8922,7 @@
       <c r="S56" s="81"/>
       <c r="T56" s="56"/>
     </row>
-    <row r="57" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="80">
       <c r="A57" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -8992,7 +8995,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="32">
       <c r="A58" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9034,7 +9037,7 @@
       <c r="R58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="32">
       <c r="A59" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9081,7 +9084,7 @@
       <c r="S59" s="81"/>
       <c r="T59" s="56"/>
     </row>
-    <row r="60" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="32">
       <c r="A60" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9128,7 +9131,7 @@
       <c r="S60" s="81"/>
       <c r="T60" s="56"/>
     </row>
-    <row r="61" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="32">
       <c r="A61" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9175,7 +9178,7 @@
       <c r="S61" s="81"/>
       <c r="T61" s="56"/>
     </row>
-    <row r="62" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="32">
       <c r="A62" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9222,7 +9225,7 @@
       <c r="S62" s="81"/>
       <c r="T62" s="56"/>
     </row>
-    <row r="63" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="112">
       <c r="A63" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9295,7 +9298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="32">
       <c r="A64" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9337,7 +9340,7 @@
       <c r="R64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="32">
       <c r="A65" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9384,7 +9387,7 @@
       <c r="S65" s="81"/>
       <c r="T65" s="56"/>
     </row>
-    <row r="66" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="112">
       <c r="A66" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9457,7 +9460,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="32">
       <c r="A67" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9504,7 +9507,7 @@
       <c r="S67" s="81"/>
       <c r="T67" s="56"/>
     </row>
-    <row r="68" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="32">
       <c r="A68" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9551,7 +9554,7 @@
       <c r="S68" s="81"/>
       <c r="T68" s="56"/>
     </row>
-    <row r="69" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="32">
       <c r="A69" s="58" t="str">
         <f t="shared" si="11"/>
         <v>Transportation</v>
@@ -9598,7 +9601,7 @@
       <c r="S69" s="81"/>
       <c r="T69" s="56"/>
     </row>
-    <row r="70" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A70" s="11" t="s">
         <v>4</v>
       </c>
@@ -9648,7 +9651,7 @@
       <c r="S70" s="87"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="96">
       <c r="A71" s="56" t="s">
         <v>4</v>
       </c>
@@ -9704,7 +9707,7 @@
       </c>
       <c r="T71" s="56"/>
     </row>
-    <row r="72" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="64">
       <c r="A72" s="58" t="str">
         <f>A$71</f>
         <v>Transportation</v>
@@ -9772,7 +9775,7 @@
       </c>
       <c r="T72" s="56"/>
     </row>
-    <row r="73" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="64">
       <c r="A73" s="56" t="s">
         <v>82</v>
       </c>
@@ -9826,7 +9829,7 @@
       <c r="S73" s="81"/>
       <c r="T73" s="56"/>
     </row>
-    <row r="74" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="64">
       <c r="A74" s="58" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -9891,7 +9894,7 @@
       <c r="S74" s="83"/>
       <c r="T74" s="61"/>
     </row>
-    <row r="75" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="64">
       <c r="A75" s="58" t="str">
         <f>A$73</f>
         <v>Buildings and Appliances</v>
@@ -9956,7 +9959,7 @@
       <c r="S75" s="83"/>
       <c r="T75" s="61"/>
     </row>
-    <row r="76" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A76" s="56" t="s">
         <v>82</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A77" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10096,7 +10099,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A78" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10174,7 +10177,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A79" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10252,7 +10255,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A80" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10330,7 +10333,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A81" s="58" t="str">
         <f>A$76</f>
         <v>Buildings and Appliances</v>
@@ -10408,7 +10411,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A82" s="58" t="str">
         <f t="shared" ref="A82:C93" si="19">A$76</f>
         <v>Buildings and Appliances</v>
@@ -10487,7 +10490,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A83" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10566,7 +10569,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A84" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10645,7 +10648,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A85" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10724,7 +10727,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A86" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10803,7 +10806,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A87" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10882,7 +10885,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A88" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -10961,7 +10964,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A89" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11040,7 +11043,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A90" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11119,7 +11122,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A91" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11198,7 +11201,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A92" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11277,7 +11280,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A93" s="58" t="str">
         <f t="shared" si="19"/>
         <v>Buildings and Appliances</v>
@@ -11356,7 +11359,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="5" customFormat="1" ht="48">
       <c r="A94" s="56" t="s">
         <v>82</v>
       </c>
@@ -11408,7 +11411,7 @@
       </c>
       <c r="T94" s="58"/>
     </row>
-    <row r="95" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A95" s="56" t="s">
         <v>82</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A96" s="56" t="s">
         <v>82</v>
       </c>
@@ -11513,7 +11516,7 @@
       <c r="S96" s="87"/>
       <c r="T96" s="58"/>
     </row>
-    <row r="97" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="5" customFormat="1" ht="48">
       <c r="A97" s="56" t="s">
         <v>82</v>
       </c>
@@ -11565,7 +11568,7 @@
       </c>
       <c r="T97" s="58"/>
     </row>
-    <row r="98" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A98" s="56" t="s">
         <v>82</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A99" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11690,7 +11693,7 @@
       </c>
       <c r="T99" s="58"/>
     </row>
-    <row r="100" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A100" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11756,7 +11759,7 @@
       </c>
       <c r="T100" s="58"/>
     </row>
-    <row r="101" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A101" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11822,7 +11825,7 @@
       </c>
       <c r="T101" s="58"/>
     </row>
-    <row r="102" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A102" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11888,7 +11891,7 @@
       </c>
       <c r="T102" s="58"/>
     </row>
-    <row r="103" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A103" s="58" t="str">
         <f>A$98</f>
         <v>Buildings and Appliances</v>
@@ -11954,7 +11957,7 @@
       </c>
       <c r="T103" s="58"/>
     </row>
-    <row r="104" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A104" s="56" t="s">
         <v>82</v>
       </c>
@@ -12010,7 +12013,7 @@
       </c>
       <c r="T104" s="58"/>
     </row>
-    <row r="105" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A105" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12075,7 +12078,7 @@
       </c>
       <c r="T105" s="58"/>
     </row>
-    <row r="106" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A106" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12120,7 +12123,7 @@
       <c r="S106" s="86"/>
       <c r="T106" s="58"/>
     </row>
-    <row r="107" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A107" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12165,7 +12168,7 @@
       <c r="S107" s="86"/>
       <c r="T107" s="58"/>
     </row>
-    <row r="108" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A108" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12230,7 +12233,7 @@
       </c>
       <c r="T108" s="58"/>
     </row>
-    <row r="109" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A109" s="58" t="str">
         <f>A$104</f>
         <v>Buildings and Appliances</v>
@@ -12275,7 +12278,7 @@
       <c r="S109" s="86"/>
       <c r="T109" s="58"/>
     </row>
-    <row r="110" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A110" s="11" t="s">
         <v>8</v>
       </c>
@@ -12329,7 +12332,7 @@
       <c r="S110" s="87"/>
       <c r="T110" s="11"/>
     </row>
-    <row r="111" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A111" s="58" t="str">
         <f>A$110</f>
         <v>Electricity Supply</v>
@@ -12394,7 +12397,7 @@
       <c r="S111" s="86"/>
       <c r="T111" s="58"/>
     </row>
-    <row r="112" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A112" s="58" t="str">
         <f t="shared" ref="A112:C121" si="27">A$110</f>
         <v>Electricity Supply</v>
@@ -12459,7 +12462,7 @@
       <c r="S112" s="86"/>
       <c r="T112" s="58"/>
     </row>
-    <row r="113" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A113" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12524,7 +12527,7 @@
       <c r="S113" s="86"/>
       <c r="T113" s="58"/>
     </row>
-    <row r="114" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A114" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12567,7 +12570,7 @@
       <c r="S114" s="86"/>
       <c r="T114" s="58"/>
     </row>
-    <row r="115" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A115" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12610,7 +12613,7 @@
       <c r="S115" s="86"/>
       <c r="T115" s="58"/>
     </row>
-    <row r="116" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A116" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12653,7 +12656,7 @@
       <c r="S116" s="86"/>
       <c r="T116" s="58"/>
     </row>
-    <row r="117" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A117" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12696,7 +12699,7 @@
       <c r="S117" s="86"/>
       <c r="T117" s="58"/>
     </row>
-    <row r="118" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A118" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12739,7 +12742,7 @@
       <c r="S118" s="86"/>
       <c r="T118" s="58"/>
     </row>
-    <row r="119" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A119" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12782,7 +12785,7 @@
       <c r="S119" s="86"/>
       <c r="T119" s="58"/>
     </row>
-    <row r="120" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A120" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12845,7 +12848,7 @@
       <c r="S120" s="86"/>
       <c r="T120" s="58"/>
     </row>
-    <row r="121" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A121" s="58" t="str">
         <f t="shared" si="27"/>
         <v>Electricity Supply</v>
@@ -12888,7 +12891,7 @@
       <c r="S121" s="86"/>
       <c r="T121" s="58"/>
     </row>
-    <row r="122" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="3" customFormat="1" ht="48">
       <c r="A122" s="11" t="s">
         <v>8</v>
       </c>
@@ -12938,7 +12941,7 @@
       <c r="S122" s="87"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="3" customFormat="1" ht="48">
       <c r="A123" s="11" t="s">
         <v>8</v>
       </c>
@@ -12988,7 +12991,7 @@
       <c r="S123" s="87"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="32">
       <c r="A124" s="56" t="s">
         <v>8</v>
       </c>
@@ -13024,7 +13027,7 @@
       <c r="S124" s="81"/>
       <c r="T124" s="56"/>
     </row>
-    <row r="125" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" ht="48">
       <c r="A125" s="56" t="s">
         <v>8</v>
       </c>
@@ -13076,7 +13079,7 @@
       </c>
       <c r="T125" s="56"/>
     </row>
-    <row r="126" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" ht="128">
       <c r="A126" s="56" t="s">
         <v>8</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="32">
       <c r="A127" s="58" t="str">
         <f t="shared" ref="A127:C137" si="29">A$126</f>
         <v>Electricity Supply</v>
@@ -13179,7 +13182,7 @@
       <c r="S127" s="81"/>
       <c r="T127" s="56"/>
     </row>
-    <row r="128" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="32">
       <c r="A128" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13244,7 +13247,7 @@
       </c>
       <c r="T128" s="56"/>
     </row>
-    <row r="129" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="32">
       <c r="A129" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13289,7 +13292,7 @@
       <c r="S129" s="81"/>
       <c r="T129" s="56"/>
     </row>
-    <row r="130" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="32">
       <c r="A130" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13334,7 +13337,7 @@
       <c r="S130" s="81"/>
       <c r="T130" s="56"/>
     </row>
-    <row r="131" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="32">
       <c r="A131" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13379,7 +13382,7 @@
       <c r="S131" s="81"/>
       <c r="T131" s="56"/>
     </row>
-    <row r="132" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="32">
       <c r="A132" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13424,7 +13427,7 @@
       <c r="S132" s="81"/>
       <c r="T132" s="56"/>
     </row>
-    <row r="133" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="32">
       <c r="A133" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13469,7 +13472,7 @@
       <c r="S133" s="81"/>
       <c r="T133" s="56"/>
     </row>
-    <row r="134" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="32">
       <c r="A134" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13512,7 +13515,7 @@
       <c r="S134" s="81"/>
       <c r="T134" s="56"/>
     </row>
-    <row r="135" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="32">
       <c r="A135" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13555,7 +13558,7 @@
       <c r="S135" s="81"/>
       <c r="T135" s="56"/>
     </row>
-    <row r="136" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="32">
       <c r="A136" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13598,7 +13601,7 @@
       <c r="S136" s="81"/>
       <c r="T136" s="56"/>
     </row>
-    <row r="137" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="32">
       <c r="A137" s="58" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -13641,7 +13644,7 @@
       <c r="S137" s="81"/>
       <c r="T137" s="56"/>
     </row>
-    <row r="138" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="80">
       <c r="A138" s="56" t="s">
         <v>8</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="64">
       <c r="A139" s="56" t="s">
         <v>8</v>
       </c>
@@ -13749,7 +13752,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A140" s="56" t="s">
         <v>8</v>
       </c>
@@ -13793,7 +13796,7 @@
       <c r="S140" s="86"/>
       <c r="T140" s="58"/>
     </row>
-    <row r="141" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A141" s="56" t="s">
         <v>8</v>
       </c>
@@ -13829,7 +13832,7 @@
       <c r="S141" s="86"/>
       <c r="T141" s="58"/>
     </row>
-    <row r="142" spans="1:20" s="5" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="5" customFormat="1" ht="96">
       <c r="A142" s="56" t="s">
         <v>8</v>
       </c>
@@ -13881,7 +13884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A143" s="11" t="s">
         <v>8</v>
       </c>
@@ -13919,7 +13922,7 @@
       <c r="S143" s="87"/>
       <c r="T143" s="11"/>
     </row>
-    <row r="144" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A144" s="60" t="str">
         <f t="shared" ref="A144:C173" si="31">A$143</f>
         <v>Electricity Supply</v>
@@ -13962,7 +13965,7 @@
       <c r="S144" s="87"/>
       <c r="T144" s="11"/>
     </row>
-    <row r="145" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A145" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14005,7 +14008,7 @@
       <c r="S145" s="87"/>
       <c r="T145" s="11"/>
     </row>
-    <row r="146" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A146" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14070,7 +14073,7 @@
       </c>
       <c r="T146" s="11"/>
     </row>
-    <row r="147" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A147" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14113,7 +14116,7 @@
       <c r="S147" s="87"/>
       <c r="T147" s="11"/>
     </row>
-    <row r="148" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A148" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14156,7 +14159,7 @@
       <c r="S148" s="87"/>
       <c r="T148" s="11"/>
     </row>
-    <row r="149" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A149" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14199,7 +14202,7 @@
       <c r="S149" s="87"/>
       <c r="T149" s="11"/>
     </row>
-    <row r="150" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A150" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14242,7 +14245,7 @@
       <c r="S150" s="87"/>
       <c r="T150" s="11"/>
     </row>
-    <row r="151" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A151" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14285,7 +14288,7 @@
       <c r="S151" s="87"/>
       <c r="T151" s="11"/>
     </row>
-    <row r="152" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A152" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14328,7 +14331,7 @@
       <c r="S152" s="87"/>
       <c r="T152" s="11"/>
     </row>
-    <row r="153" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A153" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14371,7 +14374,7 @@
       <c r="S153" s="87"/>
       <c r="T153" s="11"/>
     </row>
-    <row r="154" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A154" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14414,7 +14417,7 @@
       <c r="S154" s="87"/>
       <c r="T154" s="11"/>
     </row>
-    <row r="155" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A155" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14457,7 +14460,7 @@
       <c r="S155" s="87"/>
       <c r="T155" s="11"/>
     </row>
-    <row r="156" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A156" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14500,7 +14503,7 @@
       <c r="S156" s="87"/>
       <c r="T156" s="11"/>
     </row>
-    <row r="157" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A157" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14565,7 +14568,7 @@
       </c>
       <c r="T157" s="11"/>
     </row>
-    <row r="158" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A158" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14608,7 +14611,7 @@
       <c r="S158" s="87"/>
       <c r="T158" s="11"/>
     </row>
-    <row r="159" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A159" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14651,7 +14654,7 @@
       <c r="S159" s="87"/>
       <c r="T159" s="11"/>
     </row>
-    <row r="160" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="3" customFormat="1" ht="80">
       <c r="A160" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14716,7 +14719,7 @@
       </c>
       <c r="T160" s="11"/>
     </row>
-    <row r="161" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A161" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14759,7 +14762,7 @@
       <c r="S161" s="87"/>
       <c r="T161" s="11"/>
     </row>
-    <row r="162" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A162" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14802,7 +14805,7 @@
       <c r="S162" s="87"/>
       <c r="T162" s="11"/>
     </row>
-    <row r="163" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A163" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14845,7 +14848,7 @@
       <c r="S163" s="87"/>
       <c r="T163" s="11"/>
     </row>
-    <row r="164" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A164" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14888,7 +14891,7 @@
       <c r="S164" s="87"/>
       <c r="T164" s="11"/>
     </row>
-    <row r="165" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A165" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14931,7 +14934,7 @@
       <c r="S165" s="87"/>
       <c r="T165" s="11"/>
     </row>
-    <row r="166" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A166" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -14974,7 +14977,7 @@
       <c r="S166" s="87"/>
       <c r="T166" s="11"/>
     </row>
-    <row r="167" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A167" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15017,7 +15020,7 @@
       <c r="S167" s="87"/>
       <c r="T167" s="11"/>
     </row>
-    <row r="168" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A168" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15060,7 +15063,7 @@
       <c r="S168" s="87"/>
       <c r="T168" s="11"/>
     </row>
-    <row r="169" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A169" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15103,7 +15106,7 @@
       <c r="S169" s="87"/>
       <c r="T169" s="11"/>
     </row>
-    <row r="170" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A170" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15146,7 +15149,7 @@
       <c r="S170" s="87"/>
       <c r="T170" s="11"/>
     </row>
-    <row r="171" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A171" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15189,7 +15192,7 @@
       <c r="S171" s="87"/>
       <c r="T171" s="11"/>
     </row>
-    <row r="172" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A172" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15232,7 +15235,7 @@
       <c r="S172" s="87"/>
       <c r="T172" s="11"/>
     </row>
-    <row r="173" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A173" s="60" t="str">
         <f t="shared" si="31"/>
         <v>Electricity Supply</v>
@@ -15275,7 +15278,7 @@
       <c r="S173" s="87"/>
       <c r="T173" s="11"/>
     </row>
-    <row r="174" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A174" s="60" t="str">
         <f t="shared" ref="A174:C178" si="33">A$143</f>
         <v>Electricity Supply</v>
@@ -15318,7 +15321,7 @@
       <c r="S174" s="87"/>
       <c r="T174" s="11"/>
     </row>
-    <row r="175" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A175" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15361,7 +15364,7 @@
       <c r="S175" s="87"/>
       <c r="T175" s="11"/>
     </row>
-    <row r="176" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A176" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15404,7 +15407,7 @@
       <c r="S176" s="87"/>
       <c r="T176" s="11"/>
     </row>
-    <row r="177" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="3" customFormat="1" ht="32">
       <c r="A177" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15447,7 +15450,7 @@
       <c r="S177" s="87"/>
       <c r="T177" s="11"/>
     </row>
-    <row r="178" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="3" customFormat="1" ht="96">
       <c r="A178" s="60" t="str">
         <f t="shared" si="33"/>
         <v>Electricity Supply</v>
@@ -15512,7 +15515,7 @@
       </c>
       <c r="T178" s="11"/>
     </row>
-    <row r="179" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A179" s="11" t="s">
         <v>8</v>
       </c>
@@ -15566,7 +15569,7 @@
       <c r="S179" s="87"/>
       <c r="T179" s="11"/>
     </row>
-    <row r="180" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A180" s="60" t="str">
         <f>A$179</f>
         <v>Electricity Supply</v>
@@ -15631,7 +15634,7 @@
       <c r="S180" s="87"/>
       <c r="T180" s="11"/>
     </row>
-    <row r="181" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A181" s="60" t="str">
         <f>A$179</f>
         <v>Electricity Supply</v>
@@ -15696,7 +15699,7 @@
       <c r="S181" s="87"/>
       <c r="T181" s="11"/>
     </row>
-    <row r="182" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="3" customFormat="1" ht="48">
       <c r="A182" s="11" t="s">
         <v>8</v>
       </c>
@@ -15748,7 +15751,7 @@
       </c>
       <c r="T182" s="11"/>
     </row>
-    <row r="183" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="5" customFormat="1" ht="48">
       <c r="A183" s="56" t="s">
         <v>8</v>
       </c>
@@ -15796,7 +15799,7 @@
       <c r="S183" s="87"/>
       <c r="T183" s="56"/>
     </row>
-    <row r="184" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A184" s="56" t="s">
         <v>8</v>
       </c>
@@ -15836,7 +15839,7 @@
       <c r="S184" s="87"/>
       <c r="T184" s="58"/>
     </row>
-    <row r="185" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A185" s="58" t="str">
         <f t="shared" ref="A185:C194" si="36">A$184</f>
         <v>Electricity Supply</v>
@@ -15881,7 +15884,7 @@
       <c r="S185" s="87"/>
       <c r="T185" s="58"/>
     </row>
-    <row r="186" spans="1:20" s="5" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="5" customFormat="1" ht="128">
       <c r="A186" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -15942,7 +15945,7 @@
       </c>
       <c r="T186" s="56"/>
     </row>
-    <row r="187" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A187" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -15985,7 +15988,7 @@
       <c r="S187" s="86"/>
       <c r="T187" s="58"/>
     </row>
-    <row r="188" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" ht="128">
       <c r="A188" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16051,7 +16054,7 @@
       </c>
       <c r="T188" s="56"/>
     </row>
-    <row r="189" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" ht="128">
       <c r="A189" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16117,7 +16120,7 @@
       </c>
       <c r="T189" s="56"/>
     </row>
-    <row r="190" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" ht="128">
       <c r="A190" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16183,7 +16186,7 @@
       </c>
       <c r="T190" s="56"/>
     </row>
-    <row r="191" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" ht="128">
       <c r="A191" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16249,7 +16252,7 @@
       </c>
       <c r="T191" s="56"/>
     </row>
-    <row r="192" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" ht="32">
       <c r="A192" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16292,7 +16295,7 @@
       <c r="S192" s="86"/>
       <c r="T192" s="56"/>
     </row>
-    <row r="193" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" ht="128">
       <c r="A193" s="58" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16358,7 +16361,7 @@
       </c>
       <c r="T193" s="56"/>
     </row>
-    <row r="194" spans="1:20" s="120" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="120" customFormat="1" ht="128">
       <c r="A194" s="115" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -16421,7 +16424,7 @@
       </c>
       <c r="T194" s="119"/>
     </row>
-    <row r="195" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" ht="48">
       <c r="A195" s="56" t="s">
         <v>9</v>
       </c>
@@ -16473,7 +16476,7 @@
       </c>
       <c r="T195" s="56"/>
     </row>
-    <row r="196" spans="1:20" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="5" customFormat="1" ht="48">
       <c r="A196" s="56" t="s">
         <v>9</v>
       </c>
@@ -16525,7 +16528,7 @@
       </c>
       <c r="T196" s="58"/>
     </row>
-    <row r="197" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A197" s="56" t="s">
         <v>9</v>
       </c>
@@ -16577,7 +16580,7 @@
       </c>
       <c r="T197" s="58"/>
     </row>
-    <row r="198" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A198" s="56" t="s">
         <v>9</v>
       </c>
@@ -16636,7 +16639,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A199" s="58" t="str">
         <f>A$198</f>
         <v>Industry</v>
@@ -16705,7 +16708,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="200" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A200" s="58" t="str">
         <f t="shared" ref="A200:A205" si="42">A$198</f>
         <v>Industry</v>
@@ -16774,7 +16777,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="201" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A201" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16843,7 +16846,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A202" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16912,7 +16915,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A203" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -16981,7 +16984,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" ht="80">
       <c r="A204" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -17050,7 +17053,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A205" s="58" t="str">
         <f t="shared" si="42"/>
         <v>Industry</v>
@@ -17119,7 +17122,7 @@
         <v>U.S. DOE, 2016, Industrial Energy Efficiency Potential Analysis, https://energy.gov/sites/prod/files/2017/04/f34/energy-savings-by-state-industrial-methodology.pdf</v>
       </c>
     </row>
-    <row r="206" spans="1:20" s="5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="5" customFormat="1" ht="80">
       <c r="A206" s="139" t="s">
         <v>9</v>
       </c>
@@ -17169,7 +17172,7 @@
       </c>
       <c r="T206" s="145"/>
     </row>
-    <row r="207" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" ht="96">
       <c r="A207" s="152" t="s">
         <v>9</v>
       </c>
@@ -17219,7 +17222,7 @@
       <c r="S207" s="158"/>
       <c r="T207" s="152"/>
     </row>
-    <row r="208" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" ht="112">
       <c r="A208" s="152" t="s">
         <v>9</v>
       </c>
@@ -17269,7 +17272,7 @@
       <c r="S208" s="158"/>
       <c r="T208" s="152"/>
     </row>
-    <row r="209" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" ht="64">
       <c r="A209" s="56" t="s">
         <v>9</v>
       </c>
@@ -17321,7 +17324,7 @@
       </c>
       <c r="T209" s="56"/>
     </row>
-    <row r="210" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" ht="48">
       <c r="A210" s="56" t="s">
         <v>9</v>
       </c>
@@ -17373,7 +17376,7 @@
       </c>
       <c r="T210" s="56"/>
     </row>
-    <row r="211" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="48">
       <c r="A211" s="56" t="s">
         <v>9</v>
       </c>
@@ -17425,7 +17428,7 @@
       </c>
       <c r="T211" s="56"/>
     </row>
-    <row r="212" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" ht="48">
       <c r="A212" s="56" t="s">
         <v>9</v>
       </c>
@@ -17477,7 +17480,7 @@
       </c>
       <c r="T212" s="56"/>
     </row>
-    <row r="213" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" ht="80">
       <c r="A213" s="56" t="s">
         <v>167</v>
       </c>
@@ -17531,7 +17534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" ht="32">
       <c r="A214" s="56" t="s">
         <v>167</v>
       </c>
@@ -17581,7 +17584,7 @@
       <c r="S214" s="81"/>
       <c r="T214" s="56"/>
     </row>
-    <row r="215" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" ht="32">
       <c r="A215" s="56" t="s">
         <v>167</v>
       </c>
@@ -17617,7 +17620,7 @@
       <c r="S215" s="81"/>
       <c r="T215" s="56"/>
     </row>
-    <row r="216" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="32">
       <c r="A216" s="56" t="s">
         <v>167</v>
       </c>
@@ -17669,7 +17672,7 @@
       </c>
       <c r="T216" s="56"/>
     </row>
-    <row r="217" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="48">
       <c r="A217" s="56" t="s">
         <v>167</v>
       </c>
@@ -17721,7 +17724,7 @@
       </c>
       <c r="T217" s="56"/>
     </row>
-    <row r="218" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="48">
       <c r="A218" s="56" t="s">
         <v>167</v>
       </c>
@@ -17773,7 +17776,7 @@
       </c>
       <c r="T218" s="56"/>
     </row>
-    <row r="219" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" ht="48">
       <c r="A219" s="56" t="s">
         <v>167</v>
       </c>
@@ -17825,7 +17828,7 @@
       </c>
       <c r="T219" s="56"/>
     </row>
-    <row r="220" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="32">
       <c r="A220" s="56" t="s">
         <v>167</v>
       </c>
@@ -17861,7 +17864,7 @@
       <c r="S220" s="81"/>
       <c r="T220" s="56"/>
     </row>
-    <row r="221" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="48">
       <c r="A221" s="56" t="s">
         <v>167</v>
       </c>
@@ -17913,7 +17916,7 @@
       </c>
       <c r="T221" s="56"/>
     </row>
-    <row r="222" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A222" s="11" t="s">
         <v>436</v>
       </c>
@@ -17965,7 +17968,7 @@
       </c>
       <c r="T222" s="11"/>
     </row>
-    <row r="223" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="3" customFormat="1" ht="48">
       <c r="A223" s="11" t="s">
         <v>436</v>
       </c>
@@ -18017,7 +18020,7 @@
       </c>
       <c r="T223" s="11"/>
     </row>
-    <row r="224" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="48">
       <c r="A224" s="56" t="s">
         <v>10</v>
       </c>
@@ -18069,7 +18072,7 @@
       </c>
       <c r="T224" s="56"/>
     </row>
-    <row r="225" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A225" s="56" t="s">
         <v>10</v>
       </c>
@@ -18127,7 +18130,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A226" s="58" t="str">
         <f>A$225</f>
         <v>Cross-Sector</v>
@@ -18192,7 +18195,7 @@
       <c r="S226" s="87"/>
       <c r="T226" s="58"/>
     </row>
-    <row r="227" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A227" s="58" t="str">
         <f t="shared" ref="A227:C231" si="46">A$225</f>
         <v>Cross-Sector</v>
@@ -18257,7 +18260,7 @@
       <c r="S227" s="87"/>
       <c r="T227" s="58"/>
     </row>
-    <row r="228" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A228" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18322,7 +18325,7 @@
       <c r="S228" s="87"/>
       <c r="T228" s="58"/>
     </row>
-    <row r="229" spans="1:20" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="5" customFormat="1" ht="64">
       <c r="A229" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18387,7 +18390,7 @@
       <c r="S229" s="87"/>
       <c r="T229" s="58"/>
     </row>
-    <row r="230" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A230" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18430,7 +18433,7 @@
       <c r="S230" s="87"/>
       <c r="T230" s="58"/>
     </row>
-    <row r="231" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A231" s="58" t="str">
         <f t="shared" si="46"/>
         <v>Cross-Sector</v>
@@ -18473,7 +18476,7 @@
       <c r="S231" s="87"/>
       <c r="T231" s="58"/>
     </row>
-    <row r="232" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A232" s="56" t="s">
         <v>10</v>
       </c>
@@ -18513,7 +18516,7 @@
       <c r="S232" s="86"/>
       <c r="T232" s="58"/>
     </row>
-    <row r="233" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A233" s="58" t="str">
         <f>A$232</f>
         <v>Cross-Sector</v>
@@ -18574,7 +18577,7 @@
       </c>
       <c r="T233" s="58"/>
     </row>
-    <row r="234" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A234" s="58" t="str">
         <f t="shared" ref="A234:A247" si="49">A$232</f>
         <v>Cross-Sector</v>
@@ -18639,7 +18642,7 @@
       </c>
       <c r="T234" s="58"/>
     </row>
-    <row r="235" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A235" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18704,7 +18707,7 @@
       </c>
       <c r="T235" s="58"/>
     </row>
-    <row r="236" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A236" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18749,7 +18752,7 @@
       <c r="S236" s="81"/>
       <c r="T236" s="58"/>
     </row>
-    <row r="237" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A237" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18794,7 +18797,7 @@
       <c r="S237" s="81"/>
       <c r="T237" s="58"/>
     </row>
-    <row r="238" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A238" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18859,7 +18862,7 @@
       </c>
       <c r="T238" s="58"/>
     </row>
-    <row r="239" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A239" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18904,7 +18907,7 @@
       <c r="S239" s="86"/>
       <c r="T239" s="58"/>
     </row>
-    <row r="240" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A240" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -18969,7 +18972,7 @@
       </c>
       <c r="T240" s="58"/>
     </row>
-    <row r="241" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A241" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19034,7 +19037,7 @@
       </c>
       <c r="T241" s="58"/>
     </row>
-    <row r="242" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A242" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19079,7 +19082,7 @@
       <c r="S242" s="86"/>
       <c r="T242" s="58"/>
     </row>
-    <row r="243" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A243" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19124,7 +19127,7 @@
       <c r="S243" s="86"/>
       <c r="T243" s="58"/>
     </row>
-    <row r="244" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A244" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19187,7 +19190,7 @@
       <c r="S244" s="81"/>
       <c r="T244" s="58"/>
     </row>
-    <row r="245" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A245" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19232,7 +19235,7 @@
       <c r="S245" s="86"/>
       <c r="T245" s="58"/>
     </row>
-    <row r="246" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A246" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19275,7 +19278,7 @@
       <c r="S246" s="86"/>
       <c r="T246" s="58"/>
     </row>
-    <row r="247" spans="1:20" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="5" customFormat="1" ht="32">
       <c r="A247" s="58" t="str">
         <f t="shared" si="49"/>
         <v>Cross-Sector</v>
@@ -19318,7 +19321,7 @@
       <c r="S247" s="86"/>
       <c r="T247" s="58"/>
     </row>
-    <row r="248" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="3" customFormat="1" ht="64">
       <c r="A248" s="11" t="s">
         <v>10</v>
       </c>
@@ -19352,7 +19355,7 @@
       <c r="S248" s="81"/>
       <c r="T248" s="11"/>
     </row>
-    <row r="249" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A249" s="56" t="s">
         <v>10</v>
       </c>
@@ -19408,7 +19411,7 @@
       </c>
       <c r="T249" s="58"/>
     </row>
-    <row r="250" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A250" s="61" t="str">
         <f t="shared" ref="A250:C263" si="53">A$249</f>
         <v>Cross-Sector</v>
@@ -19474,7 +19477,7 @@
       </c>
       <c r="T250" s="58"/>
     </row>
-    <row r="251" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A251" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19540,7 +19543,7 @@
       </c>
       <c r="T251" s="58"/>
     </row>
-    <row r="252" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A252" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19585,7 +19588,7 @@
       <c r="S252" s="86"/>
       <c r="T252" s="58"/>
     </row>
-    <row r="253" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A253" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19630,7 +19633,7 @@
       <c r="S253" s="86"/>
       <c r="T253" s="58"/>
     </row>
-    <row r="254" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A254" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19675,7 +19678,7 @@
       <c r="S254" s="86"/>
       <c r="T254" s="58"/>
     </row>
-    <row r="255" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A255" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19720,7 +19723,7 @@
       <c r="S255" s="86"/>
       <c r="T255" s="58"/>
     </row>
-    <row r="256" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A256" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19765,7 +19768,7 @@
       <c r="S256" s="86"/>
       <c r="T256" s="58"/>
     </row>
-    <row r="257" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A257" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19831,7 +19834,7 @@
       </c>
       <c r="T257" s="58"/>
     </row>
-    <row r="258" spans="1:20" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="5" customFormat="1" ht="112">
       <c r="A258" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19897,7 +19900,7 @@
       </c>
       <c r="T258" s="58"/>
     </row>
-    <row r="259" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A259" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19942,7 +19945,7 @@
       <c r="S259" s="86"/>
       <c r="T259" s="58"/>
     </row>
-    <row r="260" spans="1:20" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="5" customFormat="1" ht="16">
       <c r="A260" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -19987,7 +19990,7 @@
       <c r="S260" s="86"/>
       <c r="T260" s="58"/>
     </row>
-    <row r="261" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" ht="16">
       <c r="A261" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20030,7 +20033,7 @@
       <c r="S261" s="86"/>
       <c r="T261" s="56"/>
     </row>
-    <row r="262" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" ht="16">
       <c r="A262" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20075,7 +20078,7 @@
       <c r="S262" s="81"/>
       <c r="T262" s="56"/>
     </row>
-    <row r="263" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" ht="16">
       <c r="A263" s="61" t="str">
         <f t="shared" si="53"/>
         <v>Cross-Sector</v>
@@ -20118,7 +20121,7 @@
       <c r="S263" s="81"/>
       <c r="T263" s="56"/>
     </row>
-    <row r="264" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" ht="96">
       <c r="A264" s="56" t="s">
         <v>31</v>
       </c>
@@ -20174,7 +20177,7 @@
       </c>
       <c r="T264" s="56"/>
     </row>
-    <row r="265" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" ht="96">
       <c r="A265" s="58" t="str">
         <f t="shared" ref="A265:C271" si="55">A$264</f>
         <v>R&amp;D</v>
@@ -20239,7 +20242,7 @@
       </c>
       <c r="T265" s="56"/>
     </row>
-    <row r="266" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" ht="96">
       <c r="A266" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20304,7 +20307,7 @@
       </c>
       <c r="T266" s="56"/>
     </row>
-    <row r="267" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" ht="96">
       <c r="A267" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20369,7 +20372,7 @@
       </c>
       <c r="T267" s="56"/>
     </row>
-    <row r="268" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" ht="96">
       <c r="A268" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20434,7 +20437,7 @@
       </c>
       <c r="T268" s="56"/>
     </row>
-    <row r="269" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" ht="96">
       <c r="A269" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20499,7 +20502,7 @@
       </c>
       <c r="T269" s="56"/>
     </row>
-    <row r="270" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" ht="96">
       <c r="A270" s="58" t="str">
         <f t="shared" si="55"/>
         <v>R&amp;D</v>
@@ -20556,7 +20559,7 @@
       </c>
       <c r="T270" s="56"/>
     </row>
-    <row r="271" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" ht="96">
       <c r="A271" s="56" t="s">
         <v>31</v>
       </c>
@@ -20614,7 +20617,7 @@
       </c>
       <c r="T271" s="56"/>
     </row>
-    <row r="272" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" ht="96">
       <c r="A272" s="58" t="str">
         <f>A$271</f>
         <v>R&amp;D</v>
@@ -20679,7 +20682,7 @@
       </c>
       <c r="T272" s="56"/>
     </row>
-    <row r="273" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" ht="96">
       <c r="A273" s="58" t="str">
         <f t="shared" ref="A273:C281" si="59">A$271</f>
         <v>R&amp;D</v>
@@ -20744,7 +20747,7 @@
       </c>
       <c r="T273" s="56"/>
     </row>
-    <row r="274" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" ht="96">
       <c r="A274" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20809,7 +20812,7 @@
       </c>
       <c r="T274" s="56"/>
     </row>
-    <row r="275" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" ht="96">
       <c r="A275" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20874,7 +20877,7 @@
       </c>
       <c r="T275" s="56"/>
     </row>
-    <row r="276" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" ht="96">
       <c r="A276" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -20939,7 +20942,7 @@
       </c>
       <c r="T276" s="56"/>
     </row>
-    <row r="277" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" ht="96">
       <c r="A277" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21004,7 +21007,7 @@
       </c>
       <c r="T277" s="56"/>
     </row>
-    <row r="278" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" ht="96">
       <c r="A278" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21069,7 +21072,7 @@
       </c>
       <c r="T278" s="56"/>
     </row>
-    <row r="279" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" ht="96">
       <c r="A279" s="58" t="str">
         <f>A$271</f>
         <v>R&amp;D</v>
@@ -21134,7 +21137,7 @@
       </c>
       <c r="T279" s="56"/>
     </row>
-    <row r="280" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" ht="96">
       <c r="A280" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21199,7 +21202,7 @@
       </c>
       <c r="T280" s="56"/>
     </row>
-    <row r="281" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" ht="96">
       <c r="A281" s="58" t="str">
         <f t="shared" si="59"/>
         <v>R&amp;D</v>
@@ -21264,7 +21267,7 @@
       </c>
       <c r="T281" s="56"/>
     </row>
-    <row r="282" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" ht="96">
       <c r="A282" s="56" t="s">
         <v>31</v>
       </c>
@@ -21322,7 +21325,7 @@
       </c>
       <c r="T282" s="56"/>
     </row>
-    <row r="283" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" ht="96">
       <c r="A283" s="58" t="str">
         <f>A$282</f>
         <v>R&amp;D</v>
@@ -21387,7 +21390,7 @@
       </c>
       <c r="T283" s="56"/>
     </row>
-    <row r="284" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" ht="96">
       <c r="A284" s="58" t="str">
         <f t="shared" ref="A284:A289" si="62">A$282</f>
         <v>R&amp;D</v>
@@ -21452,7 +21455,7 @@
       </c>
       <c r="T284" s="56"/>
     </row>
-    <row r="285" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" ht="96">
       <c r="A285" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21517,7 +21520,7 @@
       </c>
       <c r="T285" s="56"/>
     </row>
-    <row r="286" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" ht="96">
       <c r="A286" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21582,7 +21585,7 @@
       </c>
       <c r="T286" s="56"/>
     </row>
-    <row r="287" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" ht="96">
       <c r="A287" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21647,7 +21650,7 @@
       </c>
       <c r="T287" s="56"/>
     </row>
-    <row r="288" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" ht="96">
       <c r="A288" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21712,7 +21715,7 @@
       </c>
       <c r="T288" s="56"/>
     </row>
-    <row r="289" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" ht="96">
       <c r="A289" s="58" t="str">
         <f t="shared" si="62"/>
         <v>R&amp;D</v>
@@ -21777,7 +21780,7 @@
       </c>
       <c r="T289" s="56"/>
     </row>
-    <row r="290" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" ht="96">
       <c r="A290" s="11" t="s">
         <v>31</v>
       </c>
@@ -21835,7 +21838,7 @@
       </c>
       <c r="T290" s="56"/>
     </row>
-    <row r="291" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" ht="96">
       <c r="A291" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -21900,7 +21903,7 @@
       </c>
       <c r="T291" s="56"/>
     </row>
-    <row r="292" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" ht="96">
       <c r="A292" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -21965,7 +21968,7 @@
       </c>
       <c r="T292" s="56"/>
     </row>
-    <row r="293" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" ht="96">
       <c r="A293" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22030,7 +22033,7 @@
       </c>
       <c r="T293" s="56"/>
     </row>
-    <row r="294" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" ht="96">
       <c r="A294" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22095,7 +22098,7 @@
       </c>
       <c r="T294" s="56"/>
     </row>
-    <row r="295" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" ht="96">
       <c r="A295" s="58" t="str">
         <f>A$290</f>
         <v>R&amp;D</v>
@@ -22160,7 +22163,7 @@
       </c>
       <c r="T295" s="56"/>
     </row>
-    <row r="296" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" ht="96">
       <c r="A296" s="56" t="s">
         <v>31</v>
       </c>
@@ -22216,7 +22219,7 @@
       </c>
       <c r="T296" s="56"/>
     </row>
-    <row r="297" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" ht="96">
       <c r="A297" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22281,7 +22284,7 @@
       </c>
       <c r="T297" s="56"/>
     </row>
-    <row r="298" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" ht="32">
       <c r="A298" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22324,7 +22327,7 @@
       <c r="S298" s="81"/>
       <c r="T298" s="56"/>
     </row>
-    <row r="299" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" ht="96">
       <c r="A299" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22389,7 +22392,7 @@
       </c>
       <c r="T299" s="56"/>
     </row>
-    <row r="300" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" ht="96">
       <c r="A300" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22454,7 +22457,7 @@
       </c>
       <c r="T300" s="56"/>
     </row>
-    <row r="301" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" ht="96">
       <c r="A301" s="58" t="str">
         <f>A$296</f>
         <v>R&amp;D</v>
@@ -22519,7 +22522,7 @@
       </c>
       <c r="T301" s="56"/>
     </row>
-    <row r="302" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" ht="96">
       <c r="A302" s="56" t="s">
         <v>31</v>
       </c>
@@ -22575,7 +22578,7 @@
       </c>
       <c r="T302" s="56"/>
     </row>
-    <row r="303" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" ht="96">
       <c r="A303" s="56" t="s">
         <v>31</v>
       </c>
@@ -22633,7 +22636,7 @@
       </c>
       <c r="T303" s="56"/>
     </row>
-    <row r="304" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" ht="96">
       <c r="A304" s="58" t="str">
         <f>A$303</f>
         <v>R&amp;D</v>
@@ -22698,7 +22701,7 @@
       </c>
       <c r="T304" s="56"/>
     </row>
-    <row r="305" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" ht="96">
       <c r="A305" s="58" t="str">
         <f t="shared" ref="A305:C313" si="69">A$303</f>
         <v>R&amp;D</v>
@@ -22763,7 +22766,7 @@
       </c>
       <c r="T305" s="56"/>
     </row>
-    <row r="306" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" ht="32">
       <c r="A306" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22808,7 +22811,7 @@
       <c r="S306" s="81"/>
       <c r="T306" s="56"/>
     </row>
-    <row r="307" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" ht="32">
       <c r="A307" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22853,7 +22856,7 @@
       <c r="S307" s="81"/>
       <c r="T307" s="56"/>
     </row>
-    <row r="308" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" ht="32">
       <c r="A308" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22898,7 +22901,7 @@
       <c r="S308" s="81"/>
       <c r="T308" s="56"/>
     </row>
-    <row r="309" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" ht="32">
       <c r="A309" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -22943,7 +22946,7 @@
       <c r="S309" s="81"/>
       <c r="T309" s="56"/>
     </row>
-    <row r="310" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" ht="96">
       <c r="A310" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -23008,7 +23011,7 @@
       </c>
       <c r="T310" s="56"/>
     </row>
-    <row r="311" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" ht="96">
       <c r="A311" s="58" t="str">
         <f>A$303</f>
         <v>R&amp;D</v>
@@ -23073,7 +23076,7 @@
       </c>
       <c r="T311" s="56"/>
     </row>
-    <row r="312" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" ht="96">
       <c r="A312" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -23138,7 +23141,7 @@
       </c>
       <c r="T312" s="56"/>
     </row>
-    <row r="313" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" ht="32">
       <c r="A313" s="58" t="str">
         <f t="shared" si="69"/>
         <v>R&amp;D</v>
@@ -23181,7 +23184,7 @@
       <c r="S313" s="81"/>
       <c r="T313" s="56"/>
     </row>
-    <row r="314" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" ht="96">
       <c r="A314" s="56" t="s">
         <v>31</v>
       </c>
@@ -23239,7 +23242,7 @@
       </c>
       <c r="T314" s="56"/>
     </row>
-    <row r="315" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" ht="96">
       <c r="A315" s="58" t="str">
         <f>A$314</f>
         <v>R&amp;D</v>
@@ -23304,7 +23307,7 @@
       </c>
       <c r="T315" s="56"/>
     </row>
-    <row r="316" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" ht="96">
       <c r="A316" s="58" t="str">
         <f t="shared" ref="A316:A321" si="72">A$314</f>
         <v>R&amp;D</v>
@@ -23369,7 +23372,7 @@
       </c>
       <c r="T316" s="56"/>
     </row>
-    <row r="317" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" ht="96">
       <c r="A317" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23434,7 +23437,7 @@
       </c>
       <c r="T317" s="56"/>
     </row>
-    <row r="318" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" ht="96">
       <c r="A318" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23499,7 +23502,7 @@
       </c>
       <c r="T318" s="56"/>
     </row>
-    <row r="319" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" ht="96">
       <c r="A319" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23564,7 +23567,7 @@
       </c>
       <c r="T319" s="56"/>
     </row>
-    <row r="320" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" ht="96">
       <c r="A320" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23629,7 +23632,7 @@
       </c>
       <c r="T320" s="56"/>
     </row>
-    <row r="321" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" ht="96">
       <c r="A321" s="58" t="str">
         <f t="shared" si="72"/>
         <v>R&amp;D</v>
@@ -23694,7 +23697,7 @@
       </c>
       <c r="T321" s="56"/>
     </row>
-    <row r="322" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" ht="96">
       <c r="A322" s="56" t="s">
         <v>31</v>
       </c>
@@ -23752,7 +23755,7 @@
       </c>
       <c r="T322" s="56"/>
     </row>
-    <row r="323" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" ht="96">
       <c r="A323" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23817,7 +23820,7 @@
       </c>
       <c r="T323" s="56"/>
     </row>
-    <row r="324" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" ht="96">
       <c r="A324" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23882,7 +23885,7 @@
       </c>
       <c r="T324" s="56"/>
     </row>
-    <row r="325" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" ht="96">
       <c r="A325" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -23947,7 +23950,7 @@
       </c>
       <c r="T325" s="56"/>
     </row>
-    <row r="326" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" ht="96">
       <c r="A326" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -24012,7 +24015,7 @@
       </c>
       <c r="T326" s="56"/>
     </row>
-    <row r="327" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" ht="96">
       <c r="A327" s="58" t="str">
         <f>A$322</f>
         <v>R&amp;D</v>
@@ -24193,7 +24196,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.1640625" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" customWidth="1"/>
@@ -24203,7 +24206,7 @@
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="48">
       <c r="A1" s="93" t="s">
         <v>789</v>
       </c>
@@ -24229,7 +24232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="4" t="s">
         <v>820</v>
       </c>
@@ -24251,7 +24254,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="4" t="s">
         <v>820</v>
       </c>
@@ -24273,7 +24276,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="96">
       <c r="A4" s="4" t="s">
         <v>820</v>
       </c>
@@ -24299,7 +24302,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="32">
       <c r="A5" s="4" t="s">
         <v>820</v>
       </c>
@@ -24325,7 +24328,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="48">
       <c r="A6" s="4" t="s">
         <v>820</v>
       </c>
@@ -24351,7 +24354,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="4" t="s">
         <v>826</v>
       </c>
@@ -24373,7 +24376,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="4" t="s">
         <v>826</v>
       </c>
@@ -24395,7 +24398,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="4" t="s">
         <v>826</v>
       </c>
@@ -24417,7 +24420,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="4" t="s">
         <v>826</v>
       </c>
@@ -24439,7 +24442,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="4" t="s">
         <v>826</v>
       </c>
@@ -24461,7 +24464,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="4" t="s">
         <v>826</v>
       </c>
@@ -24483,7 +24486,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="4" t="s">
         <v>826</v>
       </c>
@@ -24505,7 +24508,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="4" t="s">
         <v>826</v>
       </c>
@@ -24527,7 +24530,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="4" t="s">
         <v>826</v>
       </c>
@@ -24549,7 +24552,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="4" t="s">
         <v>826</v>
       </c>
@@ -24571,7 +24574,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="4" t="s">
         <v>826</v>
       </c>
@@ -24593,7 +24596,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="4" t="s">
         <v>826</v>
       </c>
@@ -24615,7 +24618,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="96">
       <c r="A19" s="4" t="s">
         <v>827</v>
       </c>
@@ -24641,7 +24644,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="128">
       <c r="A20" s="4" t="s">
         <v>827</v>
       </c>
@@ -24667,7 +24670,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="48">
       <c r="A21" s="159" t="s">
         <v>827</v>
       </c>
@@ -24693,7 +24696,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="4" t="s">
         <v>451</v>
       </c>
@@ -24713,7 +24716,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="64">
       <c r="A23" s="4" t="s">
         <v>452</v>
       </c>
@@ -24735,7 +24738,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="64">
       <c r="A24" s="4" t="s">
         <v>452</v>
       </c>
@@ -24757,7 +24760,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="64">
       <c r="A25" s="4" t="s">
         <v>452</v>
       </c>
@@ -24779,7 +24782,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="64">
       <c r="A26" s="4" t="s">
         <v>452</v>
       </c>
@@ -24801,7 +24804,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="64">
       <c r="A27" s="4" t="s">
         <v>832</v>
       </c>
@@ -24827,7 +24830,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="64">
       <c r="A28" s="4" t="s">
         <v>832</v>
       </c>
@@ -24853,7 +24856,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="48">
       <c r="A29" s="4" t="s">
         <v>832</v>
       </c>
@@ -24879,7 +24882,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="48">
       <c r="A30" s="4" t="s">
         <v>832</v>
       </c>
@@ -24905,7 +24908,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="128">
       <c r="A31" s="4" t="s">
         <v>832</v>
       </c>
@@ -24931,7 +24934,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="4" t="s">
         <v>836</v>
       </c>
@@ -24953,7 +24956,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="4" t="s">
         <v>836</v>
       </c>
@@ -24975,7 +24978,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="192">
       <c r="A34" s="100" t="s">
         <v>839</v>
       </c>
@@ -25001,7 +25004,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="224">
       <c r="A35" s="4" t="s">
         <v>839</v>
       </c>
@@ -25027,7 +25030,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="192">
       <c r="A36" s="4" t="s">
         <v>839</v>
       </c>
@@ -25053,7 +25056,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="224">
       <c r="A37" s="4" t="s">
         <v>839</v>
       </c>
@@ -25079,7 +25082,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="160">
       <c r="A38" s="4" t="s">
         <v>844</v>
       </c>
@@ -25105,7 +25108,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="48">
       <c r="A39" s="4" t="s">
         <v>844</v>
       </c>
@@ -25131,7 +25134,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="80">
       <c r="A40" s="4" t="s">
         <v>847</v>
       </c>
@@ -25157,7 +25160,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="64">
       <c r="A41" s="4" t="s">
         <v>847</v>
       </c>
@@ -25183,7 +25186,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="80">
       <c r="A42" s="4" t="s">
         <v>850</v>
       </c>
@@ -25209,7 +25212,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="96">
       <c r="A43" s="4" t="s">
         <v>850</v>
       </c>
@@ -25235,7 +25238,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="80">
       <c r="A44" s="4" t="s">
         <v>850</v>
       </c>
@@ -25261,7 +25264,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="80">
       <c r="A45" s="4" t="s">
         <v>850</v>
       </c>
@@ -25287,7 +25290,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="48">
       <c r="A46" s="4" t="s">
         <v>850</v>
       </c>
@@ -25313,7 +25316,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="80">
       <c r="A47" s="4" t="s">
         <v>855</v>
       </c>
@@ -25339,7 +25342,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="64">
       <c r="A48" s="101" t="s">
         <v>855</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="80">
       <c r="A49" s="101" t="s">
         <v>855</v>
       </c>
@@ -25391,7 +25394,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="80">
       <c r="A50" s="101" t="s">
         <v>855</v>
       </c>
@@ -25417,7 +25420,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="48">
       <c r="A51" s="101" t="s">
         <v>855</v>
       </c>
@@ -25443,7 +25446,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="224">
       <c r="A52" s="100" t="s">
         <v>875</v>
       </c>
@@ -25469,7 +25472,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="112">
       <c r="A53" s="100" t="s">
         <v>875</v>
       </c>
@@ -25495,7 +25498,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="192">
       <c r="A54" s="100" t="s">
         <v>875</v>
       </c>
@@ -25521,7 +25524,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="112">
       <c r="A55" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25547,7 +25550,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="64">
       <c r="A56" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25573,7 +25576,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="96">
       <c r="A57" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25599,7 +25602,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="48">
       <c r="A58" s="101" t="s">
         <v>1160</v>
       </c>
@@ -25625,7 +25628,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="112">
       <c r="A59" s="101" t="s">
         <v>858</v>
       </c>
@@ -25651,7 +25654,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="64">
       <c r="A60" s="101" t="s">
         <v>858</v>
       </c>
@@ -25677,7 +25680,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="80">
       <c r="A61" s="101" t="s">
         <v>861</v>
       </c>
@@ -25703,7 +25706,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="48">
       <c r="A62" s="101" t="s">
         <v>861</v>
       </c>
@@ -25729,7 +25732,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="96">
       <c r="A63" s="101" t="s">
         <v>861</v>
       </c>
@@ -25755,7 +25758,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="128">
       <c r="A64" s="100" t="s">
         <v>865</v>
       </c>
@@ -25781,7 +25784,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="64">
       <c r="A65" s="100" t="s">
         <v>865</v>
       </c>
@@ -25807,7 +25810,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16">
       <c r="A66" s="100" t="s">
         <v>545</v>
       </c>
@@ -25829,7 +25832,7 @@
       <c r="G66" s="79"/>
       <c r="H66" s="99"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="16">
       <c r="A67" s="100" t="s">
         <v>545</v>
       </c>
@@ -25851,7 +25854,7 @@
       <c r="G67" s="79"/>
       <c r="H67" s="99"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="16">
       <c r="A68" s="100" t="s">
         <v>545</v>
       </c>
@@ -25873,7 +25876,7 @@
       <c r="G68" s="79"/>
       <c r="H68" s="99"/>
     </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16">
       <c r="A69" s="100" t="s">
         <v>545</v>
       </c>
@@ -25895,7 +25898,7 @@
       <c r="G69" s="79"/>
       <c r="H69" s="99"/>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="16">
       <c r="A70" s="100" t="s">
         <v>545</v>
       </c>
@@ -25917,7 +25920,7 @@
       <c r="G70" s="79"/>
       <c r="H70" s="99"/>
     </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16">
       <c r="A71" s="100" t="s">
         <v>545</v>
       </c>
@@ -25939,7 +25942,7 @@
       <c r="G71" s="79"/>
       <c r="H71" s="99"/>
     </row>
-    <row r="72" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="80">
       <c r="A72" s="101" t="s">
         <v>868</v>
       </c>
@@ -25965,7 +25968,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="64">
       <c r="A73" s="101" t="s">
         <v>868</v>
       </c>
@@ -25991,7 +25994,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="112">
       <c r="A74" s="101" t="s">
         <v>868</v>
       </c>
@@ -26017,7 +26020,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="32">
       <c r="A75" s="101" t="s">
         <v>868</v>
       </c>
@@ -26043,7 +26046,7 @@
         <v>969696</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="128">
       <c r="A76" s="101" t="s">
         <v>868</v>
       </c>
@@ -26069,7 +26072,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="96">
       <c r="A77" s="101" t="s">
         <v>868</v>
       </c>
@@ -26095,7 +26098,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="32">
       <c r="A78" s="101" t="s">
         <v>869</v>
       </c>
@@ -26117,7 +26120,7 @@
       <c r="G78" s="79"/>
       <c r="H78" s="99"/>
     </row>
-    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="48">
       <c r="A79" s="101" t="s">
         <v>869</v>
       </c>
@@ -26143,7 +26146,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32">
       <c r="A80" s="101" t="s">
         <v>869</v>
       </c>
@@ -26165,7 +26168,7 @@
       <c r="G80" s="79"/>
       <c r="H80" s="99"/>
     </row>
-    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="32">
       <c r="A81" s="101" t="s">
         <v>869</v>
       </c>
@@ -26187,7 +26190,7 @@
       <c r="G81" s="79"/>
       <c r="H81" s="99"/>
     </row>
-    <row r="82" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="32">
       <c r="A82" s="101" t="s">
         <v>869</v>
       </c>
@@ -26224,17 +26227,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" style="10" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
         <v>83</v>
       </c>
@@ -26242,15 +26245,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>1029</v>
       </c>
@@ -26258,7 +26261,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>1031</v>
       </c>
@@ -26266,7 +26269,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>1198</v>
       </c>
@@ -26293,7 +26296,7 @@
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" style="4" customWidth="1"/>
@@ -26303,7 +26306,7 @@
     <col min="6" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="32">
       <c r="A1" s="1" t="s">
         <v>416</v>
       </c>
@@ -26320,7 +26323,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="80">
       <c r="A2" s="4" t="s">
         <v>1033</v>
       </c>
@@ -26339,7 +26342,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="96">
       <c r="A3" s="4" t="s">
         <v>1034</v>
       </c>
@@ -26358,41 +26361,41 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>1039</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>1068</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="112" t="s">
         <v>1067</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="112"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="134" t="s">
         <v>1083</v>
       </c>
@@ -26401,7 +26404,7 @@
       <c r="D10" s="133"/>
       <c r="E10" s="131"/>
     </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="32">
       <c r="A11" s="112" t="s">
         <v>1071</v>
       </c>
@@ -26418,7 +26421,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="8">
         <v>738.3</v>
       </c>
@@ -26438,7 +26441,7 @@
         <v>73.83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32">
       <c r="A13" s="121" t="s">
         <v>1035</v>
       </c>
@@ -26455,14 +26458,14 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="135" t="s">
         <v>1084</v>
       </c>
@@ -26471,7 +26474,7 @@
       <c r="D15" s="131"/>
       <c r="E15" s="132"/>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="32">
       <c r="A16" s="112" t="s">
         <v>1072</v>
       </c>
@@ -26488,7 +26491,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="128">
         <f>A12*(B17/B12)</f>
         <v>796.4741122194514</v>
@@ -26509,7 +26512,7 @@
         <v>79.647411221945148</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="32">
       <c r="A18" s="127" t="s">
         <v>1082</v>
       </c>
@@ -26526,16 +26529,16 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" customFormat="1">
       <c r="E19" s="130"/>
     </row>
-    <row r="20" spans="1:5" s="149" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="149" customFormat="1">
       <c r="A20" s="148" t="s">
         <v>1127</v>
       </c>
       <c r="E20" s="150"/>
     </row>
-    <row r="21" spans="1:5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" customFormat="1" ht="64">
       <c r="A21" s="146" t="s">
         <v>1065</v>
       </c>
@@ -26552,7 +26555,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" customFormat="1" ht="80">
       <c r="A22" s="146" t="s">
         <v>1066</v>
       </c>
@@ -26569,1063 +26572,1063 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="545" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="546" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="547" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="548" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="549" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="550" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="551" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="552" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="553" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="554" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="555" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="556" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="557" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="558" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="559" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="560" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="561" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="562" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="563" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="564" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="565" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="566" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="567" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="568" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="569" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="570" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="571" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="572" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="573" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="574" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="575" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="576" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="577" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="578" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="579" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="580" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="581" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="582" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="583" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="584" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="585" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="586" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="587" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="588" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="589" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="590" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="591" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="592" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="593" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="594" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="595" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="596" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="597" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="598" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="599" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="600" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="601" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="602" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="603" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="604" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="605" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="606" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="607" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="608" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="609" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="610" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="611" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="612" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="613" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="614" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="615" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="616" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="617" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="618" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="619" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="620" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="621" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="622" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="623" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="624" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="625" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="626" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="627" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="628" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="629" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="630" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="631" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="632" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="633" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="634" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="635" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="636" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="637" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="638" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="639" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="640" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="641" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="642" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="643" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="644" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="645" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="646" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="647" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="648" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="649" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="650" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="651" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="652" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="653" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="654" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="655" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="656" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="657" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="658" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="659" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="660" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="661" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="662" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="663" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="664" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="665" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="666" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="667" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="668" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="669" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="670" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="671" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="672" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="673" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="674" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="675" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="676" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="677" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="678" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="679" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="680" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="681" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="682" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="683" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="684" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="685" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="686" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="687" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="688" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="689" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="690" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="691" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="692" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="693" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="694" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="695" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="696" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="697" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="698" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="699" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="700" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="701" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="702" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="703" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="704" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="705" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="706" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="707" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="708" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="709" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="710" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="711" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="712" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="713" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="714" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="715" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="716" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="717" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="718" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="719" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="720" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="721" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="722" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="723" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="724" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="725" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="726" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="727" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="728" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="729" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="730" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="731" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="732" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="733" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="734" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="735" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="736" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="737" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="738" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="739" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="740" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="743" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="744" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="745" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="746" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="747" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="748" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="749" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="750" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="751" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="752" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="753" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="754" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="755" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="756" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="757" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="758" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="759" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="760" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="761" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="762" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="763" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="764" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="765" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="766" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="767" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="768" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="769" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="770" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="771" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="772" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="773" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="774" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="775" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="776" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="777" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="778" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="779" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="780" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="781" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="782" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="783" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="784" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="785" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="786" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="787" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="788" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="789" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="790" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="791" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="792" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="793" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="794" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="795" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="796" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="797" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="798" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="799" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="800" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="801" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="802" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="803" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="804" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="805" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="806" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="807" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="808" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="809" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="810" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="811" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="812" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="813" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="814" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="815" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="816" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="817" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="818" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="819" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="820" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="821" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="822" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="823" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="824" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="825" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="826" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="827" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="828" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="829" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="830" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="831" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="832" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="833" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="834" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="835" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="836" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="837" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="838" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="839" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="840" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="841" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="842" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="843" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="844" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="845" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="846" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="847" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="848" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="849" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="850" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="851" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="852" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="853" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="854" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="855" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="856" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="857" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="858" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="859" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="860" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="861" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="862" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="863" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="864" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="865" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="866" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="867" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="868" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="869" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="870" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="871" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="872" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="873" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="874" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="875" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="876" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="877" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="878" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="879" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="880" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="881" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="882" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="883" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="884" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="885" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="886" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="887" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="888" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="889" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="890" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="891" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="892" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="893" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="894" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="895" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="896" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="897" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="898" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="899" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="900" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="901" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="902" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="903" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="904" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="905" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="906" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="907" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="908" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="909" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="910" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="911" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="912" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="913" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="914" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="915" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="916" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="917" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="918" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="919" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="920" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="921" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="922" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="923" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="924" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="925" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="926" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="927" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="928" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="929" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="930" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="931" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="932" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="933" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="934" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="935" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="936" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="937" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="938" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="939" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="940" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="941" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="942" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="943" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="944" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="945" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="946" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="947" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="948" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="949" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="950" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="951" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="952" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="953" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="954" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="955" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="956" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="957" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="958" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="959" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="960" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="961" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="962" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="963" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="964" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="965" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="966" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="967" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="968" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="969" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="970" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="971" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="972" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="973" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="974" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="975" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="976" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="977" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="978" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="979" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="980" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="981" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="982" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="983" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="984" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="985" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="986" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="987" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="988" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="989" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="990" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="991" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="992" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="993" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="994" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="995" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="996" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="997" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="998" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="999" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1026" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1027" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1028" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1029" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1030" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1031" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1032" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1033" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1034" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1035" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1036" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1037" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1038" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1039" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1040" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1041" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1042" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1043" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1044" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1045" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1046" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1047" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1048" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1049" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1050" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1051" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1052" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1053" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1054" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1055" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1056" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1057" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1058" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1059" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1060" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1061" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1062" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1063" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1064" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1065" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1066" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1067" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1068" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1069" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1070" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1071" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1072" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1073" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1074" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1075" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1076" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1077" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1078" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="1079" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" customFormat="1"/>
+    <row r="24" spans="1:5" customFormat="1"/>
+    <row r="25" spans="1:5" customFormat="1"/>
+    <row r="26" spans="1:5" customFormat="1"/>
+    <row r="27" spans="1:5" customFormat="1"/>
+    <row r="28" spans="1:5" customFormat="1"/>
+    <row r="29" spans="1:5" customFormat="1"/>
+    <row r="30" spans="1:5" customFormat="1"/>
+    <row r="31" spans="1:5" customFormat="1"/>
+    <row r="32" spans="1:5" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
+    <row r="95" customFormat="1"/>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+    <row r="131" customFormat="1"/>
+    <row r="132" customFormat="1"/>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+    <row r="204" customFormat="1"/>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1"/>
+    <row r="208" customFormat="1"/>
+    <row r="209" customFormat="1"/>
+    <row r="210" customFormat="1"/>
+    <row r="211" customFormat="1"/>
+    <row r="212" customFormat="1"/>
+    <row r="213" customFormat="1"/>
+    <row r="214" customFormat="1"/>
+    <row r="215" customFormat="1"/>
+    <row r="216" customFormat="1"/>
+    <row r="217" customFormat="1"/>
+    <row r="218" customFormat="1"/>
+    <row r="219" customFormat="1"/>
+    <row r="220" customFormat="1"/>
+    <row r="221" customFormat="1"/>
+    <row r="222" customFormat="1"/>
+    <row r="223" customFormat="1"/>
+    <row r="224" customFormat="1"/>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" customFormat="1"/>
+    <row r="290" customFormat="1"/>
+    <row r="291" customFormat="1"/>
+    <row r="292" customFormat="1"/>
+    <row r="293" customFormat="1"/>
+    <row r="294" customFormat="1"/>
+    <row r="295" customFormat="1"/>
+    <row r="296" customFormat="1"/>
+    <row r="297" customFormat="1"/>
+    <row r="298" customFormat="1"/>
+    <row r="299" customFormat="1"/>
+    <row r="300" customFormat="1"/>
+    <row r="301" customFormat="1"/>
+    <row r="302" customFormat="1"/>
+    <row r="303" customFormat="1"/>
+    <row r="304" customFormat="1"/>
+    <row r="305" customFormat="1"/>
+    <row r="306" customFormat="1"/>
+    <row r="307" customFormat="1"/>
+    <row r="308" customFormat="1"/>
+    <row r="309" customFormat="1"/>
+    <row r="310" customFormat="1"/>
+    <row r="311" customFormat="1"/>
+    <row r="312" customFormat="1"/>
+    <row r="313" customFormat="1"/>
+    <row r="314" customFormat="1"/>
+    <row r="315" customFormat="1"/>
+    <row r="316" customFormat="1"/>
+    <row r="317" customFormat="1"/>
+    <row r="318" customFormat="1"/>
+    <row r="319" customFormat="1"/>
+    <row r="320" customFormat="1"/>
+    <row r="321" customFormat="1"/>
+    <row r="322" customFormat="1"/>
+    <row r="323" customFormat="1"/>
+    <row r="324" customFormat="1"/>
+    <row r="325" customFormat="1"/>
+    <row r="326" customFormat="1"/>
+    <row r="327" customFormat="1"/>
+    <row r="328" customFormat="1"/>
+    <row r="329" customFormat="1"/>
+    <row r="330" customFormat="1"/>
+    <row r="331" customFormat="1"/>
+    <row r="332" customFormat="1"/>
+    <row r="333" customFormat="1"/>
+    <row r="334" customFormat="1"/>
+    <row r="335" customFormat="1"/>
+    <row r="336" customFormat="1"/>
+    <row r="337" customFormat="1"/>
+    <row r="338" customFormat="1"/>
+    <row r="339" customFormat="1"/>
+    <row r="340" customFormat="1"/>
+    <row r="341" customFormat="1"/>
+    <row r="342" customFormat="1"/>
+    <row r="343" customFormat="1"/>
+    <row r="344" customFormat="1"/>
+    <row r="345" customFormat="1"/>
+    <row r="346" customFormat="1"/>
+    <row r="347" customFormat="1"/>
+    <row r="348" customFormat="1"/>
+    <row r="349" customFormat="1"/>
+    <row r="350" customFormat="1"/>
+    <row r="351" customFormat="1"/>
+    <row r="352" customFormat="1"/>
+    <row r="353" customFormat="1"/>
+    <row r="354" customFormat="1"/>
+    <row r="355" customFormat="1"/>
+    <row r="356" customFormat="1"/>
+    <row r="357" customFormat="1"/>
+    <row r="358" customFormat="1"/>
+    <row r="359" customFormat="1"/>
+    <row r="360" customFormat="1"/>
+    <row r="361" customFormat="1"/>
+    <row r="362" customFormat="1"/>
+    <row r="363" customFormat="1"/>
+    <row r="364" customFormat="1"/>
+    <row r="365" customFormat="1"/>
+    <row r="366" customFormat="1"/>
+    <row r="367" customFormat="1"/>
+    <row r="368" customFormat="1"/>
+    <row r="369" customFormat="1"/>
+    <row r="370" customFormat="1"/>
+    <row r="371" customFormat="1"/>
+    <row r="372" customFormat="1"/>
+    <row r="373" customFormat="1"/>
+    <row r="374" customFormat="1"/>
+    <row r="375" customFormat="1"/>
+    <row r="376" customFormat="1"/>
+    <row r="377" customFormat="1"/>
+    <row r="378" customFormat="1"/>
+    <row r="379" customFormat="1"/>
+    <row r="380" customFormat="1"/>
+    <row r="381" customFormat="1"/>
+    <row r="382" customFormat="1"/>
+    <row r="383" customFormat="1"/>
+    <row r="384" customFormat="1"/>
+    <row r="385" customFormat="1"/>
+    <row r="386" customFormat="1"/>
+    <row r="387" customFormat="1"/>
+    <row r="388" customFormat="1"/>
+    <row r="389" customFormat="1"/>
+    <row r="390" customFormat="1"/>
+    <row r="391" customFormat="1"/>
+    <row r="392" customFormat="1"/>
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1"/>
+    <row r="395" customFormat="1"/>
+    <row r="396" customFormat="1"/>
+    <row r="397" customFormat="1"/>
+    <row r="398" customFormat="1"/>
+    <row r="399" customFormat="1"/>
+    <row r="400" customFormat="1"/>
+    <row r="401" customFormat="1"/>
+    <row r="402" customFormat="1"/>
+    <row r="403" customFormat="1"/>
+    <row r="404" customFormat="1"/>
+    <row r="405" customFormat="1"/>
+    <row r="406" customFormat="1"/>
+    <row r="407" customFormat="1"/>
+    <row r="408" customFormat="1"/>
+    <row r="409" customFormat="1"/>
+    <row r="410" customFormat="1"/>
+    <row r="411" customFormat="1"/>
+    <row r="412" customFormat="1"/>
+    <row r="413" customFormat="1"/>
+    <row r="414" customFormat="1"/>
+    <row r="415" customFormat="1"/>
+    <row r="416" customFormat="1"/>
+    <row r="417" customFormat="1"/>
+    <row r="418" customFormat="1"/>
+    <row r="419" customFormat="1"/>
+    <row r="420" customFormat="1"/>
+    <row r="421" customFormat="1"/>
+    <row r="422" customFormat="1"/>
+    <row r="423" customFormat="1"/>
+    <row r="424" customFormat="1"/>
+    <row r="425" customFormat="1"/>
+    <row r="426" customFormat="1"/>
+    <row r="427" customFormat="1"/>
+    <row r="428" customFormat="1"/>
+    <row r="429" customFormat="1"/>
+    <row r="430" customFormat="1"/>
+    <row r="431" customFormat="1"/>
+    <row r="432" customFormat="1"/>
+    <row r="433" customFormat="1"/>
+    <row r="434" customFormat="1"/>
+    <row r="435" customFormat="1"/>
+    <row r="436" customFormat="1"/>
+    <row r="437" customFormat="1"/>
+    <row r="438" customFormat="1"/>
+    <row r="439" customFormat="1"/>
+    <row r="440" customFormat="1"/>
+    <row r="441" customFormat="1"/>
+    <row r="442" customFormat="1"/>
+    <row r="443" customFormat="1"/>
+    <row r="444" customFormat="1"/>
+    <row r="445" customFormat="1"/>
+    <row r="446" customFormat="1"/>
+    <row r="447" customFormat="1"/>
+    <row r="448" customFormat="1"/>
+    <row r="449" customFormat="1"/>
+    <row r="450" customFormat="1"/>
+    <row r="451" customFormat="1"/>
+    <row r="452" customFormat="1"/>
+    <row r="453" customFormat="1"/>
+    <row r="454" customFormat="1"/>
+    <row r="455" customFormat="1"/>
+    <row r="456" customFormat="1"/>
+    <row r="457" customFormat="1"/>
+    <row r="458" customFormat="1"/>
+    <row r="459" customFormat="1"/>
+    <row r="460" customFormat="1"/>
+    <row r="461" customFormat="1"/>
+    <row r="462" customFormat="1"/>
+    <row r="463" customFormat="1"/>
+    <row r="464" customFormat="1"/>
+    <row r="465" customFormat="1"/>
+    <row r="466" customFormat="1"/>
+    <row r="467" customFormat="1"/>
+    <row r="468" customFormat="1"/>
+    <row r="469" customFormat="1"/>
+    <row r="470" customFormat="1"/>
+    <row r="471" customFormat="1"/>
+    <row r="472" customFormat="1"/>
+    <row r="473" customFormat="1"/>
+    <row r="474" customFormat="1"/>
+    <row r="475" customFormat="1"/>
+    <row r="476" customFormat="1"/>
+    <row r="477" customFormat="1"/>
+    <row r="478" customFormat="1"/>
+    <row r="479" customFormat="1"/>
+    <row r="480" customFormat="1"/>
+    <row r="481" customFormat="1"/>
+    <row r="482" customFormat="1"/>
+    <row r="483" customFormat="1"/>
+    <row r="484" customFormat="1"/>
+    <row r="485" customFormat="1"/>
+    <row r="486" customFormat="1"/>
+    <row r="487" customFormat="1"/>
+    <row r="488" customFormat="1"/>
+    <row r="489" customFormat="1"/>
+    <row r="490" customFormat="1"/>
+    <row r="491" customFormat="1"/>
+    <row r="492" customFormat="1"/>
+    <row r="493" customFormat="1"/>
+    <row r="494" customFormat="1"/>
+    <row r="495" customFormat="1"/>
+    <row r="496" customFormat="1"/>
+    <row r="497" customFormat="1"/>
+    <row r="498" customFormat="1"/>
+    <row r="499" customFormat="1"/>
+    <row r="500" customFormat="1"/>
+    <row r="501" customFormat="1"/>
+    <row r="502" customFormat="1"/>
+    <row r="503" customFormat="1"/>
+    <row r="504" customFormat="1"/>
+    <row r="505" customFormat="1"/>
+    <row r="506" customFormat="1"/>
+    <row r="507" customFormat="1"/>
+    <row r="508" customFormat="1"/>
+    <row r="509" customFormat="1"/>
+    <row r="510" customFormat="1"/>
+    <row r="511" customFormat="1"/>
+    <row r="512" customFormat="1"/>
+    <row r="513" customFormat="1"/>
+    <row r="514" customFormat="1"/>
+    <row r="515" customFormat="1"/>
+    <row r="516" customFormat="1"/>
+    <row r="517" customFormat="1"/>
+    <row r="518" customFormat="1"/>
+    <row r="519" customFormat="1"/>
+    <row r="520" customFormat="1"/>
+    <row r="521" customFormat="1"/>
+    <row r="522" customFormat="1"/>
+    <row r="523" customFormat="1"/>
+    <row r="524" customFormat="1"/>
+    <row r="525" customFormat="1"/>
+    <row r="526" customFormat="1"/>
+    <row r="527" customFormat="1"/>
+    <row r="528" customFormat="1"/>
+    <row r="529" customFormat="1"/>
+    <row r="530" customFormat="1"/>
+    <row r="531" customFormat="1"/>
+    <row r="532" customFormat="1"/>
+    <row r="533" customFormat="1"/>
+    <row r="534" customFormat="1"/>
+    <row r="535" customFormat="1"/>
+    <row r="536" customFormat="1"/>
+    <row r="537" customFormat="1"/>
+    <row r="538" customFormat="1"/>
+    <row r="539" customFormat="1"/>
+    <row r="540" customFormat="1"/>
+    <row r="541" customFormat="1"/>
+    <row r="542" customFormat="1"/>
+    <row r="543" customFormat="1"/>
+    <row r="544" customFormat="1"/>
+    <row r="545" customFormat="1"/>
+    <row r="546" customFormat="1"/>
+    <row r="547" customFormat="1"/>
+    <row r="548" customFormat="1"/>
+    <row r="549" customFormat="1"/>
+    <row r="550" customFormat="1"/>
+    <row r="551" customFormat="1"/>
+    <row r="552" customFormat="1"/>
+    <row r="553" customFormat="1"/>
+    <row r="554" customFormat="1"/>
+    <row r="555" customFormat="1"/>
+    <row r="556" customFormat="1"/>
+    <row r="557" customFormat="1"/>
+    <row r="558" customFormat="1"/>
+    <row r="559" customFormat="1"/>
+    <row r="560" customFormat="1"/>
+    <row r="561" customFormat="1"/>
+    <row r="562" customFormat="1"/>
+    <row r="563" customFormat="1"/>
+    <row r="564" customFormat="1"/>
+    <row r="565" customFormat="1"/>
+    <row r="566" customFormat="1"/>
+    <row r="567" customFormat="1"/>
+    <row r="568" customFormat="1"/>
+    <row r="569" customFormat="1"/>
+    <row r="570" customFormat="1"/>
+    <row r="571" customFormat="1"/>
+    <row r="572" customFormat="1"/>
+    <row r="573" customFormat="1"/>
+    <row r="574" customFormat="1"/>
+    <row r="575" customFormat="1"/>
+    <row r="576" customFormat="1"/>
+    <row r="577" customFormat="1"/>
+    <row r="578" customFormat="1"/>
+    <row r="579" customFormat="1"/>
+    <row r="580" customFormat="1"/>
+    <row r="581" customFormat="1"/>
+    <row r="582" customFormat="1"/>
+    <row r="583" customFormat="1"/>
+    <row r="584" customFormat="1"/>
+    <row r="585" customFormat="1"/>
+    <row r="586" customFormat="1"/>
+    <row r="587" customFormat="1"/>
+    <row r="588" customFormat="1"/>
+    <row r="589" customFormat="1"/>
+    <row r="590" customFormat="1"/>
+    <row r="591" customFormat="1"/>
+    <row r="592" customFormat="1"/>
+    <row r="593" customFormat="1"/>
+    <row r="594" customFormat="1"/>
+    <row r="595" customFormat="1"/>
+    <row r="596" customFormat="1"/>
+    <row r="597" customFormat="1"/>
+    <row r="598" customFormat="1"/>
+    <row r="599" customFormat="1"/>
+    <row r="600" customFormat="1"/>
+    <row r="601" customFormat="1"/>
+    <row r="602" customFormat="1"/>
+    <row r="603" customFormat="1"/>
+    <row r="604" customFormat="1"/>
+    <row r="605" customFormat="1"/>
+    <row r="606" customFormat="1"/>
+    <row r="607" customFormat="1"/>
+    <row r="608" customFormat="1"/>
+    <row r="609" customFormat="1"/>
+    <row r="610" customFormat="1"/>
+    <row r="611" customFormat="1"/>
+    <row r="612" customFormat="1"/>
+    <row r="613" customFormat="1"/>
+    <row r="614" customFormat="1"/>
+    <row r="615" customFormat="1"/>
+    <row r="616" customFormat="1"/>
+    <row r="617" customFormat="1"/>
+    <row r="618" customFormat="1"/>
+    <row r="619" customFormat="1"/>
+    <row r="620" customFormat="1"/>
+    <row r="621" customFormat="1"/>
+    <row r="622" customFormat="1"/>
+    <row r="623" customFormat="1"/>
+    <row r="624" customFormat="1"/>
+    <row r="625" customFormat="1"/>
+    <row r="626" customFormat="1"/>
+    <row r="627" customFormat="1"/>
+    <row r="628" customFormat="1"/>
+    <row r="629" customFormat="1"/>
+    <row r="630" customFormat="1"/>
+    <row r="631" customFormat="1"/>
+    <row r="632" customFormat="1"/>
+    <row r="633" customFormat="1"/>
+    <row r="634" customFormat="1"/>
+    <row r="635" customFormat="1"/>
+    <row r="636" customFormat="1"/>
+    <row r="637" customFormat="1"/>
+    <row r="638" customFormat="1"/>
+    <row r="639" customFormat="1"/>
+    <row r="640" customFormat="1"/>
+    <row r="641" customFormat="1"/>
+    <row r="642" customFormat="1"/>
+    <row r="643" customFormat="1"/>
+    <row r="644" customFormat="1"/>
+    <row r="645" customFormat="1"/>
+    <row r="646" customFormat="1"/>
+    <row r="647" customFormat="1"/>
+    <row r="648" customFormat="1"/>
+    <row r="649" customFormat="1"/>
+    <row r="650" customFormat="1"/>
+    <row r="651" customFormat="1"/>
+    <row r="652" customFormat="1"/>
+    <row r="653" customFormat="1"/>
+    <row r="654" customFormat="1"/>
+    <row r="655" customFormat="1"/>
+    <row r="656" customFormat="1"/>
+    <row r="657" customFormat="1"/>
+    <row r="658" customFormat="1"/>
+    <row r="659" customFormat="1"/>
+    <row r="660" customFormat="1"/>
+    <row r="661" customFormat="1"/>
+    <row r="662" customFormat="1"/>
+    <row r="663" customFormat="1"/>
+    <row r="664" customFormat="1"/>
+    <row r="665" customFormat="1"/>
+    <row r="666" customFormat="1"/>
+    <row r="667" customFormat="1"/>
+    <row r="668" customFormat="1"/>
+    <row r="669" customFormat="1"/>
+    <row r="670" customFormat="1"/>
+    <row r="671" customFormat="1"/>
+    <row r="672" customFormat="1"/>
+    <row r="673" customFormat="1"/>
+    <row r="674" customFormat="1"/>
+    <row r="675" customFormat="1"/>
+    <row r="676" customFormat="1"/>
+    <row r="677" customFormat="1"/>
+    <row r="678" customFormat="1"/>
+    <row r="679" customFormat="1"/>
+    <row r="680" customFormat="1"/>
+    <row r="681" customFormat="1"/>
+    <row r="682" customFormat="1"/>
+    <row r="683" customFormat="1"/>
+    <row r="684" customFormat="1"/>
+    <row r="685" customFormat="1"/>
+    <row r="686" customFormat="1"/>
+    <row r="687" customFormat="1"/>
+    <row r="688" customFormat="1"/>
+    <row r="689" customFormat="1"/>
+    <row r="690" customFormat="1"/>
+    <row r="691" customFormat="1"/>
+    <row r="692" customFormat="1"/>
+    <row r="693" customFormat="1"/>
+    <row r="694" customFormat="1"/>
+    <row r="695" customFormat="1"/>
+    <row r="696" customFormat="1"/>
+    <row r="697" customFormat="1"/>
+    <row r="698" customFormat="1"/>
+    <row r="699" customFormat="1"/>
+    <row r="700" customFormat="1"/>
+    <row r="701" customFormat="1"/>
+    <row r="702" customFormat="1"/>
+    <row r="703" customFormat="1"/>
+    <row r="704" customFormat="1"/>
+    <row r="705" customFormat="1"/>
+    <row r="706" customFormat="1"/>
+    <row r="707" customFormat="1"/>
+    <row r="708" customFormat="1"/>
+    <row r="709" customFormat="1"/>
+    <row r="710" customFormat="1"/>
+    <row r="711" customFormat="1"/>
+    <row r="712" customFormat="1"/>
+    <row r="713" customFormat="1"/>
+    <row r="714" customFormat="1"/>
+    <row r="715" customFormat="1"/>
+    <row r="716" customFormat="1"/>
+    <row r="717" customFormat="1"/>
+    <row r="718" customFormat="1"/>
+    <row r="719" customFormat="1"/>
+    <row r="720" customFormat="1"/>
+    <row r="721" customFormat="1"/>
+    <row r="722" customFormat="1"/>
+    <row r="723" customFormat="1"/>
+    <row r="724" customFormat="1"/>
+    <row r="725" customFormat="1"/>
+    <row r="726" customFormat="1"/>
+    <row r="727" customFormat="1"/>
+    <row r="728" customFormat="1"/>
+    <row r="729" customFormat="1"/>
+    <row r="730" customFormat="1"/>
+    <row r="731" customFormat="1"/>
+    <row r="732" customFormat="1"/>
+    <row r="733" customFormat="1"/>
+    <row r="734" customFormat="1"/>
+    <row r="735" customFormat="1"/>
+    <row r="736" customFormat="1"/>
+    <row r="737" customFormat="1"/>
+    <row r="738" customFormat="1"/>
+    <row r="739" customFormat="1"/>
+    <row r="740" customFormat="1"/>
+    <row r="741" customFormat="1"/>
+    <row r="742" customFormat="1"/>
+    <row r="743" customFormat="1"/>
+    <row r="744" customFormat="1"/>
+    <row r="745" customFormat="1"/>
+    <row r="746" customFormat="1"/>
+    <row r="747" customFormat="1"/>
+    <row r="748" customFormat="1"/>
+    <row r="749" customFormat="1"/>
+    <row r="750" customFormat="1"/>
+    <row r="751" customFormat="1"/>
+    <row r="752" customFormat="1"/>
+    <row r="753" customFormat="1"/>
+    <row r="754" customFormat="1"/>
+    <row r="755" customFormat="1"/>
+    <row r="756" customFormat="1"/>
+    <row r="757" customFormat="1"/>
+    <row r="758" customFormat="1"/>
+    <row r="759" customFormat="1"/>
+    <row r="760" customFormat="1"/>
+    <row r="761" customFormat="1"/>
+    <row r="762" customFormat="1"/>
+    <row r="763" customFormat="1"/>
+    <row r="764" customFormat="1"/>
+    <row r="765" customFormat="1"/>
+    <row r="766" customFormat="1"/>
+    <row r="767" customFormat="1"/>
+    <row r="768" customFormat="1"/>
+    <row r="769" customFormat="1"/>
+    <row r="770" customFormat="1"/>
+    <row r="771" customFormat="1"/>
+    <row r="772" customFormat="1"/>
+    <row r="773" customFormat="1"/>
+    <row r="774" customFormat="1"/>
+    <row r="775" customFormat="1"/>
+    <row r="776" customFormat="1"/>
+    <row r="777" customFormat="1"/>
+    <row r="778" customFormat="1"/>
+    <row r="779" customFormat="1"/>
+    <row r="780" customFormat="1"/>
+    <row r="781" customFormat="1"/>
+    <row r="782" customFormat="1"/>
+    <row r="783" customFormat="1"/>
+    <row r="784" customFormat="1"/>
+    <row r="785" customFormat="1"/>
+    <row r="786" customFormat="1"/>
+    <row r="787" customFormat="1"/>
+    <row r="788" customFormat="1"/>
+    <row r="789" customFormat="1"/>
+    <row r="790" customFormat="1"/>
+    <row r="791" customFormat="1"/>
+    <row r="792" customFormat="1"/>
+    <row r="793" customFormat="1"/>
+    <row r="794" customFormat="1"/>
+    <row r="795" customFormat="1"/>
+    <row r="796" customFormat="1"/>
+    <row r="797" customFormat="1"/>
+    <row r="798" customFormat="1"/>
+    <row r="799" customFormat="1"/>
+    <row r="800" customFormat="1"/>
+    <row r="801" customFormat="1"/>
+    <row r="802" customFormat="1"/>
+    <row r="803" customFormat="1"/>
+    <row r="804" customFormat="1"/>
+    <row r="805" customFormat="1"/>
+    <row r="806" customFormat="1"/>
+    <row r="807" customFormat="1"/>
+    <row r="808" customFormat="1"/>
+    <row r="809" customFormat="1"/>
+    <row r="810" customFormat="1"/>
+    <row r="811" customFormat="1"/>
+    <row r="812" customFormat="1"/>
+    <row r="813" customFormat="1"/>
+    <row r="814" customFormat="1"/>
+    <row r="815" customFormat="1"/>
+    <row r="816" customFormat="1"/>
+    <row r="817" customFormat="1"/>
+    <row r="818" customFormat="1"/>
+    <row r="819" customFormat="1"/>
+    <row r="820" customFormat="1"/>
+    <row r="821" customFormat="1"/>
+    <row r="822" customFormat="1"/>
+    <row r="823" customFormat="1"/>
+    <row r="824" customFormat="1"/>
+    <row r="825" customFormat="1"/>
+    <row r="826" customFormat="1"/>
+    <row r="827" customFormat="1"/>
+    <row r="828" customFormat="1"/>
+    <row r="829" customFormat="1"/>
+    <row r="830" customFormat="1"/>
+    <row r="831" customFormat="1"/>
+    <row r="832" customFormat="1"/>
+    <row r="833" customFormat="1"/>
+    <row r="834" customFormat="1"/>
+    <row r="835" customFormat="1"/>
+    <row r="836" customFormat="1"/>
+    <row r="837" customFormat="1"/>
+    <row r="838" customFormat="1"/>
+    <row r="839" customFormat="1"/>
+    <row r="840" customFormat="1"/>
+    <row r="841" customFormat="1"/>
+    <row r="842" customFormat="1"/>
+    <row r="843" customFormat="1"/>
+    <row r="844" customFormat="1"/>
+    <row r="845" customFormat="1"/>
+    <row r="846" customFormat="1"/>
+    <row r="847" customFormat="1"/>
+    <row r="848" customFormat="1"/>
+    <row r="849" customFormat="1"/>
+    <row r="850" customFormat="1"/>
+    <row r="851" customFormat="1"/>
+    <row r="852" customFormat="1"/>
+    <row r="853" customFormat="1"/>
+    <row r="854" customFormat="1"/>
+    <row r="855" customFormat="1"/>
+    <row r="856" customFormat="1"/>
+    <row r="857" customFormat="1"/>
+    <row r="858" customFormat="1"/>
+    <row r="859" customFormat="1"/>
+    <row r="860" customFormat="1"/>
+    <row r="861" customFormat="1"/>
+    <row r="862" customFormat="1"/>
+    <row r="863" customFormat="1"/>
+    <row r="864" customFormat="1"/>
+    <row r="865" customFormat="1"/>
+    <row r="866" customFormat="1"/>
+    <row r="867" customFormat="1"/>
+    <row r="868" customFormat="1"/>
+    <row r="869" customFormat="1"/>
+    <row r="870" customFormat="1"/>
+    <row r="871" customFormat="1"/>
+    <row r="872" customFormat="1"/>
+    <row r="873" customFormat="1"/>
+    <row r="874" customFormat="1"/>
+    <row r="875" customFormat="1"/>
+    <row r="876" customFormat="1"/>
+    <row r="877" customFormat="1"/>
+    <row r="878" customFormat="1"/>
+    <row r="879" customFormat="1"/>
+    <row r="880" customFormat="1"/>
+    <row r="881" customFormat="1"/>
+    <row r="882" customFormat="1"/>
+    <row r="883" customFormat="1"/>
+    <row r="884" customFormat="1"/>
+    <row r="885" customFormat="1"/>
+    <row r="886" customFormat="1"/>
+    <row r="887" customFormat="1"/>
+    <row r="888" customFormat="1"/>
+    <row r="889" customFormat="1"/>
+    <row r="890" customFormat="1"/>
+    <row r="891" customFormat="1"/>
+    <row r="892" customFormat="1"/>
+    <row r="893" customFormat="1"/>
+    <row r="894" customFormat="1"/>
+    <row r="895" customFormat="1"/>
+    <row r="896" customFormat="1"/>
+    <row r="897" customFormat="1"/>
+    <row r="898" customFormat="1"/>
+    <row r="899" customFormat="1"/>
+    <row r="900" customFormat="1"/>
+    <row r="901" customFormat="1"/>
+    <row r="902" customFormat="1"/>
+    <row r="903" customFormat="1"/>
+    <row r="904" customFormat="1"/>
+    <row r="905" customFormat="1"/>
+    <row r="906" customFormat="1"/>
+    <row r="907" customFormat="1"/>
+    <row r="908" customFormat="1"/>
+    <row r="909" customFormat="1"/>
+    <row r="910" customFormat="1"/>
+    <row r="911" customFormat="1"/>
+    <row r="912" customFormat="1"/>
+    <row r="913" customFormat="1"/>
+    <row r="914" customFormat="1"/>
+    <row r="915" customFormat="1"/>
+    <row r="916" customFormat="1"/>
+    <row r="917" customFormat="1"/>
+    <row r="918" customFormat="1"/>
+    <row r="919" customFormat="1"/>
+    <row r="920" customFormat="1"/>
+    <row r="921" customFormat="1"/>
+    <row r="922" customFormat="1"/>
+    <row r="923" customFormat="1"/>
+    <row r="924" customFormat="1"/>
+    <row r="925" customFormat="1"/>
+    <row r="926" customFormat="1"/>
+    <row r="927" customFormat="1"/>
+    <row r="928" customFormat="1"/>
+    <row r="929" customFormat="1"/>
+    <row r="930" customFormat="1"/>
+    <row r="931" customFormat="1"/>
+    <row r="932" customFormat="1"/>
+    <row r="933" customFormat="1"/>
+    <row r="934" customFormat="1"/>
+    <row r="935" customFormat="1"/>
+    <row r="936" customFormat="1"/>
+    <row r="937" customFormat="1"/>
+    <row r="938" customFormat="1"/>
+    <row r="939" customFormat="1"/>
+    <row r="940" customFormat="1"/>
+    <row r="941" customFormat="1"/>
+    <row r="942" customFormat="1"/>
+    <row r="943" customFormat="1"/>
+    <row r="944" customFormat="1"/>
+    <row r="945" customFormat="1"/>
+    <row r="946" customFormat="1"/>
+    <row r="947" customFormat="1"/>
+    <row r="948" customFormat="1"/>
+    <row r="949" customFormat="1"/>
+    <row r="950" customFormat="1"/>
+    <row r="951" customFormat="1"/>
+    <row r="952" customFormat="1"/>
+    <row r="953" customFormat="1"/>
+    <row r="954" customFormat="1"/>
+    <row r="955" customFormat="1"/>
+    <row r="956" customFormat="1"/>
+    <row r="957" customFormat="1"/>
+    <row r="958" customFormat="1"/>
+    <row r="959" customFormat="1"/>
+    <row r="960" customFormat="1"/>
+    <row r="961" customFormat="1"/>
+    <row r="962" customFormat="1"/>
+    <row r="963" customFormat="1"/>
+    <row r="964" customFormat="1"/>
+    <row r="965" customFormat="1"/>
+    <row r="966" customFormat="1"/>
+    <row r="967" customFormat="1"/>
+    <row r="968" customFormat="1"/>
+    <row r="969" customFormat="1"/>
+    <row r="970" customFormat="1"/>
+    <row r="971" customFormat="1"/>
+    <row r="972" customFormat="1"/>
+    <row r="973" customFormat="1"/>
+    <row r="974" customFormat="1"/>
+    <row r="975" customFormat="1"/>
+    <row r="976" customFormat="1"/>
+    <row r="977" customFormat="1"/>
+    <row r="978" customFormat="1"/>
+    <row r="979" customFormat="1"/>
+    <row r="980" customFormat="1"/>
+    <row r="981" customFormat="1"/>
+    <row r="982" customFormat="1"/>
+    <row r="983" customFormat="1"/>
+    <row r="984" customFormat="1"/>
+    <row r="985" customFormat="1"/>
+    <row r="986" customFormat="1"/>
+    <row r="987" customFormat="1"/>
+    <row r="988" customFormat="1"/>
+    <row r="989" customFormat="1"/>
+    <row r="990" customFormat="1"/>
+    <row r="991" customFormat="1"/>
+    <row r="992" customFormat="1"/>
+    <row r="993" customFormat="1"/>
+    <row r="994" customFormat="1"/>
+    <row r="995" customFormat="1"/>
+    <row r="996" customFormat="1"/>
+    <row r="997" customFormat="1"/>
+    <row r="998" customFormat="1"/>
+    <row r="999" customFormat="1"/>
+    <row r="1000" customFormat="1"/>
+    <row r="1001" customFormat="1"/>
+    <row r="1002" customFormat="1"/>
+    <row r="1003" customFormat="1"/>
+    <row r="1004" customFormat="1"/>
+    <row r="1005" customFormat="1"/>
+    <row r="1006" customFormat="1"/>
+    <row r="1007" customFormat="1"/>
+    <row r="1008" customFormat="1"/>
+    <row r="1009" customFormat="1"/>
+    <row r="1010" customFormat="1"/>
+    <row r="1011" customFormat="1"/>
+    <row r="1012" customFormat="1"/>
+    <row r="1013" customFormat="1"/>
+    <row r="1014" customFormat="1"/>
+    <row r="1015" customFormat="1"/>
+    <row r="1016" customFormat="1"/>
+    <row r="1017" customFormat="1"/>
+    <row r="1018" customFormat="1"/>
+    <row r="1019" customFormat="1"/>
+    <row r="1020" customFormat="1"/>
+    <row r="1021" customFormat="1"/>
+    <row r="1022" customFormat="1"/>
+    <row r="1023" customFormat="1"/>
+    <row r="1024" customFormat="1"/>
+    <row r="1025" customFormat="1"/>
+    <row r="1026" customFormat="1"/>
+    <row r="1027" customFormat="1"/>
+    <row r="1028" customFormat="1"/>
+    <row r="1029" customFormat="1"/>
+    <row r="1030" customFormat="1"/>
+    <row r="1031" customFormat="1"/>
+    <row r="1032" customFormat="1"/>
+    <row r="1033" customFormat="1"/>
+    <row r="1034" customFormat="1"/>
+    <row r="1035" customFormat="1"/>
+    <row r="1036" customFormat="1"/>
+    <row r="1037" customFormat="1"/>
+    <row r="1038" customFormat="1"/>
+    <row r="1039" customFormat="1"/>
+    <row r="1040" customFormat="1"/>
+    <row r="1041" customFormat="1"/>
+    <row r="1042" customFormat="1"/>
+    <row r="1043" customFormat="1"/>
+    <row r="1044" customFormat="1"/>
+    <row r="1045" customFormat="1"/>
+    <row r="1046" customFormat="1"/>
+    <row r="1047" customFormat="1"/>
+    <row r="1048" customFormat="1"/>
+    <row r="1049" customFormat="1"/>
+    <row r="1050" customFormat="1"/>
+    <row r="1051" customFormat="1"/>
+    <row r="1052" customFormat="1"/>
+    <row r="1053" customFormat="1"/>
+    <row r="1054" customFormat="1"/>
+    <row r="1055" customFormat="1"/>
+    <row r="1056" customFormat="1"/>
+    <row r="1057" customFormat="1"/>
+    <row r="1058" customFormat="1"/>
+    <row r="1059" customFormat="1"/>
+    <row r="1060" customFormat="1"/>
+    <row r="1061" customFormat="1"/>
+    <row r="1062" customFormat="1"/>
+    <row r="1063" customFormat="1"/>
+    <row r="1064" customFormat="1"/>
+    <row r="1065" customFormat="1"/>
+    <row r="1066" customFormat="1"/>
+    <row r="1067" customFormat="1"/>
+    <row r="1068" customFormat="1"/>
+    <row r="1069" customFormat="1"/>
+    <row r="1070" customFormat="1"/>
+    <row r="1071" customFormat="1"/>
+    <row r="1072" customFormat="1"/>
+    <row r="1073" customFormat="1"/>
+    <row r="1074" customFormat="1"/>
+    <row r="1075" customFormat="1"/>
+    <row r="1076" customFormat="1"/>
+    <row r="1077" customFormat="1"/>
+    <row r="1078" customFormat="1"/>
+    <row r="1079" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -27645,7 +27648,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
@@ -27667,16 +27670,16 @@
     <col min="25" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="166" t="s">
         <v>194</v>
       </c>
@@ -27685,12 +27688,12 @@
       <c r="D2" s="166"/>
       <c r="E2" s="166"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="10">
         <v>155400</v>
       </c>
@@ -27698,7 +27701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="166" t="s">
         <v>197</v>
       </c>
@@ -27707,12 +27710,12 @@
       <c r="D21" s="166"/>
       <c r="E21" s="166"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="10">
         <v>100800</v>
       </c>
@@ -27720,7 +27723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="166" t="s">
         <v>198</v>
       </c>
@@ -27729,12 +27732,12 @@
       <c r="D40" s="166"/>
       <c r="E40" s="166"/>
     </row>
-    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="16" thickBot="1">
       <c r="A58" s="12">
         <v>194000</v>
       </c>
@@ -27742,16 +27745,16 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="162" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="162"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-    </row>
-    <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+    </row>
+    <row r="85" spans="1:39" s="13" customFormat="1">
       <c r="A85" s="10" t="s">
         <v>455</v>
       </c>
@@ -27798,7 +27801,7 @@
       <c r="AL85" s="10"/>
       <c r="AM85" s="10"/>
     </row>
-    <row r="86" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" s="13" customFormat="1">
       <c r="A86" s="10" t="s">
         <v>457</v>
       </c>
@@ -27843,8 +27846,8 @@
       <c r="AL86" s="10"/>
       <c r="AM86" s="10"/>
     </row>
-    <row r="87" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="16" thickBot="1"/>
+    <row r="88" spans="1:39" ht="16" thickBot="1">
       <c r="A88" s="14" t="s">
         <v>458</v>
       </c>
@@ -27853,16 +27856,16 @@
         <v>1.0254083484573502</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A89" s="162" t="s">
+    <row r="89" spans="1:39">
+      <c r="A89" s="165" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="162"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
-      <c r="E89" s="162"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B89" s="165"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="165"/>
+    </row>
+    <row r="90" spans="1:39">
       <c r="A90" s="10">
         <v>6.6290250000000004</v>
       </c>
@@ -27873,7 +27876,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39">
       <c r="A91" s="10">
         <f>1/A90</f>
         <v>0.15085174667466181</v>
@@ -27885,7 +27888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39">
       <c r="A92" s="16">
         <v>0.5</v>
       </c>
@@ -27896,7 +27899,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39">
       <c r="A93" s="10">
         <f>A92*A91</f>
         <v>7.5425873337330904E-2</v>
@@ -27908,7 +27911,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39">
       <c r="A94" s="10">
         <f>1/A93</f>
         <v>13.258050000000001</v>
@@ -27921,7 +27924,7 @@
       </c>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="16" thickBot="1">
       <c r="A95" s="10">
         <v>8.0274920000000005</v>
       </c>
@@ -27933,7 +27936,7 @@
       </c>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="16" thickBot="1">
       <c r="A96" s="17">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -27946,16 +27949,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="162" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="162"/>
-      <c r="C98" s="162"/>
-      <c r="D98" s="162"/>
-      <c r="E98" s="162"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="165"/>
+      <c r="C98" s="165"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="165"/>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="18">
         <v>0.3</v>
       </c>
@@ -27963,7 +27966,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="10">
         <v>63.5</v>
       </c>
@@ -27971,7 +27974,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="10">
         <f>1/A100</f>
         <v>1.5748031496062992E-2</v>
@@ -27980,7 +27983,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="19">
         <f>A101*(1-A99)</f>
         <v>1.1023622047244094E-2</v>
@@ -27989,7 +27992,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="19">
         <f>1/A102</f>
         <v>90.714285714285722</v>
@@ -27998,7 +28001,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="18">
         <v>0.35</v>
       </c>
@@ -28006,7 +28009,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="10">
         <f>A102*(1-A104)</f>
         <v>7.1653543307086615E-3</v>
@@ -28015,7 +28018,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="16" thickBot="1">
       <c r="A106" s="10">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -28024,7 +28027,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="16" thickBot="1">
       <c r="A107" s="20">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -28033,20 +28036,20 @@
         <v>479</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="21"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="162" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="162"/>
-      <c r="C109" s="162"/>
-      <c r="D109" s="162"/>
-      <c r="E109" s="162"/>
-    </row>
-    <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="165"/>
+      <c r="C109" s="165"/>
+      <c r="D109" s="165"/>
+      <c r="E109" s="165"/>
+    </row>
+    <row r="110" spans="1:5" ht="16" thickBot="1"/>
+    <row r="111" spans="1:5" ht="16" thickBot="1">
       <c r="A111" s="20">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -28055,16 +28058,16 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="162" t="s">
+    <row r="113" spans="1:14">
+      <c r="A113" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="162"/>
-      <c r="C113" s="162"/>
-      <c r="D113" s="162"/>
-      <c r="E113" s="162"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B113" s="165"/>
+      <c r="C113" s="165"/>
+      <c r="D113" s="165"/>
+      <c r="E113" s="165"/>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="18">
         <v>0.2</v>
       </c>
@@ -28072,7 +28075,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14">
       <c r="A115" s="10">
         <v>1.95</v>
       </c>
@@ -28080,7 +28083,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14">
       <c r="A116" s="10">
         <f>1/A115</f>
         <v>0.51282051282051289</v>
@@ -28089,7 +28092,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14">
       <c r="A117" s="19">
         <f>A116*(1-A114)</f>
         <v>0.41025641025641035</v>
@@ -28098,7 +28101,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14">
       <c r="A118" s="19">
         <f>1/A117</f>
         <v>2.4374999999999996</v>
@@ -28107,7 +28110,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14">
       <c r="A119" s="18">
         <v>0.17</v>
       </c>
@@ -28115,7 +28118,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14">
       <c r="A120" s="10">
         <f>A117*(1-A119)</f>
         <v>0.34051282051282056</v>
@@ -28124,7 +28127,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="16" thickBot="1">
       <c r="A121" s="10">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -28133,7 +28136,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="16" thickBot="1">
       <c r="A122" s="20">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -28142,17 +28145,17 @@
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="162" t="s">
+    <row r="124" spans="1:14">
+      <c r="A124" s="165" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="162"/>
-      <c r="C124" s="162"/>
-      <c r="D124" s="162"/>
-      <c r="E124" s="162"/>
+      <c r="B124" s="165"/>
+      <c r="C124" s="165"/>
+      <c r="D124" s="165"/>
+      <c r="E124" s="165"/>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14">
       <c r="A125" s="23">
         <v>4.4824543659231753E-4</v>
       </c>
@@ -28162,7 +28165,7 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14">
       <c r="A126" s="10">
         <v>1.27</v>
       </c>
@@ -28174,7 +28177,7 @@
       <c r="M126" s="23"/>
       <c r="N126" s="23"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14">
       <c r="A127" s="10">
         <f>(1/CONVERT(A125/A126,"mi","km")*0.00105505585)</f>
         <v>1.857438352962903</v>
@@ -28186,7 +28189,7 @@
       <c r="M127" s="23"/>
       <c r="N127" s="23"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14">
       <c r="A128" s="10">
         <f>1/A127</f>
         <v>0.53837587578874124</v>
@@ -28198,7 +28201,7 @@
       <c r="M128" s="18"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" s="10">
         <v>1.07</v>
       </c>
@@ -28209,7 +28212,7 @@
       <c r="M129" s="18"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="16" thickBot="1">
       <c r="A130" s="10">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -28221,7 +28224,7 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="16" thickBot="1">
       <c r="A131" s="20">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -28231,24 +28234,24 @@
       </c>
       <c r="F131" s="25"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="J132" s="27"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="22"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="162" t="s">
+    <row r="134" spans="1:14">
+      <c r="A134" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="162"/>
-      <c r="C134" s="162"/>
-      <c r="D134" s="162"/>
-      <c r="E134" s="162"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B134" s="165"/>
+      <c r="C134" s="165"/>
+      <c r="D134" s="165"/>
+      <c r="E134" s="165"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="28" t="s">
         <v>501</v>
       </c>
@@ -28259,31 +28262,31 @@
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="30"/>
-      <c r="B136" s="163" t="s">
+      <c r="B136" s="162" t="s">
         <v>502</v>
       </c>
-      <c r="C136" s="164"/>
-      <c r="D136" s="164"/>
-      <c r="E136" s="165"/>
+      <c r="C136" s="163"/>
+      <c r="D136" s="163"/>
+      <c r="E136" s="164"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="31"/>
-      <c r="B137" s="163" t="s">
+      <c r="B137" s="162" t="s">
         <v>503</v>
       </c>
-      <c r="C137" s="165"/>
-      <c r="D137" s="163" t="s">
+      <c r="C137" s="164"/>
+      <c r="D137" s="162" t="s">
         <v>504</v>
       </c>
-      <c r="E137" s="165"/>
+      <c r="E137" s="164"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="32" t="s">
         <v>505</v>
       </c>
@@ -28304,7 +28307,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="35" t="s">
         <v>509</v>
       </c>
@@ -28328,7 +28331,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="38" t="s">
         <v>510</v>
       </c>
@@ -28352,7 +28355,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="38" t="s">
         <v>511</v>
       </c>
@@ -28376,7 +28379,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="38" t="s">
         <v>512</v>
       </c>
@@ -28400,7 +28403,7 @@
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="38" t="s">
         <v>513</v>
       </c>
@@ -28424,7 +28427,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="38" t="s">
         <v>514</v>
       </c>
@@ -28448,7 +28451,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" s="38" t="s">
         <v>515</v>
       </c>
@@ -28472,7 +28475,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" s="38" t="s">
         <v>517</v>
       </c>
@@ -28496,7 +28499,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" s="38" t="s">
         <v>518</v>
       </c>
@@ -28520,7 +28523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" s="38" t="s">
         <v>519</v>
       </c>
@@ -28544,7 +28547,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" s="38" t="s">
         <v>520</v>
       </c>
@@ -28568,7 +28571,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" s="38" t="s">
         <v>521</v>
       </c>
@@ -28592,7 +28595,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" s="38" t="s">
         <v>522</v>
       </c>
@@ -28616,7 +28619,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" s="38" t="s">
         <v>523</v>
       </c>
@@ -28640,7 +28643,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" s="38" t="s">
         <v>524</v>
       </c>
@@ -28664,7 +28667,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" s="38" t="s">
         <v>525</v>
       </c>
@@ -28689,7 +28692,7 @@
       </c>
       <c r="I154" s="42"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" s="38" t="s">
         <v>526</v>
       </c>
@@ -28713,7 +28716,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" s="43" t="s">
         <v>527</v>
       </c>
@@ -28737,7 +28740,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -28746,7 +28749,7 @@
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -28755,7 +28758,7 @@
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159" s="29" t="s">
         <v>141</v>
       </c>
@@ -28769,7 +28772,7 @@
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" s="29" t="s">
         <v>516</v>
       </c>
@@ -28783,7 +28786,7 @@
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="29" t="s">
         <v>140</v>
       </c>
@@ -28797,7 +28800,7 @@
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="29" t="s">
         <v>137</v>
       </c>
@@ -28811,7 +28814,7 @@
       <c r="F162" s="29"/>
       <c r="G162" s="29"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="29" t="s">
         <v>138</v>
       </c>
@@ -28825,16 +28828,16 @@
       <c r="F163" s="29"/>
       <c r="G163" s="29"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="162" t="s">
+    <row r="165" spans="1:7">
+      <c r="A165" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="162"/>
-      <c r="C165" s="162"/>
-      <c r="D165" s="162"/>
-      <c r="E165" s="162"/>
-    </row>
-    <row r="166" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="165"/>
+      <c r="C165" s="165"/>
+      <c r="D165" s="165"/>
+      <c r="E165" s="165"/>
+    </row>
+    <row r="166" spans="1:7" ht="16" thickBot="1">
       <c r="A166" s="24" t="s">
         <v>208</v>
       </c>
@@ -28842,7 +28845,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="16" thickBot="1">
       <c r="A167" s="10" t="s">
         <v>209</v>
       </c>
@@ -28851,16 +28854,16 @@
         <v>3.4219694129380196E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="B168" s="47"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="162" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" s="165" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="162"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="165"/>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="24" t="s">
         <v>491</v>
       </c>
@@ -28868,7 +28871,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="16" thickBot="1">
       <c r="A171" s="24" t="s">
         <v>492</v>
       </c>
@@ -28877,7 +28880,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="16" thickBot="1">
       <c r="A172" s="24" t="s">
         <v>493</v>
       </c>
@@ -28886,19 +28889,19 @@
         <v>0.23581749418153608</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="B173" s="47"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="162" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="162"/>
-      <c r="C174" s="162"/>
-      <c r="D174" s="162"/>
-      <c r="E174" s="162"/>
-    </row>
-    <row r="175" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="165"/>
+      <c r="C174" s="165"/>
+      <c r="D174" s="165"/>
+      <c r="E174" s="165"/>
+    </row>
+    <row r="175" spans="1:7" ht="16" thickBot="1">
       <c r="A175" s="24" t="s">
         <v>500</v>
       </c>
@@ -28906,7 +28909,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="16" thickBot="1">
       <c r="A176" s="24" t="s">
         <v>495</v>
       </c>
@@ -28915,16 +28918,16 @@
         <v>0.87539999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="162" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="165" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="162"/>
-      <c r="C178" s="162"/>
-      <c r="D178" s="162"/>
-      <c r="E178" s="162"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="165"/>
+      <c r="C178" s="165"/>
+      <c r="D178" s="165"/>
+      <c r="E178" s="165"/>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="26" t="s">
         <v>497</v>
       </c>
@@ -28932,7 +28935,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="16" thickBot="1">
       <c r="A180" s="10" t="s">
         <v>498</v>
       </c>
@@ -28940,7 +28943,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="16" thickBot="1">
       <c r="A181" s="10" t="s">
         <v>211</v>
       </c>
@@ -28949,16 +28952,16 @@
         <v>1.1257142857142857</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="162" t="s">
+    <row r="183" spans="1:5">
+      <c r="A183" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="162"/>
-      <c r="C183" s="162"/>
-      <c r="D183" s="162"/>
-      <c r="E183" s="162"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="165"/>
+      <c r="C183" s="165"/>
+      <c r="D183" s="165"/>
+      <c r="E183" s="165"/>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="24" t="s">
         <v>627</v>
       </c>
@@ -28966,7 +28969,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="24" t="s">
         <v>628</v>
       </c>
@@ -28974,7 +28977,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="24" t="s">
         <v>629</v>
       </c>
@@ -28983,7 +28986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="24" t="s">
         <v>630</v>
       </c>
@@ -28992,7 +28995,7 @@
         <v>0.67139665221009714</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="16" thickBot="1">
       <c r="A188" s="24" t="s">
         <v>631</v>
       </c>
@@ -29001,7 +29004,7 @@
         <v>0.44858421050781644</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="16" thickBot="1">
       <c r="A189" s="24" t="s">
         <v>632</v>
       </c>
@@ -29010,16 +29013,16 @@
         <v>0.33186409400289502</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="162" t="s">
+    <row r="191" spans="1:5">
+      <c r="A191" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="B191" s="162"/>
-      <c r="C191" s="162"/>
-      <c r="D191" s="162"/>
-      <c r="E191" s="162"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="165"/>
+      <c r="C191" s="165"/>
+      <c r="D191" s="165"/>
+      <c r="E191" s="165"/>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="22" t="s">
         <v>220</v>
       </c>
@@ -29028,7 +29031,7 @@
       </c>
       <c r="C192" s="22"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="10" t="s">
         <v>222</v>
       </c>
@@ -29039,7 +29042,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="10" t="s">
         <v>224</v>
       </c>
@@ -29049,7 +29052,7 @@
       </c>
       <c r="C194" s="50"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="10" t="s">
         <v>225</v>
       </c>
@@ -29057,7 +29060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="16" thickBot="1">
       <c r="A196" s="10" t="s">
         <v>226</v>
       </c>
@@ -29066,7 +29069,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="16" thickBot="1">
       <c r="A197" s="10" t="s">
         <v>227</v>
       </c>
@@ -29077,6 +29080,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -29091,12 +29100,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF7F71E-7745-46B6-AC67-4F76E5867746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E19869-D415-460B-886A-772398E3F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1231">
   <si>
     <t>Short Name</t>
   </si>
@@ -4212,6 +4212,9 @@
   </si>
   <si>
     <t>This tab contains information about each policy that does not vary by subscripted element of that policy.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</t>
   </si>
 </sst>
 </file>
@@ -5405,9 +5408,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5417,10 +5418,12 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6509,8 +6512,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72:L72"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6710,7 +6713,7 @@
         <v>579</v>
       </c>
       <c r="J6" s="169" t="s">
-        <v>946</v>
+        <v>1230</v>
       </c>
       <c r="K6" s="76" t="s">
         <v>580</v>
@@ -9491,7 +9494,7 @@
       <c r="O2" s="101" t="s">
         <v>1090</v>
       </c>
-      <c r="P2" s="196" t="str">
+      <c r="P2" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C2,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9553,7 +9556,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P3" s="196" t="str">
+      <c r="P3" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C3,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9617,7 +9620,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P4" s="196" t="str">
+      <c r="P4" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C4,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9681,7 +9684,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P5" s="196" t="str">
+      <c r="P5" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C5,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9745,7 +9748,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P6" s="196" t="str">
+      <c r="P6" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C6,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9809,7 +9812,7 @@
         <f t="shared" si="1"/>
         <v>% reduction in emissions</v>
       </c>
-      <c r="P7" s="196" t="str">
+      <c r="P7" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C7,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
@@ -9860,7 +9863,7 @@
       <c r="O8" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="196" t="str">
+      <c r="P8" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C8,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a variety of non-monetary benefits that government may provide to users of battery electric passenger LDVs.  Examples include access to high-occupancy vehicle (HOV) lanes even when driven by a single person, access to parking spaces reserved for electric vehicles, building out a more extensive network of charging sations, requiring developers of projects that include off-street parking to provide charging stations, etc.</v>
       </c>
@@ -9919,9 +9922,9 @@
       <c r="O9" s="56" t="s">
         <v>579</v>
       </c>
-      <c r="P9" s="196" t="str">
+      <c r="P9" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C9,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>580</v>
@@ -9987,9 +9990,9 @@
         <f t="shared" si="4"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P10" s="196" t="str">
+      <c r="P10" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C10,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q10" s="64" t="str">
         <f t="shared" si="4"/>
@@ -10057,9 +10060,9 @@
         <f t="shared" si="4"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P11" s="196" t="str">
+      <c r="P11" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C11,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q11" s="64" t="str">
         <f t="shared" si="4"/>
@@ -10127,9 +10130,9 @@
         <f t="shared" si="4"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P12" s="196" t="str">
+      <c r="P12" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C12,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q12" s="64" t="str">
         <f t="shared" si="4"/>
@@ -10183,9 +10186,9 @@
       <c r="M13" s="88"/>
       <c r="N13" s="88"/>
       <c r="O13" s="56"/>
-      <c r="P13" s="196" t="str">
+      <c r="P13" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C13,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q13" s="76"/>
       <c r="R13" s="76"/>
@@ -10233,9 +10236,9 @@
       <c r="M14" s="88"/>
       <c r="N14" s="88"/>
       <c r="O14" s="56"/>
-      <c r="P14" s="196" t="str">
+      <c r="P14" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C14,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q14" s="76"/>
       <c r="R14" s="76"/>
@@ -10283,9 +10286,9 @@
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
       <c r="O15" s="56"/>
-      <c r="P15" s="196" t="str">
+      <c r="P15" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C15,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q15" s="76"/>
       <c r="R15" s="76"/>
@@ -10333,9 +10336,9 @@
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="56"/>
-      <c r="P16" s="196" t="str">
+      <c r="P16" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C16,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q16" s="76"/>
       <c r="R16" s="76"/>
@@ -10383,9 +10386,9 @@
       <c r="M17" s="88"/>
       <c r="N17" s="88"/>
       <c r="O17" s="56"/>
-      <c r="P17" s="196" t="str">
+      <c r="P17" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C17,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q17" s="76"/>
       <c r="R17" s="76"/>
@@ -10433,9 +10436,9 @@
       <c r="M18" s="88"/>
       <c r="N18" s="88"/>
       <c r="O18" s="56"/>
-      <c r="P18" s="196" t="str">
+      <c r="P18" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C18,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q18" s="76"/>
       <c r="R18" s="76"/>
@@ -10497,9 +10500,9 @@
         <f t="shared" si="4"/>
         <v>% of new vehicles sold</v>
       </c>
-      <c r="P19" s="196" t="str">
+      <c r="P19" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C19,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q19" s="64" t="str">
         <f t="shared" ref="Q19:R19" si="6">Q$9</f>
@@ -10553,9 +10556,9 @@
       <c r="M20" s="88"/>
       <c r="N20" s="88"/>
       <c r="O20" s="56"/>
-      <c r="P20" s="196" t="str">
+      <c r="P20" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C20,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy requires the specified percentage of new passenger LDVs to consist of battery electric vehicles.  If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect.  Manufactuers may meet a sales mandate through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
+        <v>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</v>
       </c>
       <c r="Q20" s="76"/>
       <c r="R20" s="76"/>
@@ -10608,7 +10611,7 @@
       <c r="O21" s="76" t="s">
         <v>567</v>
       </c>
-      <c r="P21" s="196" t="str">
+      <c r="P21" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C21,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10662,7 +10665,7 @@
       <c r="M22" s="78"/>
       <c r="N22" s="78"/>
       <c r="O22" s="78"/>
-      <c r="P22" s="196" t="str">
+      <c r="P22" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C22,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10712,7 +10715,7 @@
       <c r="M23" s="78"/>
       <c r="N23" s="78"/>
       <c r="O23" s="78"/>
-      <c r="P23" s="196" t="str">
+      <c r="P23" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C23,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10776,7 +10779,7 @@
         <f t="shared" si="8"/>
         <v>% of vehicle cost</v>
       </c>
-      <c r="P24" s="196" t="str">
+      <c r="P24" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C24,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10832,7 +10835,7 @@
       <c r="M25" s="78"/>
       <c r="N25" s="78"/>
       <c r="O25" s="78"/>
-      <c r="P25" s="196" t="str">
+      <c r="P25" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C25,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10882,7 +10885,7 @@
       <c r="M26" s="78"/>
       <c r="N26" s="78"/>
       <c r="O26" s="78"/>
-      <c r="P26" s="196" t="str">
+      <c r="P26" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C26,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10932,7 +10935,7 @@
       <c r="M27" s="78"/>
       <c r="N27" s="78"/>
       <c r="O27" s="78"/>
-      <c r="P27" s="196" t="str">
+      <c r="P27" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C27,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -10982,7 +10985,7 @@
       <c r="M28" s="78"/>
       <c r="N28" s="78"/>
       <c r="O28" s="78"/>
-      <c r="P28" s="196" t="str">
+      <c r="P28" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C28,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -11032,7 +11035,7 @@
       <c r="M29" s="78"/>
       <c r="N29" s="78"/>
       <c r="O29" s="78"/>
-      <c r="P29" s="196" t="str">
+      <c r="P29" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C29,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -11082,7 +11085,7 @@
       <c r="M30" s="78"/>
       <c r="N30" s="78"/>
       <c r="O30" s="78"/>
-      <c r="P30" s="196" t="str">
+      <c r="P30" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C30,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -11132,7 +11135,7 @@
       <c r="M31" s="78"/>
       <c r="N31" s="78"/>
       <c r="O31" s="78"/>
-      <c r="P31" s="196" t="str">
+      <c r="P31" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C31,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -11182,7 +11185,7 @@
       <c r="M32" s="78"/>
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
-      <c r="P32" s="196" t="str">
+      <c r="P32" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C32,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
@@ -11229,7 +11232,7 @@
       <c r="O33" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="P33" s="196" t="str">
+      <c r="P33" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C33,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Guidance for setting values:** The feebate is set as a fraction of the global best practice feebate rate.  The global best practice feebate rate would levy a fee of approximately $1350 CDN on a vehicle that consumes 12 liters per 100 km if the pivot point is 10 liters per 100 km.</v>
       </c>
@@ -11280,7 +11283,7 @@
       </c>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="196" t="str">
+      <c r="P34" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C34,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11329,7 +11332,7 @@
       <c r="M35" s="62"/>
       <c r="N35" s="62"/>
       <c r="O35" s="56"/>
-      <c r="P35" s="196" t="str">
+      <c r="P35" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C35,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11390,7 +11393,7 @@
       <c r="O36" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P36" s="196" t="str">
+      <c r="P36" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C36,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11448,7 +11451,7 @@
       <c r="M37" s="62"/>
       <c r="N37" s="62"/>
       <c r="O37" s="56"/>
-      <c r="P37" s="196" t="str">
+      <c r="P37" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C37,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11498,7 +11501,7 @@
       <c r="M38" s="62"/>
       <c r="N38" s="62"/>
       <c r="O38" s="56"/>
-      <c r="P38" s="196" t="str">
+      <c r="P38" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C38,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11548,7 +11551,7 @@
       <c r="M39" s="62"/>
       <c r="N39" s="62"/>
       <c r="O39" s="56"/>
-      <c r="P39" s="196" t="str">
+      <c r="P39" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C39,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11596,7 +11599,7 @@
       </c>
       <c r="L40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="196" t="str">
+      <c r="P40" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C40,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11645,7 +11648,7 @@
       <c r="M41" s="65"/>
       <c r="N41" s="64"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="196" t="str">
+      <c r="P41" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C41,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11695,7 +11698,7 @@
       <c r="M42" s="65"/>
       <c r="N42" s="64"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="196" t="str">
+      <c r="P42" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C42,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11759,7 +11762,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P43" s="196" t="str">
+      <c r="P43" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C43,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11819,7 +11822,7 @@
       <c r="M44" s="65"/>
       <c r="N44" s="64"/>
       <c r="O44" s="58"/>
-      <c r="P44" s="196" t="str">
+      <c r="P44" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C44,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11869,7 +11872,7 @@
       <c r="M45" s="65"/>
       <c r="N45" s="64"/>
       <c r="O45" s="58"/>
-      <c r="P45" s="196" t="str">
+      <c r="P45" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C45,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11917,7 +11920,7 @@
       </c>
       <c r="L46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="196" t="str">
+      <c r="P46" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C46,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -11966,7 +11969,7 @@
       <c r="M47" s="66"/>
       <c r="N47" s="64"/>
       <c r="O47" s="58"/>
-      <c r="P47" s="196" t="str">
+      <c r="P47" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C47,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12016,7 +12019,7 @@
       <c r="M48" s="66"/>
       <c r="N48" s="64"/>
       <c r="O48" s="58"/>
-      <c r="P48" s="196" t="str">
+      <c r="P48" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C48,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12066,7 +12069,7 @@
       <c r="M49" s="66"/>
       <c r="N49" s="64"/>
       <c r="O49" s="58"/>
-      <c r="P49" s="196" t="str">
+      <c r="P49" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C49,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12116,7 +12119,7 @@
       <c r="M50" s="66"/>
       <c r="N50" s="64"/>
       <c r="O50" s="58"/>
-      <c r="P50" s="196" t="str">
+      <c r="P50" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C50,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12180,7 +12183,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P51" s="196" t="str">
+      <c r="P51" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C51,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12238,7 +12241,7 @@
       </c>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="196" t="str">
+      <c r="P52" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C52,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12287,7 +12290,7 @@
       <c r="M53" s="66"/>
       <c r="N53" s="64"/>
       <c r="O53" s="58"/>
-      <c r="P53" s="196" t="str">
+      <c r="P53" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C53,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12337,7 +12340,7 @@
       <c r="M54" s="66"/>
       <c r="N54" s="64"/>
       <c r="O54" s="58"/>
-      <c r="P54" s="196" t="str">
+      <c r="P54" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C54,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12387,7 +12390,7 @@
       <c r="M55" s="66"/>
       <c r="N55" s="64"/>
       <c r="O55" s="58"/>
-      <c r="P55" s="196" t="str">
+      <c r="P55" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C55,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12437,7 +12440,7 @@
       <c r="M56" s="66"/>
       <c r="N56" s="64"/>
       <c r="O56" s="58"/>
-      <c r="P56" s="196" t="str">
+      <c r="P56" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C56,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12501,7 +12504,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P57" s="196" t="str">
+      <c r="P57" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C57,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12559,7 +12562,7 @@
       </c>
       <c r="L58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="196" t="str">
+      <c r="P58" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C58,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12608,7 +12611,7 @@
       <c r="M59" s="66"/>
       <c r="N59" s="64"/>
       <c r="O59" s="58"/>
-      <c r="P59" s="196" t="str">
+      <c r="P59" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C59,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12658,7 +12661,7 @@
       <c r="M60" s="66"/>
       <c r="N60" s="64"/>
       <c r="O60" s="58"/>
-      <c r="P60" s="196" t="str">
+      <c r="P60" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C60,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12708,7 +12711,7 @@
       <c r="M61" s="66"/>
       <c r="N61" s="64"/>
       <c r="O61" s="58"/>
-      <c r="P61" s="196" t="str">
+      <c r="P61" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C61,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12758,7 +12761,7 @@
       <c r="M62" s="66"/>
       <c r="N62" s="64"/>
       <c r="O62" s="58"/>
-      <c r="P62" s="196" t="str">
+      <c r="P62" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C62,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12822,7 +12825,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P63" s="196" t="str">
+      <c r="P63" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C63,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12880,7 +12883,7 @@
       </c>
       <c r="L64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="196" t="str">
+      <c r="P64" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C64,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12929,7 +12932,7 @@
       <c r="M65" s="66"/>
       <c r="N65" s="64"/>
       <c r="O65" s="58"/>
-      <c r="P65" s="196" t="str">
+      <c r="P65" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C65,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -12993,7 +12996,7 @@
         <f>O$36</f>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="P66" s="196" t="str">
+      <c r="P66" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C66,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -13053,7 +13056,7 @@
       <c r="M67" s="66"/>
       <c r="N67" s="64"/>
       <c r="O67" s="58"/>
-      <c r="P67" s="196" t="str">
+      <c r="P67" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C67,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -13103,7 +13106,7 @@
       <c r="M68" s="66"/>
       <c r="N68" s="64"/>
       <c r="O68" s="58"/>
-      <c r="P68" s="196" t="str">
+      <c r="P68" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C68,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -13153,7 +13156,7 @@
       <c r="M69" s="66"/>
       <c r="N69" s="64"/>
       <c r="O69" s="58"/>
-      <c r="P69" s="196" t="str">
+      <c r="P69" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C69,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Canadian fuel economy standards are scheduled to improve to approximately 4.8 liters per 100 km in 2025 and 3.8 liters per 100 km in 2050. // **HDVs:** Canadian fuel economy standards for heavy-duty vehicles are synchronized with U.S. standards.  These standards vary by vehicle characteristics, but proposed standards for tractor-trailers (which are responsible for roughly 2/3 of HDV emissions) would reduce GHG emissions by 24% for 2027 model year trucks relative to the 2018 model year, then remain constant.  Therefore, a 20% increase in fuel economy will achieve a reduction in GHG per mile of 40% for 2050 model year trucks relative to the 2018 model year. // **Aircraft:** Canada currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve 59% from 2017-2050 in the BAU case. // **Rail:** Canada currently does not have fuel economy standards for trains.  In the absense of standards, new freight train fuel economy is projected to improve roughly 34% from 2017-2050 in the BAU case. // **Ships:** Canada currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 41% from 2017-2050 in the BAU case. // **Motorbikes:** Canada currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2017-2050 in the BAU case.</v>
       </c>
@@ -13200,7 +13203,7 @@
       <c r="O70" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="P70" s="196" t="str">
+      <c r="P70" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C70,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the percentage reduction in carbon emissions from the transportation sector that must be achieved via fuel switching.  This value is in addition to BAU requirements. // **Guidance for setting values:** Canada's existing Renewable Fuel Requirement equates to an LCFS percentage of roughly 2%.  This is projected to be replaced with a Clean Fuels Standard, which will be considerably more stringent, but the specific numerical value of the forthcoming Clean Fuels Standard has not yet been set.</v>
       </c>
@@ -13255,7 +13258,7 @@
       <c r="O71" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="P71" s="196" t="str">
+      <c r="P71" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C71,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -13321,7 +13324,7 @@
         <f t="shared" si="13"/>
         <v>% of TDM package implemented</v>
       </c>
-      <c r="P72" s="196" t="str">
+      <c r="P72" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C72,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -13381,7 +13384,7 @@
       <c r="O73" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="P73" s="196" t="str">
+      <c r="P73" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C73,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
@@ -13445,7 +13448,7 @@
         <f t="shared" si="15"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="P74" s="196" t="str">
+      <c r="P74" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C74,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
@@ -13511,7 +13514,7 @@
         <f t="shared" si="15"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="P75" s="196" t="str">
+      <c r="P75" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C75,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
@@ -13572,7 +13575,7 @@
       <c r="O76" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P76" s="196" t="str">
+      <c r="P76" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C76,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -13643,7 +13646,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P77" s="196" t="str">
+      <c r="P77" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C77,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -13722,7 +13725,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P78" s="196" t="str">
+      <c r="P78" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C78,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -13801,7 +13804,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P79" s="196" t="str">
+      <c r="P79" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C79,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -13880,7 +13883,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P80" s="196" t="str">
+      <c r="P80" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C80,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -13959,7 +13962,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P81" s="196" t="str">
+      <c r="P81" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C81,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14039,7 +14042,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P82" s="196" t="str">
+      <c r="P82" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C82,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14119,7 +14122,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P83" s="196" t="str">
+      <c r="P83" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C83,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14199,7 +14202,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P84" s="196" t="str">
+      <c r="P84" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C84,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14279,7 +14282,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P85" s="196" t="str">
+      <c r="P85" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C85,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14359,7 +14362,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P86" s="196" t="str">
+      <c r="P86" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C86,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14439,7 +14442,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P87" s="196" t="str">
+      <c r="P87" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C87,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14519,7 +14522,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P88" s="196" t="str">
+      <c r="P88" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C88,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14599,7 +14602,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P89" s="196" t="str">
+      <c r="P89" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C89,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14679,7 +14682,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P90" s="196" t="str">
+      <c r="P90" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C90,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14759,7 +14762,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P91" s="196" t="str">
+      <c r="P91" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C91,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14839,7 +14842,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P92" s="196" t="str">
+      <c r="P92" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C92,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14919,7 +14922,7 @@
         <f t="shared" si="17"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P93" s="196" t="str">
+      <c r="P93" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C93,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</v>
       </c>
@@ -14982,7 +14985,7 @@
       <c r="O94" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="P94" s="196" t="str">
+      <c r="P94" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C94,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program to train contractors in energy-efficient products and installation practices.  This covers activities such as air sealing, building framing, and choice and application of insulation.  This policy affects newly sold building envelope components, which reduce the energy use of heating, cooling, and ventilation systems in buildings by 3.7% (based on a 2006 study from the Energy Center of Wisconsin).</v>
       </c>
@@ -15036,7 +15039,7 @@
       <c r="O95" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="P95" s="196" t="str">
+      <c r="P95" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C95,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires at least the specified percentage of total retail electricity demand to be generated by residential and commercial buildings' distributed solar systems (typically rooftop PV). // **Guidance for setting values:** Although a number of Canadian provinces have renewable portfolio standards (RPS), none currently has a carve-out for rooftop solar.  The U.S. state of Colorado has established a 3% carve-out for 2020 (though it includes non-solar on-site sources).</v>
       </c>
@@ -15091,7 +15094,7 @@
       <c r="O96" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="P96" s="196" t="str">
+      <c r="P96" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C96,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the government to reimburse building owners for a percentage of the cost of new distributed solar PV capacity that is installed on or around buildings. // **Guidance for setting values:** Many Canadian provinces and territories have subsidies for rooftop solar.  For example, British Columbia offers a sales tax exemption worth roughly 5% of the equipment cost.  Alberta's Residential and Commercial Solar Program offers $0.75/watt, which might equal roughly 17% of the cost of a typical solar system.</v>
       </c>
@@ -15142,7 +15145,7 @@
       <c r="O97" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="P97" s="196" t="str">
+      <c r="P97" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C97,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program requiring newly sold heating systems, cooling and ventilation systems, and appliances to feature prominent, well-designed labels highlighting their energy efficiencies.  The policy reduces energy consumption of newly sold buiding components of these types by 10%.</v>
       </c>
@@ -15200,7 +15203,7 @@
       <c r="O98" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P98" s="196" t="str">
+      <c r="P98" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C98,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15268,7 +15271,7 @@
         <f t="shared" si="22"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P99" s="196" t="str">
+      <c r="P99" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C99,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15335,7 +15338,7 @@
         <f t="shared" si="22"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P100" s="196" t="str">
+      <c r="P100" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C100,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15402,7 +15405,7 @@
         <f t="shared" si="22"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P101" s="196" t="str">
+      <c r="P101" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C101,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15469,7 +15472,7 @@
         <f t="shared" si="22"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P102" s="196" t="str">
+      <c r="P102" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C102,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15536,7 +15539,7 @@
         <f t="shared" si="22"/>
         <v>% of existing building components</v>
       </c>
-      <c r="P103" s="196" t="str">
+      <c r="P103" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C103,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -15594,7 +15597,7 @@
       <c r="O104" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="P104" s="196" t="str">
+      <c r="P104" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C104,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15660,7 +15663,7 @@
         <f>O$104</f>
         <v>on/off</v>
       </c>
-      <c r="P105" s="196" t="str">
+      <c r="P105" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C105,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15714,7 +15717,7 @@
       <c r="M106" s="68"/>
       <c r="N106" s="68"/>
       <c r="O106" s="56"/>
-      <c r="P106" s="196" t="str">
+      <c r="P106" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C106,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15762,7 +15765,7 @@
       <c r="M107" s="68"/>
       <c r="N107" s="68"/>
       <c r="O107" s="56"/>
-      <c r="P107" s="196" t="str">
+      <c r="P107" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C107,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15822,7 +15825,7 @@
         <f>O$104</f>
         <v>on/off</v>
       </c>
-      <c r="P108" s="196" t="str">
+      <c r="P108" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C108,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15876,7 +15879,7 @@
       <c r="M109" s="68"/>
       <c r="N109" s="68"/>
       <c r="O109" s="56"/>
-      <c r="P109" s="196" t="str">
+      <c r="P109" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C109,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -15927,7 +15930,7 @@
       <c r="O110" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P110" s="196" t="str">
+      <c r="P110" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C110,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -15991,7 +15994,7 @@
         <f t="shared" si="26"/>
         <v>on/off</v>
       </c>
-      <c r="P111" s="196" t="str">
+      <c r="P111" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C111,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16057,7 +16060,7 @@
         <f t="shared" si="26"/>
         <v>on/off</v>
       </c>
-      <c r="P112" s="196" t="str">
+      <c r="P112" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C112,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16123,7 +16126,7 @@
         <f t="shared" si="26"/>
         <v>on/off</v>
       </c>
-      <c r="P113" s="196" t="str">
+      <c r="P113" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C113,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16175,7 +16178,7 @@
       <c r="M114" s="68"/>
       <c r="N114" s="68"/>
       <c r="O114" s="56"/>
-      <c r="P114" s="196" t="str">
+      <c r="P114" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C114,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16221,7 +16224,7 @@
       <c r="M115" s="68"/>
       <c r="N115" s="68"/>
       <c r="O115" s="56"/>
-      <c r="P115" s="196" t="str">
+      <c r="P115" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C115,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16267,7 +16270,7 @@
       <c r="M116" s="68"/>
       <c r="N116" s="68"/>
       <c r="O116" s="56"/>
-      <c r="P116" s="196" t="str">
+      <c r="P116" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C116,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16313,7 +16316,7 @@
       <c r="M117" s="68"/>
       <c r="N117" s="68"/>
       <c r="O117" s="56"/>
-      <c r="P117" s="196" t="str">
+      <c r="P117" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C117,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16359,7 +16362,7 @@
       <c r="M118" s="68"/>
       <c r="N118" s="68"/>
       <c r="O118" s="56"/>
-      <c r="P118" s="196" t="str">
+      <c r="P118" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C118,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16405,7 +16408,7 @@
       <c r="M119" s="68"/>
       <c r="N119" s="68"/>
       <c r="O119" s="56"/>
-      <c r="P119" s="196" t="str">
+      <c r="P119" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C119,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16463,7 +16466,7 @@
         <f t="shared" si="26"/>
         <v>on/off</v>
       </c>
-      <c r="P120" s="196" t="str">
+      <c r="P120" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C120,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16515,7 +16518,7 @@
       <c r="M121" s="67"/>
       <c r="N121" s="67"/>
       <c r="O121" s="58"/>
-      <c r="P121" s="196" t="str">
+      <c r="P121" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C121,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed.</v>
       </c>
@@ -16562,7 +16565,7 @@
       <c r="O122" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="P122" s="196" t="str">
+      <c r="P122" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C122,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases or decreases the amount of electricity exported from Canada to the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2017-2050, in the BAU case, electricity exports are projected to increase by 14%.</v>
       </c>
@@ -16613,7 +16616,7 @@
       <c r="O123" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="P123" s="196" t="str">
+      <c r="P123" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C123,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases or decreases the amount of electricity imported to Canada from the United States.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2017-2050, in the BAU case, electricity imports are projected to increase by 14%.</v>
       </c>
@@ -16656,7 +16659,7 @@
       <c r="M124" s="68"/>
       <c r="N124" s="68"/>
       <c r="O124" s="56"/>
-      <c r="P124" s="196">
+      <c r="P124" s="191">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C124,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -16703,7 +16706,7 @@
       <c r="O125" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P125" s="196" t="str">
+      <c r="P125" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C125,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** A 100% setting provides for an additional 48 GW of demand response capacity in 2050 (on top of a BAU quantity of 6 GW).</v>
       </c>
@@ -16760,7 +16763,7 @@
       <c r="O126" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="P126" s="196" t="str">
+      <c r="P126" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C126,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -16816,7 +16819,7 @@
       <c r="M127" s="74"/>
       <c r="N127" s="74"/>
       <c r="O127" s="56"/>
-      <c r="P127" s="196" t="str">
+      <c r="P127" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C127,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -16876,7 +16879,7 @@
         <f>O$126</f>
         <v>MW/year</v>
       </c>
-      <c r="P128" s="196" t="str">
+      <c r="P128" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C128,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -16930,7 +16933,7 @@
       <c r="M129" s="74"/>
       <c r="N129" s="74"/>
       <c r="O129" s="56"/>
-      <c r="P129" s="196" t="str">
+      <c r="P129" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C129,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -16978,7 +16981,7 @@
       <c r="M130" s="74"/>
       <c r="N130" s="74"/>
       <c r="O130" s="56"/>
-      <c r="P130" s="196" t="str">
+      <c r="P130" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C130,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17026,7 +17029,7 @@
       <c r="M131" s="74"/>
       <c r="N131" s="74"/>
       <c r="O131" s="56"/>
-      <c r="P131" s="196" t="str">
+      <c r="P131" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C131,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17074,7 +17077,7 @@
       <c r="M132" s="74"/>
       <c r="N132" s="74"/>
       <c r="O132" s="56"/>
-      <c r="P132" s="196" t="str">
+      <c r="P132" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C132,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17122,7 +17125,7 @@
       <c r="M133" s="74"/>
       <c r="N133" s="74"/>
       <c r="O133" s="56"/>
-      <c r="P133" s="196" t="str">
+      <c r="P133" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C133,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17168,7 +17171,7 @@
       <c r="M134" s="74"/>
       <c r="N134" s="74"/>
       <c r="O134" s="56"/>
-      <c r="P134" s="196" t="str">
+      <c r="P134" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C134,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17214,7 +17217,7 @@
       <c r="M135" s="74"/>
       <c r="N135" s="74"/>
       <c r="O135" s="56"/>
-      <c r="P135" s="196" t="str">
+      <c r="P135" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C135,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17260,7 +17263,7 @@
       <c r="M136" s="67"/>
       <c r="N136" s="67"/>
       <c r="O136" s="58"/>
-      <c r="P136" s="196" t="str">
+      <c r="P136" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C136,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17306,7 +17309,7 @@
       <c r="M137" s="67"/>
       <c r="N137" s="67"/>
       <c r="O137" s="58"/>
-      <c r="P137" s="196" t="str">
+      <c r="P137" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C137,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Hard Coal:** The BAU scenario projects roughly 5 GW of coal retirements through 2050, most of it by 2029.  4.3 GW remain in 2050. // **Nuclear:** The BAU scenario projects roughly 3 GW of nuclear retirements by 2022, then capacity stabilizes at 9GW and remains constant to 2050.</v>
       </c>
@@ -17353,7 +17356,7 @@
       <c r="O138" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="P138" s="196" t="str">
+      <c r="P138" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C138,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes grid-scale electricity storage from chemical batteries to grow at the specified percentage, annually, above the amount predicted in the BAU Scenario. // **Guidance for setting values:** No estimate of the potential growth rate of grid-scale battery storage in Canada was identified.  In the U.S., a 10% growth rate would be required to obtain 80% of electricity from renewables in 2050, according to the National Renewable Energy Laboratory's Renewable Electricity Futures study.</v>
       </c>
@@ -17408,7 +17411,7 @@
       <c r="O139" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="P139" s="196" t="str">
+      <c r="P139" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C139,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes additional transmission capacity to be built relative to the BAU case.  Transmission increases the flexibility of the grid, allowing for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** In the BAU case, Canada's transmission capacity is projected to grow roughly 6% from 2017 through 2050.</v>
       </c>
@@ -17461,7 +17464,7 @@
       <c r="O140" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="P140" s="196" t="str">
+      <c r="P140" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C140,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy forces the development of renewable energy and the conversion of coal units to natural gas according to the plans known as of May 2019. It is intended to be used as part of a scenario involving accelerated coal retirements during the 2022-2029 period. It should be noted that this policy lever does not decommission coal power, and this needs to be done separately. (Details of projects included available in the elec/PMCCS variable.)</v>
       </c>
@@ -17500,7 +17503,7 @@
       <c r="M141" s="68"/>
       <c r="N141" s="68"/>
       <c r="O141" s="56"/>
-      <c r="P141" s="196">
+      <c r="P141" s="191">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C141,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -17545,7 +17548,7 @@
       <c r="O142" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="P142" s="196" t="str">
+      <c r="P142" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C142,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy extends the lifetime of all nuclear plants by the specified number of years. // **Guidance for setting values:** The BAU case assumes 60-year lifetimes for nuclear plants, because currently-running nuclear plants (licensed for 40 years) routinely receive 20-year extensions.  Some utilities may apply for further 20-year license extensions (allowing for a lifetime of 80 years).</v>
       </c>
@@ -17594,7 +17597,7 @@
       <c r="M143" s="66"/>
       <c r="N143" s="66"/>
       <c r="O143" s="11"/>
-      <c r="P143" s="196" t="str">
+      <c r="P143" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C143,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17640,7 +17643,7 @@
       <c r="M144" s="66"/>
       <c r="N144" s="66"/>
       <c r="O144" s="11"/>
-      <c r="P144" s="196" t="str">
+      <c r="P144" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C144,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17686,7 +17689,7 @@
       <c r="M145" s="73"/>
       <c r="N145" s="73"/>
       <c r="O145" s="11"/>
-      <c r="P145" s="196" t="str">
+      <c r="P145" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C145,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17746,7 +17749,7 @@
       <c r="O146" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P146" s="196" t="str">
+      <c r="P146" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C146,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17798,7 +17801,7 @@
       <c r="M147" s="66"/>
       <c r="N147" s="66"/>
       <c r="O147" s="11"/>
-      <c r="P147" s="196" t="str">
+      <c r="P147" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C147,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17844,7 +17847,7 @@
       <c r="M148" s="73"/>
       <c r="N148" s="73"/>
       <c r="O148" s="11"/>
-      <c r="P148" s="196" t="str">
+      <c r="P148" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C148,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17890,7 +17893,7 @@
       <c r="M149" s="73"/>
       <c r="N149" s="73"/>
       <c r="O149" s="11"/>
-      <c r="P149" s="196" t="str">
+      <c r="P149" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C149,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17936,7 +17939,7 @@
       <c r="M150" s="73"/>
       <c r="N150" s="73"/>
       <c r="O150" s="11"/>
-      <c r="P150" s="196" t="str">
+      <c r="P150" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C150,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -17982,7 +17985,7 @@
       <c r="M151" s="73"/>
       <c r="N151" s="73"/>
       <c r="O151" s="11"/>
-      <c r="P151" s="196" t="str">
+      <c r="P151" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C151,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18028,7 +18031,7 @@
       <c r="M152" s="73"/>
       <c r="N152" s="73"/>
       <c r="O152" s="11"/>
-      <c r="P152" s="196" t="str">
+      <c r="P152" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C152,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18074,7 +18077,7 @@
       <c r="M153" s="73"/>
       <c r="N153" s="73"/>
       <c r="O153" s="11"/>
-      <c r="P153" s="196" t="str">
+      <c r="P153" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C153,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18120,7 +18123,7 @@
       <c r="M154" s="73"/>
       <c r="N154" s="73"/>
       <c r="O154" s="11"/>
-      <c r="P154" s="196" t="str">
+      <c r="P154" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C154,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18166,7 +18169,7 @@
       <c r="M155" s="73"/>
       <c r="N155" s="73"/>
       <c r="O155" s="11"/>
-      <c r="P155" s="196" t="str">
+      <c r="P155" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C155,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18212,7 +18215,7 @@
       <c r="M156" s="73"/>
       <c r="N156" s="73"/>
       <c r="O156" s="11"/>
-      <c r="P156" s="196" t="str">
+      <c r="P156" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C156,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18272,7 +18275,7 @@
       <c r="O157" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P157" s="196" t="str">
+      <c r="P157" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C157,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18324,7 +18327,7 @@
       <c r="M158" s="73"/>
       <c r="N158" s="73"/>
       <c r="O158" s="11"/>
-      <c r="P158" s="196" t="str">
+      <c r="P158" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C158,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18370,7 +18373,7 @@
       <c r="M159" s="73"/>
       <c r="N159" s="73"/>
       <c r="O159" s="11"/>
-      <c r="P159" s="196" t="str">
+      <c r="P159" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C159,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18430,7 +18433,7 @@
       <c r="O160" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P160" s="196" t="str">
+      <c r="P160" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C160,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18482,7 +18485,7 @@
       <c r="M161" s="73"/>
       <c r="N161" s="73"/>
       <c r="O161" s="11"/>
-      <c r="P161" s="196" t="str">
+      <c r="P161" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C161,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18528,7 +18531,7 @@
       <c r="M162" s="73"/>
       <c r="N162" s="73"/>
       <c r="O162" s="11"/>
-      <c r="P162" s="196" t="str">
+      <c r="P162" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C162,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18574,7 +18577,7 @@
       <c r="M163" s="73"/>
       <c r="N163" s="73"/>
       <c r="O163" s="11"/>
-      <c r="P163" s="196" t="str">
+      <c r="P163" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C163,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18620,7 +18623,7 @@
       <c r="M164" s="73"/>
       <c r="N164" s="73"/>
       <c r="O164" s="11"/>
-      <c r="P164" s="196" t="str">
+      <c r="P164" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C164,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18666,7 +18669,7 @@
       <c r="M165" s="73"/>
       <c r="N165" s="73"/>
       <c r="O165" s="11"/>
-      <c r="P165" s="196" t="str">
+      <c r="P165" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C165,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18712,7 +18715,7 @@
       <c r="M166" s="73"/>
       <c r="N166" s="73"/>
       <c r="O166" s="11"/>
-      <c r="P166" s="196" t="str">
+      <c r="P166" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C166,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18758,7 +18761,7 @@
       <c r="M167" s="73"/>
       <c r="N167" s="73"/>
       <c r="O167" s="11"/>
-      <c r="P167" s="196" t="str">
+      <c r="P167" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C167,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18804,7 +18807,7 @@
       <c r="M168" s="73"/>
       <c r="N168" s="73"/>
       <c r="O168" s="11"/>
-      <c r="P168" s="196" t="str">
+      <c r="P168" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C168,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18850,7 +18853,7 @@
       <c r="M169" s="73"/>
       <c r="N169" s="73"/>
       <c r="O169" s="11"/>
-      <c r="P169" s="196" t="str">
+      <c r="P169" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C169,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18896,7 +18899,7 @@
       <c r="M170" s="73"/>
       <c r="N170" s="73"/>
       <c r="O170" s="11"/>
-      <c r="P170" s="196" t="str">
+      <c r="P170" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C170,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18942,7 +18945,7 @@
       <c r="M171" s="73"/>
       <c r="N171" s="73"/>
       <c r="O171" s="11"/>
-      <c r="P171" s="196" t="str">
+      <c r="P171" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C171,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -18988,7 +18991,7 @@
       <c r="M172" s="73"/>
       <c r="N172" s="73"/>
       <c r="O172" s="11"/>
-      <c r="P172" s="196" t="str">
+      <c r="P172" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C172,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19034,7 +19037,7 @@
       <c r="M173" s="67"/>
       <c r="N173" s="67"/>
       <c r="O173" s="58"/>
-      <c r="P173" s="196" t="str">
+      <c r="P173" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C173,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19080,7 +19083,7 @@
       <c r="M174" s="67"/>
       <c r="N174" s="67"/>
       <c r="O174" s="58"/>
-      <c r="P174" s="196" t="str">
+      <c r="P174" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C174,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19126,7 +19129,7 @@
       <c r="M175" s="67"/>
       <c r="N175" s="67"/>
       <c r="O175" s="58"/>
-      <c r="P175" s="196" t="str">
+      <c r="P175" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C175,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19172,7 +19175,7 @@
       <c r="M176" s="67"/>
       <c r="N176" s="67"/>
       <c r="O176" s="58"/>
-      <c r="P176" s="196" t="str">
+      <c r="P176" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C176,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19218,7 +19221,7 @@
       <c r="M177" s="67"/>
       <c r="N177" s="67"/>
       <c r="O177" s="58"/>
-      <c r="P177" s="196" t="str">
+      <c r="P177" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C177,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19278,7 +19281,7 @@
       <c r="O178" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="P178" s="196" t="str">
+      <c r="P178" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C178,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **Preexisting Natural Gas Nonpeaker:** Preexisting natural gas nonpeakers have an average capacity factor of 38%.  In the U.S., as part of the proposed Clean Power Plan, the EPA assumed that nonpeaking natural gas plants could be reach a 75% capacity factor (ramping up to that value over a number of years).  The same is likely possible in Canada.  This would represent a 60% reduction in downtime. // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the U.S.  We assume the same is true of Canada.  The average capacity factor of new turbines in the BAU case is roughly 46%, so an improvement to 56% might be represented as a 19% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -19335,7 +19338,7 @@
       <c r="O179" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="P179" s="196" t="str">
+      <c r="P179" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C179,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -19399,7 +19402,7 @@
         <f t="shared" si="35"/>
         <v>% reduction in soft costs</v>
       </c>
-      <c r="P180" s="196" t="str">
+      <c r="P180" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C180,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -19465,7 +19468,7 @@
         <f t="shared" si="35"/>
         <v>% reduction in soft costs</v>
       </c>
-      <c r="P181" s="196" t="str">
+      <c r="P181" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C181,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies a reduction in soft costs (costs for things other than capital equipment) for new plants of the selected type(s), such as the costs of permitting, financing, project management, assembly, etc. // **Guidance for setting values:** Costs of permitting and financing can be reduced by streamlining permitting processes, but some soft costs (such as labor) may be difficult to reduce via policy.  A value of 50% would be an aggressive soft cost reduction.</v>
       </c>
@@ -19518,7 +19521,7 @@
       <c r="O182" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="P182" s="196" t="str">
+      <c r="P182" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C182,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in transmission and distribution losses that will be achieved by 2050. // **Guidance for setting values:** Canada has transmission and distribution losses of about 8%.  Germany, Japan, Finland, and the Netherlands have T&amp;D losses of around 4%.  Therefore, a 50% policy setting would cause Canada to match these countries' current level of T&amp;D losses by 2050.</v>
       </c>
@@ -19571,7 +19574,7 @@
       <c r="O183" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P183" s="196" t="str">
+      <c r="P183" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C183,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** This policy specifies the fraction of potential electricity generation that must come from qualifying clean energy sources (hydro, wind, solar, and biomass) in 2050. // **Guidance for setting values:** In the BAU case, electricity from qualifying sources accounts for 66% of the generation in 2017. </v>
       </c>
@@ -19616,7 +19619,7 @@
       <c r="M184" s="68"/>
       <c r="N184" s="68"/>
       <c r="O184" s="56"/>
-      <c r="P184" s="196" t="str">
+      <c r="P184" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C184,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19664,7 +19667,7 @@
       <c r="M185" s="69"/>
       <c r="N185" s="69"/>
       <c r="O185" s="58"/>
-      <c r="P185" s="196" t="str">
+      <c r="P185" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C185,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19720,7 +19723,7 @@
       <c r="O186" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="P186" s="196" t="str">
+      <c r="P186" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C186,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19772,7 +19775,7 @@
       <c r="M187" s="69"/>
       <c r="N187" s="69"/>
       <c r="O187" s="58"/>
-      <c r="P187" s="196" t="str">
+      <c r="P187" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C187,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19832,7 +19835,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P188" s="196" t="str">
+      <c r="P188" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C188,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19899,7 +19902,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P189" s="196" t="str">
+      <c r="P189" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C189,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -19966,7 +19969,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P190" s="196" t="str">
+      <c r="P190" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C190,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -20033,7 +20036,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P191" s="196" t="str">
+      <c r="P191" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C191,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -20086,7 +20089,7 @@
       <c r="M192" s="67"/>
       <c r="N192" s="67"/>
       <c r="O192" s="58"/>
-      <c r="P192" s="196" t="str">
+      <c r="P192" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C192,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -20146,7 +20149,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P193" s="196" t="str">
+      <c r="P193" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C193,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -20210,7 +20213,7 @@
         <f t="shared" si="38"/>
         <v>CAD$/MWh</v>
       </c>
-      <c r="P194" s="196" t="str">
+      <c r="P194" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C194,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Note that the Energy Policy Simulator chooses which new power plants to build based on lifetime plant costs. // **Nuclear:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Onshore Wind, Solar PV, Solar Thermal, Offshore Wind:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Biomass:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh. // **Geothermal:** Canada does not currently offer subsidies for utility-scale renewable electricity generation.  In the U.S., until its expiration in 2013, the Renewable Electricity Production Tax Credit (PTC) offered between US$11/MWh and US$23/MWh for electricity from wind, geothermal, and biomass.  State-level tax credits and feed-in tariffs for renewable energy range as high as US$54/MWh.</v>
       </c>
@@ -20264,7 +20267,7 @@
       <c r="O195" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P195" s="196" t="str">
+      <c r="P195" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C195,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces CO2 emissions from the cement industry by substituing other inputs, such as fly ash, for a portion of the clinker in cement. // **Guidance for setting values:**  If this policy is fully implemented, process emissions (non-energy emissions) from the cement and other carbonates industry are reduced by 17% in 2050.</v>
       </c>
@@ -20317,7 +20320,7 @@
       <c r="O196" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P196" s="196" t="str">
+      <c r="P196" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C196,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by increasing the use of cogeneration (also known as combined heat and power) and recovery of waste heat (to perform useful work). // **Guidance for setting values:** If this policy is fully implemented, fuel use is reduced by 7.9% for all industries in 2050.</v>
       </c>
@@ -20370,7 +20373,7 @@
       <c r="O197" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P197" s="196" t="str">
+      <c r="P197" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C197,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by retiring older, inefficient industrial facilities sooner than they otherwise would retire.  This policy does not affect demand for industrial products, so it is assumed that any facilities retired under this policy are replaced by new facilities or increased output from existing facilities in the same year. // **Guidance for setting values:** If this policy is fully implemented, fuel use is reduced for most industries between 2% and 9% in 2050.</v>
       </c>
@@ -20428,7 +20431,7 @@
       <c r="O198" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P198" s="196" t="str">
+      <c r="P198" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C198,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20496,7 +20499,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P199" s="196" t="str">
+      <c r="P199" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C199,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20566,7 +20569,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P200" s="196" t="str">
+      <c r="P200" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C200,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20636,7 +20639,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P201" s="196" t="str">
+      <c r="P201" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C201,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20706,7 +20709,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P202" s="196" t="str">
+      <c r="P202" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C202,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20776,7 +20779,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P203" s="196" t="str">
+      <c r="P203" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C203,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20846,7 +20849,7 @@
         <f>O$198</f>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P204" s="196" t="str">
+      <c r="P204" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C204,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20916,7 +20919,7 @@
         <f t="shared" si="40"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="P205" s="196" t="str">
+      <c r="P205" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C205,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</v>
       </c>
@@ -20973,7 +20976,7 @@
       <c r="O206" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="P206" s="196" t="str">
+      <c r="P206" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C206,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy estimates the effect of a 100 Mt limit on oilsands emissions. // **Guidance for setting values:** Oilsands energy use is frozen at 2024 level after 2025, when the 100 Mt oilsands limit is expected to be reached according to Pembina analysis. Note that the AB-EPS does not model oil production, which is simply an assumption input into the model. As a result, when this policy lever is activated, the model does not make assumptions concerning the volume of oilsands production under the limit. The implementation schedule was specifically designed to limit the oilsands sector’s energy use so that its emissions are capped at 100 Mt and should not be modified.</v>
       </c>
@@ -21024,7 +21027,7 @@
       <c r="O207" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="P207" s="196" t="str">
+      <c r="P207" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C207,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from hard coal to electricity. // **Guidance for setting values:** Over 90% of the coal used by industry is used to generate heat (to fuel boilers, generate process heat, and HVAC heat).  It is relatively uncommon to replace coal with electricity for these end uses today, but it may become necessary to electrify heat production in order to achieve deep decarbonization by mid-century.  A 100% setting is not likely, however, due to peculiarities of certain industries.  For example, the process of creating new steel from iron ore requires not just heat, but also a chemical reducing agent and source of carbon atoms.  Today, this is provided by coke, a fuel derived from coal.</v>
       </c>
@@ -21075,7 +21078,7 @@
       <c r="O208" s="151" t="s">
         <v>388</v>
       </c>
-      <c r="P208" s="196" t="str">
+      <c r="P208" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C208,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from natural gas to electricity. // **Guidance for setting values:** Over 90% of the natural gas used by industry is used to generate heat (to fuel boilers, generate process heat, and HVAC heat).  It is relatively uncommon to replace natural gas with electricity for these end uses today, but it may become necessary to electrify heat production in order to achieve deep decarbonization by mid-century.  A 100% setting is not likely, however, due to peculiarities of certain industries.  For instance, the electrification potential for refineries is low because they consume a lot of waste gases that come from the petroleum products they are refining.  These gases aren’t of sufficient quality to sell as natural gas, so they would be wasted if the refinery electrified all of its operations.</v>
       </c>
@@ -21126,7 +21129,7 @@
       <c r="O209" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P209" s="196" t="str">
+      <c r="P209" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C209,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the capture of methane that is currently being released into the atmosphere (for example, from leaks in pipes or decomposition of trash in landfills). // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 81% from the natural gas and petroleum industry, 8% from the mining industry, and 86% from the waste management industry.</v>
       </c>
@@ -21179,7 +21182,7 @@
       <c r="O210" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P210" s="196" t="str">
+      <c r="P210" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C210,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the burning of methane that is currently being released into the atmosphere due to industrial processes. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 54% from the mining industry and 3% from the waste management industry.</v>
       </c>
@@ -21232,7 +21235,7 @@
       <c r="O211" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P211" s="196" t="str">
+      <c r="P211" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C211,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of high-GWP, fluorinated gases (F-gases) from the industry sector by improving production processes and by substituing less-harmful chemicals. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 58% from the chemicals industry and 55% from the "other industries" category.</v>
       </c>
@@ -21285,7 +21288,7 @@
       <c r="O212" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P212" s="196" t="str">
+      <c r="P212" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C212,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of greenhouse gases from the industry sector by improving worker training and equipment maintenance. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 8% from the natural gas and petroleum industry and 2% from the "other industries" category.</v>
       </c>
@@ -21338,7 +21341,7 @@
       <c r="O213" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P213" s="196" t="str">
+      <c r="P213" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C213,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the sequestration of CO2 by planting forests.  Planted forests are assumed to be managed with best practices and are not used for timber harvesting. // **Guidance for setting values:** If this policy is fully implemented, the afforestation/reforestation rate reaches 410 thousand hectares per year in 2050.  If this rate were maintaned from 2018-2050, roughly 12% of the land area of Canada's prairies would be afforested/reforested by 2050.</v>
       </c>
@@ -21393,7 +21396,7 @@
       <c r="O214" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P214" s="196" t="str">
+      <c r="P214" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C214,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents the release of CO2 that accompanies deforestation. // **Guidance for setting values:** If this policy is fully implemented, the deforestation rate reaches zero acres per year in 2050 (down from roughly 74,000 acres per year in the BAU case).</v>
       </c>
@@ -21436,7 +21439,7 @@
       <c r="M215" s="63"/>
       <c r="N215" s="63"/>
       <c r="O215" s="56"/>
-      <c r="P215" s="196">
+      <c r="P215" s="191">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C215,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -21483,7 +21486,7 @@
       <c r="O216" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P216" s="196" t="str">
+      <c r="P216" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C216,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy avoids the release of CO2 from forests by reducing timber harvesting. // **Guidance for setting values:** A 100% setting of this lever reduces timber harvesting by 2% of the BAU amount per year, reaching a roughly 70% reduction in timber harvesting by 2050.</v>
       </c>
@@ -21536,7 +21539,7 @@
       <c r="O217" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P217" s="196" t="str">
+      <c r="P217" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C217,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through cropland management practices, such as improved crop rotations, reduced soil tillage, and improvements in fertilizer composition and application.  Measures particular to rice cultivation are handled under a separate policy. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2050 are reduced by 3%.</v>
       </c>
@@ -21589,7 +21592,7 @@
       <c r="O218" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P218" s="196" t="str">
+      <c r="P218" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C218,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases CO2 sequestration by forests through improved forest management practices.  // **Guidance for setting values:** If this policy is fully implemented, all of the 66 million hectares of forest not currently under best management practices will instead be managed with best practices by 2050.</v>
       </c>
@@ -21642,7 +21645,7 @@
       <c r="O219" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P219" s="196" t="str">
+      <c r="P219" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C219,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through livestock-related measures, such as feed supplements or drugs to prevent enteric methane formation. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2050 are reduced by 17%.</v>
       </c>
@@ -21687,7 +21690,7 @@
       <c r="M220" s="63"/>
       <c r="N220" s="63"/>
       <c r="O220" s="56"/>
-      <c r="P220" s="196">
+      <c r="P220" s="191">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C220,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -21734,7 +21737,7 @@
       <c r="O221" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P221" s="196" t="str">
+      <c r="P221" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C221,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through measures pertaining to rice cultivation, such as improved flooding practices that avoid anaerobic, methane-forming conditions. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2050 are reduced by 0.4%.</v>
       </c>
@@ -21787,7 +21790,7 @@
       <c r="O222" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P222" s="196" t="str">
+      <c r="P222" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C222,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a percentage of the district heat that would be generated by dedicated heat plants to instead be generated via CHP plants.  In this model, this causes them to consume no additional fuel, since it is assumed CHP plants would be run anyway in order to produce electricity. // **Guidance for setting values:** In the BAU Scenario, the fraction of heat derived from CHP plants is constant at roughly 30%.  Therefore, a policy setting of 50% would increase the CHP fraction to 65% in 2050.</v>
       </c>
@@ -21840,7 +21843,7 @@
       <c r="O223" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P223" s="196" t="str">
+      <c r="P223" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C223,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a percentage of the district heat that would be generated by burning coal to instead be generated by burning natural gas. // **Guidance for setting values:** In the BAU Scenario, the fraction of heat derived from coal is constant at 0% and from natural gas is constant at 93%.</v>
       </c>
@@ -21893,7 +21896,7 @@
       <c r="O224" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P224" s="196" t="str">
+      <c r="P224" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C224,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the fraction of the potential annual amount of carbon capture and sequestration (CCS) that is achieved in 2050, above the amount predicted in the business-as-usual scenario. // **Guidance for setting values:** If this policy is fully implemented, Canada will sequester an additional 100 million tons of CO2 in 2050 (on top of a BAU Scenario quantity of 2 million tons).</v>
       </c>
@@ -21950,7 +21953,7 @@
       <c r="O225" s="56" t="s">
         <v>1014</v>
       </c>
-      <c r="P225" s="196" t="str">
+      <c r="P225" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C225,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22018,7 +22021,7 @@
         <f t="shared" si="44"/>
         <v>CAD$/metric ton CO2e</v>
       </c>
-      <c r="P226" s="196" t="str">
+      <c r="P226" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C226,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22084,7 +22087,7 @@
         <f t="shared" si="44"/>
         <v>CAD$/metric ton CO2e</v>
       </c>
-      <c r="P227" s="196" t="str">
+      <c r="P227" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C227,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22150,7 +22153,7 @@
         <f t="shared" si="44"/>
         <v>CAD$/metric ton CO2e</v>
       </c>
-      <c r="P228" s="196" t="str">
+      <c r="P228" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C228,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22216,7 +22219,7 @@
         <f t="shared" si="44"/>
         <v>CAD$/metric ton CO2e</v>
       </c>
-      <c r="P229" s="196" t="str">
+      <c r="P229" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C229,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22268,7 +22271,7 @@
       <c r="M230" s="68"/>
       <c r="N230" s="68"/>
       <c r="O230" s="56"/>
-      <c r="P230" s="196" t="str">
+      <c r="P230" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C230,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22314,7 +22317,7 @@
       <c r="M231" s="68"/>
       <c r="N231" s="68"/>
       <c r="O231" s="56"/>
-      <c r="P231" s="196" t="str">
+      <c r="P231" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C231,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
@@ -22357,7 +22360,7 @@
       <c r="M232" s="68"/>
       <c r="N232" s="68"/>
       <c r="O232" s="56"/>
-      <c r="P232" s="196" t="str">
+      <c r="P232" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C232,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22413,7 +22416,7 @@
       <c r="O233" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="P233" s="196" t="str">
+      <c r="P233" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C233,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22479,7 +22482,7 @@
         <f>O$233</f>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P234" s="196" t="str">
+      <c r="P234" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C234,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22545,7 +22548,7 @@
         <f t="shared" si="50"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P235" s="196" t="str">
+      <c r="P235" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C235,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22599,7 +22602,7 @@
       <c r="M236" s="64"/>
       <c r="N236" s="64"/>
       <c r="O236" s="58"/>
-      <c r="P236" s="196" t="str">
+      <c r="P236" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C236,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22647,7 +22650,7 @@
       <c r="M237" s="64"/>
       <c r="N237" s="64"/>
       <c r="O237" s="58"/>
-      <c r="P237" s="196" t="str">
+      <c r="P237" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C237,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22707,7 +22710,7 @@
         <f t="shared" si="50"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P238" s="196" t="str">
+      <c r="P238" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C238,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22761,7 +22764,7 @@
       <c r="M239" s="68"/>
       <c r="N239" s="68"/>
       <c r="O239" s="56"/>
-      <c r="P239" s="196" t="str">
+      <c r="P239" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C239,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22821,7 +22824,7 @@
         <f t="shared" si="51"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P240" s="196" t="str">
+      <c r="P240" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C240,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22887,7 +22890,7 @@
         <f t="shared" si="51"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P241" s="196" t="str">
+      <c r="P241" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C241,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22941,7 +22944,7 @@
       <c r="M242" s="68"/>
       <c r="N242" s="68"/>
       <c r="O242" s="56"/>
-      <c r="P242" s="196" t="str">
+      <c r="P242" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C242,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -22989,7 +22992,7 @@
       <c r="M243" s="68"/>
       <c r="N243" s="68"/>
       <c r="O243" s="56"/>
-      <c r="P243" s="196" t="str">
+      <c r="P243" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C243,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -23049,7 +23052,7 @@
         <f t="shared" si="52"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="P244" s="196" t="str">
+      <c r="P244" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C244,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -23101,7 +23104,7 @@
       <c r="M245" s="68"/>
       <c r="N245" s="68"/>
       <c r="O245" s="56"/>
-      <c r="P245" s="196" t="str">
+      <c r="P245" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C245,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -23147,7 +23150,7 @@
       <c r="M246" s="68"/>
       <c r="N246" s="68"/>
       <c r="O246" s="56"/>
-      <c r="P246" s="196" t="str">
+      <c r="P246" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C246,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -23193,7 +23196,7 @@
       <c r="M247" s="67"/>
       <c r="N247" s="67"/>
       <c r="O247" s="58"/>
-      <c r="P247" s="196" t="str">
+      <c r="P247" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C247,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</v>
       </c>
@@ -23230,7 +23233,7 @@
       <c r="M248" s="68"/>
       <c r="N248" s="68"/>
       <c r="O248" s="11"/>
-      <c r="P248" s="196">
+      <c r="P248" s="191">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C248,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -23281,7 +23284,7 @@
       <c r="O249" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="P249" s="196" t="str">
+      <c r="P249" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C249,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23347,7 +23350,7 @@
         <f t="shared" si="54"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P250" s="196" t="str">
+      <c r="P250" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C250,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23414,7 +23417,7 @@
         <f t="shared" si="54"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P251" s="196" t="str">
+      <c r="P251" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C251,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23469,7 +23472,7 @@
       <c r="M252" s="67"/>
       <c r="N252" s="75"/>
       <c r="O252" s="61"/>
-      <c r="P252" s="196" t="str">
+      <c r="P252" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C252,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23517,7 +23520,7 @@
       <c r="M253" s="67"/>
       <c r="N253" s="75"/>
       <c r="O253" s="61"/>
-      <c r="P253" s="196" t="str">
+      <c r="P253" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C253,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23565,7 +23568,7 @@
       <c r="M254" s="67"/>
       <c r="N254" s="75"/>
       <c r="O254" s="61"/>
-      <c r="P254" s="196" t="str">
+      <c r="P254" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C254,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23613,7 +23616,7 @@
       <c r="M255" s="67"/>
       <c r="N255" s="75"/>
       <c r="O255" s="61"/>
-      <c r="P255" s="196" t="str">
+      <c r="P255" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C255,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23661,7 +23664,7 @@
       <c r="M256" s="67"/>
       <c r="N256" s="75"/>
       <c r="O256" s="61"/>
-      <c r="P256" s="196" t="str">
+      <c r="P256" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C256,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23721,7 +23724,7 @@
         <f t="shared" si="54"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P257" s="196" t="str">
+      <c r="P257" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C257,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23788,7 +23791,7 @@
         <f t="shared" si="54"/>
         <v>% of BAU price</v>
       </c>
-      <c r="P258" s="196" t="str">
+      <c r="P258" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C258,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23843,7 +23846,7 @@
       <c r="M259" s="67"/>
       <c r="N259" s="75"/>
       <c r="O259" s="61"/>
-      <c r="P259" s="196" t="str">
+      <c r="P259" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C259,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23891,7 +23894,7 @@
       <c r="M260" s="67"/>
       <c r="N260" s="75"/>
       <c r="O260" s="61"/>
-      <c r="P260" s="196" t="str">
+      <c r="P260" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C260,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23937,7 +23940,7 @@
       <c r="M261" s="67"/>
       <c r="N261" s="75"/>
       <c r="O261" s="61"/>
-      <c r="P261" s="196" t="str">
+      <c r="P261" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C261,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -23985,7 +23988,7 @@
       <c r="M262" s="67"/>
       <c r="N262" s="75"/>
       <c r="O262" s="61"/>
-      <c r="P262" s="196" t="str">
+      <c r="P262" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C262,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -24031,7 +24034,7 @@
       <c r="M263" s="67"/>
       <c r="N263" s="67"/>
       <c r="O263" s="61"/>
-      <c r="P263" s="196" t="str">
+      <c r="P263" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C263,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In Canada, the national average tax rate on energy ranges from 13% to 30%, varying by fuel.</v>
       </c>
@@ -24082,7 +24085,7 @@
       <c r="O264" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P264" s="196" t="str">
+      <c r="P264" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C264,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24148,7 +24151,7 @@
         <f t="shared" si="56"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P265" s="196" t="str">
+      <c r="P265" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C265,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24214,7 +24217,7 @@
         <f t="shared" si="56"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P266" s="196" t="str">
+      <c r="P266" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C266,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24280,7 +24283,7 @@
         <f t="shared" si="56"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P267" s="196" t="str">
+      <c r="P267" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C267,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24346,7 +24349,7 @@
         <f t="shared" si="56"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P268" s="196" t="str">
+      <c r="P268" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C268,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24412,7 +24415,7 @@
         <f t="shared" si="56"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P269" s="196" t="str">
+      <c r="P269" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C269,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24470,7 +24473,7 @@
       <c r="O270" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P270" s="196" t="str">
+      <c r="P270" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C270,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24529,7 +24532,7 @@
       <c r="O271" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P271" s="196" t="str">
+      <c r="P271" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C271,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24595,7 +24598,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P272" s="196" t="str">
+      <c r="P272" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C272,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24661,7 +24664,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P273" s="196" t="str">
+      <c r="P273" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C273,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24727,7 +24730,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P274" s="196" t="str">
+      <c r="P274" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C274,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24793,7 +24796,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P275" s="196" t="str">
+      <c r="P275" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C275,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24859,7 +24862,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P276" s="196" t="str">
+      <c r="P276" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C276,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24925,7 +24928,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P277" s="196" t="str">
+      <c r="P277" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C277,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -24991,7 +24994,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P278" s="196" t="str">
+      <c r="P278" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C278,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25057,7 +25060,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P279" s="196" t="str">
+      <c r="P279" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C279,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25123,7 +25126,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P280" s="196" t="str">
+      <c r="P280" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C280,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25189,7 +25192,7 @@
         <f t="shared" si="58"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P281" s="196" t="str">
+      <c r="P281" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C281,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25248,7 +25251,7 @@
       <c r="O282" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P282" s="196" t="str">
+      <c r="P282" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C282,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25314,7 +25317,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P283" s="196" t="str">
+      <c r="P283" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C283,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25380,7 +25383,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P284" s="196" t="str">
+      <c r="P284" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C284,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25446,7 +25449,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P285" s="196" t="str">
+      <c r="P285" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C285,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25512,7 +25515,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P286" s="196" t="str">
+      <c r="P286" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C286,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25578,7 +25581,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P287" s="196" t="str">
+      <c r="P287" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C287,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25644,7 +25647,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P288" s="196" t="str">
+      <c r="P288" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C288,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25710,7 +25713,7 @@
         <f t="shared" si="61"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P289" s="196" t="str">
+      <c r="P289" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C289,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25769,7 +25772,7 @@
       <c r="O290" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P290" s="196" t="str">
+      <c r="P290" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C290,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25835,7 +25838,7 @@
         <f t="shared" si="64"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P291" s="196" t="str">
+      <c r="P291" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C291,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25901,7 +25904,7 @@
         <f t="shared" si="64"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P292" s="196" t="str">
+      <c r="P292" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C292,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -25967,7 +25970,7 @@
         <f t="shared" si="64"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P293" s="196" t="str">
+      <c r="P293" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C293,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26033,7 +26036,7 @@
         <f t="shared" si="64"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P294" s="196" t="str">
+      <c r="P294" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C294,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26099,7 +26102,7 @@
         <f t="shared" si="64"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="P295" s="196" t="str">
+      <c r="P295" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C295,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26156,7 +26159,7 @@
       <c r="O296" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P296" s="196" t="str">
+      <c r="P296" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C296,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26222,7 +26225,7 @@
         <f t="shared" si="66"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P297" s="196" t="str">
+      <c r="P297" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C297,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26274,7 +26277,7 @@
       <c r="M298" s="67"/>
       <c r="N298" s="67"/>
       <c r="O298" s="58"/>
-      <c r="P298" s="196" t="str">
+      <c r="P298" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C298,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26334,7 +26337,7 @@
         <f t="shared" si="66"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P299" s="196" t="str">
+      <c r="P299" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C299,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26400,7 +26403,7 @@
         <f t="shared" si="66"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P300" s="196" t="str">
+      <c r="P300" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C300,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26466,7 +26469,7 @@
         <f t="shared" si="66"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P301" s="196" t="str">
+      <c r="P301" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C301,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26523,7 +26526,7 @@
       <c r="O302" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P302" s="196" t="str">
+      <c r="P302" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C302,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26582,7 +26585,7 @@
       <c r="O303" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P303" s="196" t="str">
+      <c r="P303" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C303,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26648,7 +26651,7 @@
         <f t="shared" si="68"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P304" s="196" t="str">
+      <c r="P304" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C304,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26714,7 +26717,7 @@
         <f t="shared" si="68"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P305" s="196" t="str">
+      <c r="P305" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C305,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26768,7 +26771,7 @@
       <c r="M306" s="67"/>
       <c r="N306" s="67"/>
       <c r="O306" s="58"/>
-      <c r="P306" s="196" t="str">
+      <c r="P306" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C306,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26816,7 +26819,7 @@
       <c r="M307" s="67"/>
       <c r="N307" s="67"/>
       <c r="O307" s="58"/>
-      <c r="P307" s="196" t="str">
+      <c r="P307" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C307,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26864,7 +26867,7 @@
       <c r="M308" s="67"/>
       <c r="N308" s="67"/>
       <c r="O308" s="58"/>
-      <c r="P308" s="196" t="str">
+      <c r="P308" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C308,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26912,7 +26915,7 @@
       <c r="M309" s="67"/>
       <c r="N309" s="67"/>
       <c r="O309" s="58"/>
-      <c r="P309" s="196" t="str">
+      <c r="P309" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C309,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -26972,7 +26975,7 @@
         <f t="shared" si="68"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P310" s="196" t="str">
+      <c r="P310" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C310,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27038,7 +27041,7 @@
         <f t="shared" si="68"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P311" s="196" t="str">
+      <c r="P311" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C311,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27104,7 +27107,7 @@
         <f t="shared" si="68"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P312" s="196" t="str">
+      <c r="P312" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C312,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27156,7 +27159,7 @@
       <c r="M313" s="67"/>
       <c r="N313" s="67"/>
       <c r="O313" s="58"/>
-      <c r="P313" s="196" t="str">
+      <c r="P313" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C313,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27209,7 +27212,7 @@
       <c r="O314" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P314" s="196" t="str">
+      <c r="P314" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C314,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27275,7 +27278,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P315" s="196" t="str">
+      <c r="P315" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C315,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27341,7 +27344,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P316" s="196" t="str">
+      <c r="P316" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C316,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27407,7 +27410,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P317" s="196" t="str">
+      <c r="P317" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C317,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27473,7 +27476,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P318" s="196" t="str">
+      <c r="P318" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C318,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27539,7 +27542,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P319" s="196" t="str">
+      <c r="P319" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C319,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27605,7 +27608,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P320" s="196" t="str">
+      <c r="P320" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C320,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27671,7 +27674,7 @@
         <f t="shared" si="71"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P321" s="196" t="str">
+      <c r="P321" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C321,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27730,7 +27733,7 @@
       <c r="O322" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P322" s="196" t="str">
+      <c r="P322" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C322,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27796,7 +27799,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P323" s="196" t="str">
+      <c r="P323" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C323,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27862,7 +27865,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P324" s="196" t="str">
+      <c r="P324" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C324,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27928,7 +27931,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P325" s="196" t="str">
+      <c r="P325" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C325,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -27994,7 +27997,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P326" s="196" t="str">
+      <c r="P326" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C326,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -28060,7 +28063,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="P327" s="196" t="str">
+      <c r="P327" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C327,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -31991,22 +31994,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="10" t="s">
@@ -32022,13 +32025,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="195"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="10" t="s">
@@ -32044,13 +32047,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
     </row>
     <row r="57" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A57" s="10" t="s">
@@ -32066,13 +32069,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="191" t="s">
+      <c r="A60" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="191"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
@@ -32177,13 +32180,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="191" t="s">
+      <c r="A89" s="195" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="191"/>
-      <c r="C89" s="191"/>
-      <c r="D89" s="191"/>
-      <c r="E89" s="191"/>
+      <c r="B89" s="195"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="10">
@@ -32270,13 +32273,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="191" t="s">
+      <c r="A98" s="195" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="191"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="191"/>
-      <c r="E98" s="191"/>
+      <c r="B98" s="195"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="18">
@@ -32360,13 +32363,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="191" t="s">
+      <c r="A109" s="195" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="191"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="191"/>
-      <c r="E109" s="191"/>
+      <c r="B109" s="195"/>
+      <c r="C109" s="195"/>
+      <c r="D109" s="195"/>
+      <c r="E109" s="195"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -32379,13 +32382,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="191" t="s">
+      <c r="A113" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="191"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="191"/>
-      <c r="E113" s="191"/>
+      <c r="B113" s="195"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="195"/>
+      <c r="E113" s="195"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="18">
@@ -32466,13 +32469,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="191" t="s">
+      <c r="A124" s="195" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="191"/>
-      <c r="C124" s="191"/>
-      <c r="D124" s="191"/>
-      <c r="E124" s="191"/>
+      <c r="B124" s="195"/>
+      <c r="C124" s="195"/>
+      <c r="D124" s="195"/>
+      <c r="E124" s="195"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -32563,13 +32566,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="191" t="s">
+      <c r="A134" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="191"/>
-      <c r="C134" s="191"/>
-      <c r="D134" s="191"/>
-      <c r="E134" s="191"/>
+      <c r="B134" s="195"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="195"/>
+      <c r="E134" s="195"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="28" t="s">
@@ -33149,13 +33152,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A165" s="191" t="s">
+      <c r="A165" s="195" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="191"/>
-      <c r="C165" s="191"/>
-      <c r="D165" s="191"/>
-      <c r="E165" s="191"/>
+      <c r="B165" s="195"/>
+      <c r="C165" s="195"/>
+      <c r="D165" s="195"/>
+      <c r="E165" s="195"/>
     </row>
     <row r="166" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" s="24" t="s">
@@ -33178,10 +33181,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A169" s="191" t="s">
+      <c r="A169" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="191"/>
+      <c r="B169" s="195"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170" s="24" t="s">
@@ -33213,13 +33216,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A174" s="191" t="s">
+      <c r="A174" s="195" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="191"/>
-      <c r="C174" s="191"/>
-      <c r="D174" s="191"/>
-      <c r="E174" s="191"/>
+      <c r="B174" s="195"/>
+      <c r="C174" s="195"/>
+      <c r="D174" s="195"/>
+      <c r="E174" s="195"/>
     </row>
     <row r="175" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="24" t="s">
@@ -33239,13 +33242,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="191" t="s">
+      <c r="A178" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="191"/>
-      <c r="C178" s="191"/>
-      <c r="D178" s="191"/>
-      <c r="E178" s="191"/>
+      <c r="B178" s="195"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="26" t="s">
@@ -33273,13 +33276,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="191" t="s">
+      <c r="A183" s="195" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="191"/>
-      <c r="C183" s="191"/>
-      <c r="D183" s="191"/>
-      <c r="E183" s="191"/>
+      <c r="B183" s="195"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="195"/>
+      <c r="E183" s="195"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="24" t="s">
@@ -33334,13 +33337,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A191" s="191" t="s">
+      <c r="A191" s="195" t="s">
         <v>228</v>
       </c>
-      <c r="B191" s="191"/>
-      <c r="C191" s="191"/>
-      <c r="D191" s="191"/>
-      <c r="E191" s="191"/>
+      <c r="B191" s="195"/>
+      <c r="C191" s="195"/>
+      <c r="D191" s="195"/>
+      <c r="E191" s="195"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="22" t="s">
@@ -33400,6 +33403,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -33414,12 +33423,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -46001,7 +46004,7 @@
         <v>End Existing Subsidies</v>
       </c>
       <c r="C233" s="58" t="str">
-        <f t="shared" ref="B233:D247" si="47">C$232</f>
+        <f t="shared" ref="B233:C247" si="47">C$232</f>
         <v>Percent Reduction in BAU Subsidies</v>
       </c>
       <c r="D233" s="11" t="s">

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E19869-D415-460B-886A-772398E3F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7DB5F-002D-4D19-B9B1-C9BEC06A2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="-16470" windowWidth="29340" windowHeight="16140" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1232">
   <si>
     <t>Short Name</t>
   </si>
@@ -4169,9 +4169,6 @@
     <t>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of coal by 8% (varying by sector), natural gas by 3-8% (varying by sector), petroleum gasoline by 1%, petroleum diesel by 2% (varying by sector) in 2050, and jet fuel by 2% (varying by sector) in 2050.</t>
   </si>
   <si>
-    <t>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</t>
-  </si>
-  <si>
     <t>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In 2016, the U.S. Department of Energy developed an industrial energy efficiency potential analysis that suggests a potential improvement rate of 2.4% per year through 2030, instead of a BAU rate of 1.2% per year.  Extended through 2050, this equates to a maximum potential improvement of 33% by 2050 relative to BAU.  The same potential may exist in Canada.</t>
   </si>
   <si>
@@ -4215,6 +4212,12 @@
   </si>
   <si>
     <t>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</t>
   </si>
 </sst>
 </file>
@@ -5409,6 +5412,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5417,9 +5423,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6512,8 +6515,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6530,7 +6533,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" s="189" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1" s="187"/>
       <c r="C1" s="187"/>
@@ -6548,7 +6551,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A2" s="188" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B2" s="187"/>
       <c r="C2" s="187"/>
@@ -6608,7 +6611,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>1090</v>
       </c>
       <c r="J4" s="169" t="s">
-        <v>1091</v>
+        <v>1230</v>
       </c>
       <c r="K4" s="76" t="s">
         <v>1092</v>
@@ -6713,7 +6716,7 @@
         <v>579</v>
       </c>
       <c r="J6" s="169" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="K6" s="76" t="s">
         <v>580</v>
@@ -6833,7 +6836,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="169" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K9" s="169" t="s">
         <v>237</v>
@@ -6911,7 +6914,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="169" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K11" s="169" t="s">
         <v>239</v>
@@ -6952,7 +6955,7 @@
         <v>130</v>
       </c>
       <c r="J12" s="169" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K12" s="169" t="s">
         <v>241</v>
@@ -6990,7 +6993,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="169" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K13" s="169" t="s">
         <v>243</v>
@@ -7194,7 +7197,7 @@
         <v>42</v>
       </c>
       <c r="J18" s="169" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K18" s="169" t="s">
         <v>249</v>
@@ -7238,7 +7241,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="169" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K19" s="169" t="s">
         <v>251</v>
@@ -7276,7 +7279,7 @@
         <v>34</v>
       </c>
       <c r="J20" s="169" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K20" s="169" t="s">
         <v>414</v>
@@ -7462,7 +7465,7 @@
         <v>231</v>
       </c>
       <c r="J25" s="169" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K25" s="169" t="s">
         <v>255</v>
@@ -7696,7 +7699,7 @@
         <v>313</v>
       </c>
       <c r="J31" s="169" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K31" s="168" t="s">
         <v>612</v>
@@ -7736,7 +7739,7 @@
         <v>815</v>
       </c>
       <c r="J32" s="169" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K32" s="168" t="s">
         <v>942</v>
@@ -7852,7 +7855,7 @@
         <v>994</v>
       </c>
       <c r="J35" s="169" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K35" s="169" t="s">
         <v>263</v>
@@ -8017,7 +8020,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="169" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K39" s="169" t="s">
         <v>271</v>
@@ -8792,7 +8795,7 @@
       </c>
       <c r="N58" s="169"/>
     </row>
-    <row r="59" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:14" ht="140.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="169" t="s">
         <v>10</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>1014</v>
       </c>
       <c r="J59" s="169" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="K59" s="169" t="s">
         <v>295</v>
@@ -9496,7 +9499,7 @@
       </c>
       <c r="P2" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C2,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q2" s="76" t="s">
         <v>1092</v>
@@ -9558,7 +9561,7 @@
       </c>
       <c r="P3" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C3,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q3" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9622,7 +9625,7 @@
       </c>
       <c r="P4" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C4,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q4" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9686,7 +9689,7 @@
       </c>
       <c r="P5" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C5,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q5" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9750,7 +9753,7 @@
       </c>
       <c r="P6" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C6,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q6" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9814,7 +9817,7 @@
       </c>
       <c r="P7" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C7,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) for LDVs.  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q7" s="166" t="str">
         <f t="shared" si="1"/>
@@ -21955,7 +21958,7 @@
       </c>
       <c r="P225" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C225,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q225" s="56" t="s">
         <v>295</v>
@@ -22023,7 +22026,7 @@
       </c>
       <c r="P226" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C226,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q226" s="58" t="str">
         <f t="shared" ref="Q226:R229" si="45">Q$225</f>
@@ -22089,7 +22092,7 @@
       </c>
       <c r="P227" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C227,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q227" s="58" t="str">
         <f t="shared" si="45"/>
@@ -22155,7 +22158,7 @@
       </c>
       <c r="P228" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C228,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q228" s="58" t="str">
         <f t="shared" si="45"/>
@@ -22221,7 +22224,7 @@
       </c>
       <c r="P229" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C229,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q229" s="58" t="str">
         <f t="shared" si="45"/>
@@ -22273,7 +22276,7 @@
       <c r="O230" s="56"/>
       <c r="P230" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C230,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q230" s="56"/>
       <c r="R230" s="11"/>
@@ -22319,7 +22322,7 @@
       <c r="O231" s="56"/>
       <c r="P231" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C231,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. When applied to the Industry Sector, the tax **is** levied on greenhouse gas emissions from non-energy industrial and agricultural processes by default, but these emissions sources can be exempted from the tax by enabling the policy lever "Exempt Process Emissions from C Tax." // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
+        <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</v>
       </c>
       <c r="Q231" s="56"/>
       <c r="R231" s="11"/>
@@ -31994,13 +31997,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="196" t="s">
@@ -32069,13 +32072,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="195" t="s">
+      <c r="A60" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="195"/>
-      <c r="C60" s="195"/>
-      <c r="D60" s="195"/>
-      <c r="E60" s="195"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="192"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="192"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
@@ -32180,13 +32183,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="195" t="s">
+      <c r="A89" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="195"/>
-      <c r="C89" s="195"/>
-      <c r="D89" s="195"/>
-      <c r="E89" s="195"/>
+      <c r="B89" s="192"/>
+      <c r="C89" s="192"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="192"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="10">
@@ -32273,13 +32276,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="195" t="s">
+      <c r="A98" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="195"/>
-      <c r="C98" s="195"/>
-      <c r="D98" s="195"/>
-      <c r="E98" s="195"/>
+      <c r="B98" s="192"/>
+      <c r="C98" s="192"/>
+      <c r="D98" s="192"/>
+      <c r="E98" s="192"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="18">
@@ -32363,13 +32366,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="195" t="s">
+      <c r="A109" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="195"/>
-      <c r="C109" s="195"/>
-      <c r="D109" s="195"/>
-      <c r="E109" s="195"/>
+      <c r="B109" s="192"/>
+      <c r="C109" s="192"/>
+      <c r="D109" s="192"/>
+      <c r="E109" s="192"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -32382,13 +32385,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="195" t="s">
+      <c r="A113" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="195"/>
-      <c r="C113" s="195"/>
-      <c r="D113" s="195"/>
-      <c r="E113" s="195"/>
+      <c r="B113" s="192"/>
+      <c r="C113" s="192"/>
+      <c r="D113" s="192"/>
+      <c r="E113" s="192"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="18">
@@ -32469,13 +32472,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="195" t="s">
+      <c r="A124" s="192" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="195"/>
-      <c r="C124" s="195"/>
-      <c r="D124" s="195"/>
-      <c r="E124" s="195"/>
+      <c r="B124" s="192"/>
+      <c r="C124" s="192"/>
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -32566,13 +32569,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="195" t="s">
+      <c r="A134" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="195"/>
-      <c r="C134" s="195"/>
-      <c r="D134" s="195"/>
-      <c r="E134" s="195"/>
+      <c r="B134" s="192"/>
+      <c r="C134" s="192"/>
+      <c r="D134" s="192"/>
+      <c r="E134" s="192"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="28" t="s">
@@ -32587,25 +32590,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A136" s="30"/>
-      <c r="B136" s="192" t="s">
+      <c r="B136" s="193" t="s">
         <v>502</v>
       </c>
-      <c r="C136" s="193"/>
-      <c r="D136" s="193"/>
-      <c r="E136" s="194"/>
+      <c r="C136" s="194"/>
+      <c r="D136" s="194"/>
+      <c r="E136" s="195"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A137" s="31"/>
-      <c r="B137" s="192" t="s">
+      <c r="B137" s="193" t="s">
         <v>503</v>
       </c>
-      <c r="C137" s="194"/>
-      <c r="D137" s="192" t="s">
+      <c r="C137" s="195"/>
+      <c r="D137" s="193" t="s">
         <v>504</v>
       </c>
-      <c r="E137" s="194"/>
+      <c r="E137" s="195"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
@@ -33152,13 +33155,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A165" s="195" t="s">
+      <c r="A165" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="195"/>
-      <c r="C165" s="195"/>
-      <c r="D165" s="195"/>
-      <c r="E165" s="195"/>
+      <c r="B165" s="192"/>
+      <c r="C165" s="192"/>
+      <c r="D165" s="192"/>
+      <c r="E165" s="192"/>
     </row>
     <row r="166" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" s="24" t="s">
@@ -33181,10 +33184,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A169" s="195" t="s">
+      <c r="A169" s="192" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="195"/>
+      <c r="B169" s="192"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170" s="24" t="s">
@@ -33216,13 +33219,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A174" s="195" t="s">
+      <c r="A174" s="192" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="195"/>
-      <c r="C174" s="195"/>
-      <c r="D174" s="195"/>
-      <c r="E174" s="195"/>
+      <c r="B174" s="192"/>
+      <c r="C174" s="192"/>
+      <c r="D174" s="192"/>
+      <c r="E174" s="192"/>
     </row>
     <row r="175" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="24" t="s">
@@ -33242,13 +33245,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="195" t="s">
+      <c r="A178" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="195"/>
-      <c r="C178" s="195"/>
-      <c r="D178" s="195"/>
-      <c r="E178" s="195"/>
+      <c r="B178" s="192"/>
+      <c r="C178" s="192"/>
+      <c r="D178" s="192"/>
+      <c r="E178" s="192"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="26" t="s">
@@ -33276,13 +33279,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="195" t="s">
+      <c r="A183" s="192" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="195"/>
-      <c r="C183" s="195"/>
-      <c r="D183" s="195"/>
-      <c r="E183" s="195"/>
+      <c r="B183" s="192"/>
+      <c r="C183" s="192"/>
+      <c r="D183" s="192"/>
+      <c r="E183" s="192"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="24" t="s">
@@ -33337,13 +33340,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A191" s="195" t="s">
+      <c r="A191" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="B191" s="195"/>
-      <c r="C191" s="195"/>
-      <c r="D191" s="195"/>
-      <c r="E191" s="195"/>
+      <c r="B191" s="192"/>
+      <c r="C191" s="192"/>
+      <c r="D191" s="192"/>
+      <c r="E191" s="192"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="22" t="s">
@@ -33403,12 +33406,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -33423,6 +33420,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7DB5F-002D-4D19-B9B1-C9BEC06A2FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE6F391-A78F-4376-AE85-03C0E062EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="-16470" windowWidth="29340" windowHeight="16140" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="1233">
   <si>
     <t>Short Name</t>
   </si>
@@ -4196,9 +4196,6 @@
     <t>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** In "Assessment of Electricity Savings in the U.S. Achievable through New Appliance/Equipment Efficiency Standards and Building Efficiency Codes, 2010-2025" (2011), the Edison Foundation considered a 30% reduction in whole-building energy use (moderate case) and 40-45% (aggressive case) relative to BAU from 2010 to 2025.  Similar potentials may be possible in Canada, with further improvement post-2025.</t>
   </si>
   <si>
-    <t>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</t>
-  </si>
-  <si>
     <t xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </t>
   </si>
   <si>
@@ -4214,10 +4211,16 @@
     <t>**Description:** This policy requires the specified percentage of newly sold vehicles of the selected type(s) to consist of battery electric vehicles. If that percentage would already be achieved through BAU sales plus the effects of other policies, such as an EV subsidy, this policy has no effect. Manufactures may meet a sales standard through techniques such as more heavily marketing electric vehicles, lowering the price of electric vehicles, or raising the price of non-electric vehicles. // **Guidance for setting values:** Under the Pan-Canadian Framework, Canada has a target of a 30% market share for electric vehicles among new on-road vehicles by 2030.</t>
   </si>
   <si>
-    <t>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</t>
-  </si>
-  <si>
     <t>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Guidance for setting values:** The Canadian government's revised 2016 Social Cost of Carbon estimates for the year 2050 range from CAD$75 in the central estimate to CAD$320 per ton in the 95th percentile estimate (in inflation-adjusted 2012 Canadian dollars).</t>
+  </si>
+  <si>
+    <t>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</t>
   </si>
 </sst>
 </file>
@@ -5412,9 +5415,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5423,6 +5423,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6515,8 +6518,8 @@
   </sheetPr>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6533,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" s="189" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="187"/>
       <c r="C1" s="187"/>
@@ -6551,7 +6554,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A2" s="188" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B2" s="187"/>
       <c r="C2" s="187"/>
@@ -6716,7 +6719,7 @@
         <v>579</v>
       </c>
       <c r="J6" s="169" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K6" s="76" t="s">
         <v>580</v>
@@ -6754,7 +6757,7 @@
         <v>567</v>
       </c>
       <c r="J7" s="169" t="s">
-        <v>951</v>
+        <v>1231</v>
       </c>
       <c r="K7" s="76" t="s">
         <v>568</v>
@@ -6836,7 +6839,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="169" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K9" s="169" t="s">
         <v>237</v>
@@ -6914,7 +6917,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="169" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K11" s="169" t="s">
         <v>239</v>
@@ -6926,7 +6929,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" ht="128.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="169" t="s">
         <v>82</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>130</v>
       </c>
       <c r="J12" s="169" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="K12" s="169" t="s">
         <v>241</v>
@@ -8824,7 +8827,7 @@
         <v>1014</v>
       </c>
       <c r="J59" s="169" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K59" s="169" t="s">
         <v>295</v>
@@ -9367,8 +9370,8 @@
   <dimension ref="A1:T327"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K322" sqref="K322:O322"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9499,7 +9502,7 @@
       </c>
       <c r="P2" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C2,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q2" s="76" t="s">
         <v>1092</v>
@@ -9561,7 +9564,7 @@
       </c>
       <c r="P3" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C3,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q3" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="P4" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C4,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q4" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9689,7 +9692,7 @@
       </c>
       <c r="P5" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C5,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q5" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9753,7 +9756,7 @@
       </c>
       <c r="P6" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C6,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q6" s="166" t="str">
         <f t="shared" si="1"/>
@@ -9817,7 +9820,7 @@
       </c>
       <c r="P7" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C7,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy represents strengthening standards for the selected pollutant(s) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
+        <v>**Description:** This policy represents strengthening the standards for regulated pollutants other than greenhouse gases (such as NOx or particulate matter) emitted by the selected vehicle type(s).  Conventional pollutants' most important, harmful impacts are on human health rather than on climate change. // **Guidance for setting values:** In the United States, since 1997, the 24-hour national ambient air quality standard (NAAQS) for PM2.5, the most harmful type of particulate for human health, declined from 65 µg/m^3 to 35 µg/m^3, a reduction of 46%.</v>
       </c>
       <c r="Q7" s="166" t="str">
         <f t="shared" si="1"/>
@@ -10616,7 +10619,7 @@
       </c>
       <c r="P21" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C21,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q21" s="76" t="s">
         <v>568</v>
@@ -10670,7 +10673,7 @@
       <c r="O22" s="78"/>
       <c r="P22" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C22,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q22" s="78"/>
       <c r="R22" s="78"/>
@@ -10720,7 +10723,7 @@
       <c r="O23" s="78"/>
       <c r="P23" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C23,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q23" s="78"/>
       <c r="R23" s="78"/>
@@ -10784,7 +10787,7 @@
       </c>
       <c r="P24" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C24,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q24" s="58" t="str">
         <f t="shared" si="8"/>
@@ -10840,7 +10843,7 @@
       <c r="O25" s="78"/>
       <c r="P25" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C25,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q25" s="78"/>
       <c r="R25" s="78"/>
@@ -10890,7 +10893,7 @@
       <c r="O26" s="78"/>
       <c r="P26" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C26,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q26" s="78"/>
       <c r="R26" s="78"/>
@@ -10940,7 +10943,7 @@
       <c r="O27" s="78"/>
       <c r="P27" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C27,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q27" s="78"/>
       <c r="R27" s="78"/>
@@ -10990,7 +10993,7 @@
       <c r="O28" s="78"/>
       <c r="P28" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C28,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q28" s="78"/>
       <c r="R28" s="78"/>
@@ -11040,7 +11043,7 @@
       <c r="O29" s="78"/>
       <c r="P29" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C29,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q29" s="78"/>
       <c r="R29" s="78"/>
@@ -11090,7 +11093,7 @@
       <c r="O30" s="78"/>
       <c r="P30" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C30,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q30" s="78"/>
       <c r="R30" s="78"/>
@@ -11140,7 +11143,7 @@
       <c r="O31" s="78"/>
       <c r="P31" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C31,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q31" s="78"/>
       <c r="R31" s="78"/>
@@ -11190,7 +11193,7 @@
       <c r="O32" s="78"/>
       <c r="P32" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C32,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric passenger LDVs.  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
+        <v>**Description:** This policy causes government to pay for the specified percentage of the purchase price of new battery electric vehicles for the selected type(s).  This is in addition to EV subsidies that exist in the BAU case.  // **Guidance for setting values:** In Canada, several provinces have EV subsidy programs, paying for between $5000 and $14000 of the cost of a new EV.  This is roughly between 10% and 35% of the cost of a new EV.</v>
       </c>
       <c r="Q32" s="78"/>
       <c r="R32" s="78"/>
@@ -13389,7 +13392,7 @@
       </c>
       <c r="P73" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C73,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
       <c r="Q73" s="56" t="s">
         <v>241</v>
@@ -13453,7 +13456,7 @@
       </c>
       <c r="P74" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C74,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
       <c r="Q74" s="61" t="str">
         <f t="shared" si="15"/>
@@ -13519,7 +13522,7 @@
       </c>
       <c r="P75" s="191" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C75,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components of the selected type(s) in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
+        <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 39% to 42% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 64% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will remain constant at 43% from 2017-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 68% by 2050.</v>
       </c>
       <c r="Q75" s="61" t="str">
         <f t="shared" si="15"/>
@@ -31997,13 +32000,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="196" t="s">
@@ -32072,13 +32075,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="B60" s="192"/>
-      <c r="C60" s="192"/>
-      <c r="D60" s="192"/>
-      <c r="E60" s="192"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
     </row>
     <row r="85" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="10" t="s">
@@ -32183,13 +32186,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="192" t="s">
+      <c r="A89" s="195" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="192"/>
-      <c r="C89" s="192"/>
-      <c r="D89" s="192"/>
-      <c r="E89" s="192"/>
+      <c r="B89" s="195"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="10">
@@ -32276,13 +32279,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="192" t="s">
+      <c r="A98" s="195" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="192"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="192"/>
+      <c r="B98" s="195"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="18">
@@ -32366,13 +32369,13 @@
       <c r="A108" s="21"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="192" t="s">
+      <c r="A109" s="195" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="192"/>
-      <c r="C109" s="192"/>
-      <c r="D109" s="192"/>
-      <c r="E109" s="192"/>
+      <c r="B109" s="195"/>
+      <c r="C109" s="195"/>
+      <c r="D109" s="195"/>
+      <c r="E109" s="195"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -32385,13 +32388,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="192" t="s">
+      <c r="A113" s="195" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="192"/>
-      <c r="C113" s="192"/>
-      <c r="D113" s="192"/>
-      <c r="E113" s="192"/>
+      <c r="B113" s="195"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="195"/>
+      <c r="E113" s="195"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="18">
@@ -32472,13 +32475,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="192" t="s">
+      <c r="A124" s="195" t="s">
         <v>482</v>
       </c>
-      <c r="B124" s="192"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
+      <c r="B124" s="195"/>
+      <c r="C124" s="195"/>
+      <c r="D124" s="195"/>
+      <c r="E124" s="195"/>
       <c r="L124" s="22"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -32569,13 +32572,13 @@
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="192" t="s">
+      <c r="A134" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="B134" s="192"/>
-      <c r="C134" s="192"/>
-      <c r="D134" s="192"/>
-      <c r="E134" s="192"/>
+      <c r="B134" s="195"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="195"/>
+      <c r="E134" s="195"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="28" t="s">
@@ -32590,25 +32593,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A136" s="30"/>
-      <c r="B136" s="193" t="s">
+      <c r="B136" s="192" t="s">
         <v>502</v>
       </c>
-      <c r="C136" s="194"/>
-      <c r="D136" s="194"/>
-      <c r="E136" s="195"/>
+      <c r="C136" s="193"/>
+      <c r="D136" s="193"/>
+      <c r="E136" s="194"/>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A137" s="31"/>
-      <c r="B137" s="193" t="s">
+      <c r="B137" s="192" t="s">
         <v>503</v>
       </c>
-      <c r="C137" s="195"/>
-      <c r="D137" s="193" t="s">
+      <c r="C137" s="194"/>
+      <c r="D137" s="192" t="s">
         <v>504</v>
       </c>
-      <c r="E137" s="195"/>
+      <c r="E137" s="194"/>
       <c r="F137" s="29"/>
       <c r="G137" s="29"/>
     </row>
@@ -33155,13 +33158,13 @@
       <c r="G163" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A165" s="192" t="s">
+      <c r="A165" s="195" t="s">
         <v>207</v>
       </c>
-      <c r="B165" s="192"/>
-      <c r="C165" s="192"/>
-      <c r="D165" s="192"/>
-      <c r="E165" s="192"/>
+      <c r="B165" s="195"/>
+      <c r="C165" s="195"/>
+      <c r="D165" s="195"/>
+      <c r="E165" s="195"/>
     </row>
     <row r="166" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" s="24" t="s">
@@ -33184,10 +33187,10 @@
       <c r="B168" s="47"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A169" s="192" t="s">
+      <c r="A169" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="192"/>
+      <c r="B169" s="195"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A170" s="24" t="s">
@@ -33219,13 +33222,13 @@
       <c r="B173" s="47"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A174" s="192" t="s">
+      <c r="A174" s="195" t="s">
         <v>217</v>
       </c>
-      <c r="B174" s="192"/>
-      <c r="C174" s="192"/>
-      <c r="D174" s="192"/>
-      <c r="E174" s="192"/>
+      <c r="B174" s="195"/>
+      <c r="C174" s="195"/>
+      <c r="D174" s="195"/>
+      <c r="E174" s="195"/>
     </row>
     <row r="175" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="24" t="s">
@@ -33245,13 +33248,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="192" t="s">
+      <c r="A178" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="B178" s="192"/>
-      <c r="C178" s="192"/>
-      <c r="D178" s="192"/>
-      <c r="E178" s="192"/>
+      <c r="B178" s="195"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="26" t="s">
@@ -33279,13 +33282,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="192" t="s">
+      <c r="A183" s="195" t="s">
         <v>212</v>
       </c>
-      <c r="B183" s="192"/>
-      <c r="C183" s="192"/>
-      <c r="D183" s="192"/>
-      <c r="E183" s="192"/>
+      <c r="B183" s="195"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="195"/>
+      <c r="E183" s="195"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="24" t="s">
@@ -33340,13 +33343,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A191" s="192" t="s">
+      <c r="A191" s="195" t="s">
         <v>228</v>
       </c>
-      <c r="B191" s="192"/>
-      <c r="C191" s="192"/>
-      <c r="D191" s="192"/>
-      <c r="E191" s="192"/>
+      <c r="B191" s="195"/>
+      <c r="C191" s="195"/>
+      <c r="D191" s="195"/>
+      <c r="E191" s="195"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A192" s="22" t="s">
@@ -33406,6 +33409,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -33420,12 +33429,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
